--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jagger\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F3315-F969-427C-9A15-905C3DAC3AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008CEA3-5C77-4E85-96A1-8310F09AE9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" firstSheet="2" activeTab="6" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanzi" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="564">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2400,10 +2400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从暂存区移除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>typename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2687,6 +2683,94 @@
   </si>
   <si>
     <t>datasource在plugin取不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从暂存区移除，不加文件名则全部撤回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数返回值加const的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">禁止返回值被修改，即不能作为左值使用
+应用场景：
+当返回值为引用时
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log [file]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看某个文件的历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出所有文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git blame [file]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文件的每一行最后修改的版本和作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git blame -L start,end file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示指定的行数区间，
+git blame -L 1,10 file（1到10行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把没有提交的修改暂存到stash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git stash pop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将stash内容恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard HASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回某个节点，不保留修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回某个节点，保留修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --soft HASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地所有修改没有提交的都返回原来的状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3500,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2649163</xdr:colOff>
+      <xdr:colOff>3192780</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>3620631</xdr:rowOff>
+      <xdr:rowOff>4225729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3525,8 +3609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5173980" y="16548761"/>
-          <a:ext cx="2529148" cy="2830030"/>
+          <a:off x="6256020" y="22149461"/>
+          <a:ext cx="3086100" cy="3435128"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7361,10 +7445,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -7373,10 +7457,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -8762,10 +8846,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -8774,10 +8858,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -8786,10 +8870,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>506</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -11335,10 +11419,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -11348,10 +11432,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -11364,7 +11448,7 @@
         <v>470</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -11374,10 +11458,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -11732,9 +11816,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11826,7 +11910,7 @@
         <v>478</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -12035,10 +12119,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>512</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>513</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -12046,72 +12130,108 @@
       <c r="B28" s="25">
         <v>26</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>547</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="25">
         <v>27</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="25">
         <v>28</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>551</v>
+      </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" ht="27.6">
       <c r="B31" s="25">
         <v>29</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>553</v>
+      </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="25">
         <v>30</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="35" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>555</v>
+      </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="25">
         <v>31</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>557</v>
+      </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="25">
         <v>32</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>559</v>
+      </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="25">
         <v>33</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>560</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="25">
         <v>34</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>563</v>
+      </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
@@ -12185,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -12196,10 +12316,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>508</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>509</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="3"/>
@@ -12930,8 +13050,8 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13712,10 +13832,10 @@
         <v>53</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -13725,7 +13845,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="3"/>
@@ -13736,7 +13856,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="3"/>
@@ -13747,7 +13867,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
@@ -13758,10 +13878,10 @@
         <v>57</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>487</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>488</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -13771,10 +13891,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>489</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>490</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -13784,7 +13904,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
@@ -13795,10 +13915,10 @@
         <v>60</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -13808,10 +13928,10 @@
         <v>61</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>516</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>517</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -13821,20 +13941,24 @@
         <v>62</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>523</v>
-      </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" ht="55.2">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+      <c r="C72" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>545</v>
+      </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5">
@@ -14034,7 +14158,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
@@ -14090,10 +14214,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>515</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -14103,10 +14227,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -14116,10 +14240,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -14129,7 +14253,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -14485,10 +14609,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>525</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -14498,10 +14622,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -14511,7 +14635,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -14522,7 +14646,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -14531,10 +14655,10 @@
     <row r="6" spans="2:6" ht="207">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -14544,10 +14668,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
@@ -14555,10 +14679,10 @@
     <row r="8" spans="2:6" ht="82.8">
       <c r="B8" s="2"/>
       <c r="C8" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -14568,10 +14692,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
@@ -14581,7 +14705,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
@@ -14592,7 +14716,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -14603,7 +14727,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -15076,10 +15200,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>541</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>542</v>
       </c>
       <c r="E14" s="7"/>
     </row>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008CEA3-5C77-4E85-96A1-8310F09AE9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E64C7D-6EA8-48D7-8546-2DC5EADC096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="3" activeTab="8" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanzi" sheetId="2" r:id="rId1"/>
@@ -20,19 +20,20 @@
     <sheet name="设计模式" sheetId="20" r:id="rId5"/>
     <sheet name="C&amp;C++" sheetId="14" r:id="rId6"/>
     <sheet name="PlugIn" sheetId="16" r:id="rId7"/>
-    <sheet name="术语" sheetId="26" r:id="rId8"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId9"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId10"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId11"/>
-    <sheet name="Java" sheetId="12" r:id="rId12"/>
-    <sheet name="JNI" sheetId="11" r:id="rId13"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId14"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId15"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId16"/>
-    <sheet name="优化" sheetId="8" r:id="rId17"/>
-    <sheet name="其他" sheetId="23" r:id="rId18"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId8"/>
+    <sheet name="其他" sheetId="23" r:id="rId9"/>
+    <sheet name="术语" sheetId="26" r:id="rId10"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId11"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId12"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId13"/>
+    <sheet name="Java" sheetId="12" r:id="rId14"/>
+    <sheet name="JNI" sheetId="11" r:id="rId15"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId16"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId17"/>
+    <sheet name="优化" sheetId="8" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="573">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2677,11 +2678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.通过local.properties指定ndk路径
-2.如下方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datasource在plugin取不到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2771,6 +2767,49 @@
   </si>
   <si>
     <t>本地所有修改没有提交的都返回原来的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.下载ndk，通过local.properties指定ndk路径（未验证）
+2.如下方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR: Cause: executing external native build for cmake D:\KanziWorkspace_3_6_16_27\Projects\maps_android\templates\Kanzi_Maps_application\Application\CMakeLists.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmake log在哪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考：
+D:\KanziWorkspace_3_6_16_27\Projects\maps_android\templates\Kanzi_Maps_application\Application\configs\platforms\android_gradle\output\cmake\mapboxDebug\arm64-v8a\cmake_server_log.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置变量
+例：set(KANZI_ROOT "D:/KanziWorkspace_3_6_16_27")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/jinking01/article/details/79420755?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;utm_relevant_index=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2983,7 +3022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3109,6 +3148,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4996,6 +5038,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>392454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6624445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1552371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CF23C0-A9D6-45B3-A9C5-B4E83B508DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5768340" y="567714"/>
+          <a:ext cx="6525385" cy="1159917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>68117</xdr:rowOff>
@@ -5125,10 +5216,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>70136</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>693419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98428EB0-89AF-4696-87D3-51FA9F09307F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="944880" y="19324320"/>
+          <a:ext cx="10532396" cy="373379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6145,7 +6280,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6326,7 +6461,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6375,7 +6510,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6413,55 +6548,6 @@
         <a:xfrm>
           <a:off x="5779770" y="1093471"/>
           <a:ext cx="7571619" cy="1287780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>392454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6624445</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1552371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CF23C0-A9D6-45B3-A9C5-B4E83B508DCE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5768340" y="567714"/>
-          <a:ext cx="6525385" cy="1159917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7897,12 +7983,884 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="207">
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.80000000000001">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="82.8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="331.2" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="69">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="187.2" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="45.6" customHeight="1">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" ht="27.6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" ht="69">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="207.6" customHeight="1">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" ht="274.2" customHeight="1">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" ht="55.2">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8269,7 +9227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
@@ -8917,7 +9875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -9300,13 +10258,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9682,436 +10640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="41.4">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="41.4">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -10530,7 +11059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
@@ -10966,7 +11495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F41"/>
@@ -11041,428 +11570,6 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="129" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" ht="27.6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>496</v>
-      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
@@ -11816,9 +11923,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11910,7 +12017,7 @@
         <v>478</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -12131,10 +12238,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>546</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>547</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -12143,10 +12250,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>548</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>549</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -12155,10 +12262,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>550</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>551</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -12167,10 +12274,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>552</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>553</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -12179,10 +12286,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>554</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>555</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -12191,10 +12298,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>556</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>557</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -12203,10 +12310,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>559</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -12215,10 +12322,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -12227,10 +12334,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>562</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>563</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -13954,10 +14061,10 @@
         <v>63</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>544</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>545</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -14253,7 +14360,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -14574,20 +14681,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
     <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -14597,22 +14705,26 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" ht="41.4">
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>523</v>
+      <c r="C2" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>524</v>
+        <v>218</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -14621,12 +14733,10 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>527</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
@@ -14634,8 +14744,8 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>526</v>
+      <c r="C4" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -14645,89 +14755,89 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>535</v>
+      <c r="C5" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="207">
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>528</v>
+    <row r="6" spans="2:6" ht="27.6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>537</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="82.8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
-        <v>538</v>
+    <row r="8" spans="2:6" ht="41.4">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>539</v>
+        <v>220</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>530</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>534</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -14735,282 +14845,266 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>568</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="3"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2">
-        <v>36</v>
-      </c>
-      <c r="C39" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2">
-        <v>37</v>
-      </c>
-      <c r="C40" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2">
-        <v>38</v>
-      </c>
-      <c r="C41" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2">
-        <v>39</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15020,421 +15114,434 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:6">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="331.2" customHeight="1">
+    <row r="2" spans="2:6" ht="129" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="C2" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>91</v>
+      <c r="C3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>494</v>
       </c>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" ht="27.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="C4" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>107</v>
+      <c r="C5" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="69">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>134</v>
+      <c r="C6" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>572</v>
       </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="187.2" customHeight="1">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="C8" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="45.6" customHeight="1">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>183</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="27.6">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>227</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="69">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>229</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="207.6" customHeight="1">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>541</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="14"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="14"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="14"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="14"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="14"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="14"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="7"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://blog.csdn.net/jinking01/article/details/79420755?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;utm_relevant_index=2" xr:uid="{FAD166F1-106F-4A48-999E-C3C9F2EFC940}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E64C7D-6EA8-48D7-8546-2DC5EADC096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F4778-11C7-45D5-B339-7201EAFE8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="3" activeTab="8" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="3" activeTab="5" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanzi" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="574">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2810,6 +2810,10 @@
   </si>
   <si>
     <t>https://blog.csdn.net/jinking01/article/details/79420755?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;utm_relevant_index=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何编译dll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9233,8 +9237,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9881,8 +9885,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13156,9 +13160,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14073,7 +14077,9 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="C73" s="14"/>
+      <c r="C73" s="14" t="s">
+        <v>573</v>
+      </c>
       <c r="D73" s="14"/>
       <c r="E73" s="3"/>
     </row>
@@ -15118,7 +15124,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,32 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F4778-11C7-45D5-B339-7201EAFE8130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132AA417-10A7-4C3C-83FE-0C26116A03F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="3" activeTab="5" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11940" tabRatio="889" firstSheet="3" activeTab="8" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Kanzi" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId2"/>
-    <sheet name="Git" sheetId="21" r:id="rId3"/>
-    <sheet name="计算相关" sheetId="25" r:id="rId4"/>
-    <sheet name="设计模式" sheetId="20" r:id="rId5"/>
-    <sheet name="C&amp;C++" sheetId="14" r:id="rId6"/>
-    <sheet name="PlugIn" sheetId="16" r:id="rId7"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId8"/>
-    <sheet name="其他" sheetId="23" r:id="rId9"/>
-    <sheet name="术语" sheetId="26" r:id="rId10"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId11"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId12"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId13"/>
-    <sheet name="Java" sheetId="12" r:id="rId14"/>
-    <sheet name="JNI" sheetId="11" r:id="rId15"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId16"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId17"/>
-    <sheet name="优化" sheetId="8" r:id="rId18"/>
+    <sheet name="Git" sheetId="21" r:id="rId2"/>
+    <sheet name="计算相关" sheetId="25" r:id="rId3"/>
+    <sheet name="C&amp;C++" sheetId="14" r:id="rId4"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId5"/>
+    <sheet name="PlugIn" sheetId="16" r:id="rId6"/>
+    <sheet name="其他" sheetId="23" r:id="rId7"/>
+    <sheet name="术语" sheetId="26" r:id="rId8"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId9"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId10"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId11"/>
+    <sheet name="Java" sheetId="12" r:id="rId12"/>
+    <sheet name="JNI" sheetId="11" r:id="rId13"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId14"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId15"/>
+    <sheet name="优化" sheetId="8" r:id="rId16"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="560">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,10 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深度测试选Always同时要考虑关闭深度缓存写入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERROR: Unable to find method 'org.gradle.api.artifacts.result.ComponentSelectionReason.getDescription()Ljava/lang/String;'.
 Possible causes for this unexpected error include:
 Gradle's dependency cache may be corrupt (this sometimes occurs after a network connection timeout.)
@@ -1787,127 +1781,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工厂方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适配器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>装饰器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>享元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备忘录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中介者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建型模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构型模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为型模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2010,11 +1888,6 @@
   </si>
   <si>
     <t>什么时候用对象，什么时候用指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考Iot Scan的execute列表，以固定的序列执行列表中的函数，子类可以重写其中的函数
-使用此方法的前提是序列固定（不过Scan中也有重写序列）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2566,10 +2439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误原因，没有添加TileRange的判断，因为没有更新到最新值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义属性在studio找不到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2816,12 +2685,87 @@
     <t>如何编译dll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>导入项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一路下一步至完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置dll编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建配置（命名dll为例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见sheet addtion_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改.ignore文件不生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果已经提交过文件或文件夹，则需要先删除远程库才能生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Gradle plugin requires Java 11 to run. You are currently using Java 1.8.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File&gt;Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找不到*.kzb.cfg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、未导出kzb
+2、检查名字与main.cpp是否一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution failed for task ':app:mergeDebugNativeLibs'.
+&gt; A failure occurred while executing com.android.build.gradle.internal.tasks.Workers$ActionFacade
+   &gt; More than one file was found with OS independent path 'lib/x86/libprebuilt.so'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度测试选Always同时要考虑是否需要关闭深度缓存写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误原因，没有添加TileRange的判断，因而没有时时更新到最新值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将kanzi组进android工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何给已有工程组入AndroidDataSource插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待整理详细手顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,8 +2848,33 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2914,24 +2883,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2968,19 +2925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2993,30 +2937,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3026,7 +2946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3099,43 +3019,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3150,10 +3043,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3526,6 +3431,708 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>454291</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>59625</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组合 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ED1040-2E1F-4CCB-B2A5-6B26F55DCEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="704850" y="680085"/>
+          <a:ext cx="6455041" cy="4081080"/>
+          <a:chOff x="701040" y="708660"/>
+          <a:chExt cx="6458851" cy="4086795"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1364D6C-88FD-4D1F-B677-2722822DACDA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="701040" y="708660"/>
+            <a:ext cx="6458851" cy="4086795"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矩形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE846857-50E8-4E44-B7E2-9F3B843F3836}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4297680" y="1623060"/>
+            <a:ext cx="1920240" cy="335280"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132648</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>98383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F6604F-7B9D-4F76-8A26-EF1E6E88C3A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5227320"/>
+          <a:ext cx="5619048" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132648</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>98383</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA50FA0A-01A2-4651-95E8-CCF7EDF27551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10835640"/>
+          <a:ext cx="5619048" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114741</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AC7EB8-B572-4515-9108-AE83F1005378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17868900"/>
+          <a:ext cx="3162741" cy="1524213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C64BFC-B6B3-425F-BD40-E1C49EA82531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="18882360"/>
+          <a:ext cx="876300" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5154338F-43A2-47B9-9953-E3682CA28432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120140" y="28780740"/>
+          <a:ext cx="1249680" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285409</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>96930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FDBBA7-C2C6-4467-A366-A45A017C8991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23172420"/>
+          <a:ext cx="2723809" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>284724</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>22321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADAF8BD-8B7D-4A83-B83F-6D9A1A5D7769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25275540"/>
+          <a:ext cx="8209524" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514363</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>132498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085FEADB-E887-4FAD-8A07-C49E8C93CA23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30007560"/>
+          <a:ext cx="15133333" cy="6819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22249</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>136908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F788EBE-E6DA-4AC1-9AC1-9D2C20672E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="37871400"/>
+          <a:ext cx="4885714" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>82886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555386</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>130878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42803266-8C7C-4E6B-8974-B7281DD6B2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="19925366"/>
+          <a:ext cx="4841636" cy="3139807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323319</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C02C73D-32F9-48FB-8408-81A6DA46A4CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="20032980"/>
+          <a:ext cx="4247619" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="箭头: 右 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64717186-1B37-42DE-9C00-10CD0DBCAEBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5638800" y="21115020"/>
+          <a:ext cx="601980" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5185,9 +5792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4425850</xdr:colOff>
+      <xdr:colOff>4429660</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2964179</xdr:rowOff>
+      <xdr:rowOff>2960369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5229,9 +5836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>70136</xdr:colOff>
+      <xdr:colOff>66326</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>693419</xdr:rowOff>
+      <xdr:rowOff>697229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5264,6 +5871,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>472456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4650574</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2447309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F749A59-2D04-4649-B88E-A7216A96903A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6659880" y="23656306"/>
+          <a:ext cx="4591519" cy="1972948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150495</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>211640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4341756</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2989761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B369F3-DD1A-44F3-AA85-09563B1896DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6751320" y="25929140"/>
+          <a:ext cx="4191261" cy="2778121"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5278,9 +5973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5051443</xdr:colOff>
+      <xdr:colOff>5047633</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1775277</xdr:rowOff>
+      <xdr:rowOff>1771467</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5366,9 +6061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5621656</xdr:colOff>
+      <xdr:colOff>5617846</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>895591</xdr:rowOff>
+      <xdr:rowOff>891781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5410,7 +6105,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4703446</xdr:colOff>
+      <xdr:colOff>4707256</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1603599</xdr:rowOff>
     </xdr:to>
@@ -5456,7 +6151,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>5562600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>930428</xdr:rowOff>
+      <xdr:rowOff>934238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5498,9 +6193,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1617346</xdr:colOff>
+      <xdr:colOff>1621156</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>973456</xdr:rowOff>
+      <xdr:rowOff>969646</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5544,7 +6239,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4073577</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>931493</xdr:rowOff>
+      <xdr:rowOff>935303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5588,7 +6283,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4797587</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>556227</xdr:rowOff>
+      <xdr:rowOff>552417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5632,7 +6327,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>5601041</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2457450</xdr:rowOff>
+      <xdr:rowOff>2453640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5674,9 +6369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5393055</xdr:colOff>
+      <xdr:colOff>5389245</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2914081</xdr:rowOff>
+      <xdr:rowOff>2917891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5720,7 +6415,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4039313</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2225041</xdr:rowOff>
+      <xdr:rowOff>2228851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5762,9 +6457,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4779023</xdr:colOff>
+      <xdr:colOff>4782833</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>4783455</xdr:rowOff>
+      <xdr:rowOff>4779645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5806,9 +6501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5619751</xdr:colOff>
+      <xdr:colOff>5615941</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>2075559</xdr:rowOff>
+      <xdr:rowOff>2079369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5850,7 +6545,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4629150</xdr:colOff>
+      <xdr:colOff>4625340</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>1104900</xdr:rowOff>
     </xdr:to>
@@ -5896,7 +6591,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4493341</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>1432410</xdr:rowOff>
+      <xdr:rowOff>1428600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5938,9 +6633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5619750</xdr:colOff>
+      <xdr:colOff>5615940</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>1425618</xdr:rowOff>
+      <xdr:rowOff>1429428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5984,7 +6679,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4646503</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>3865246</xdr:rowOff>
+      <xdr:rowOff>3869056</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6026,9 +6721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3638104</xdr:colOff>
+      <xdr:colOff>3641914</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>554324</xdr:rowOff>
+      <xdr:rowOff>550514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6070,9 +6765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3904765</xdr:colOff>
+      <xdr:colOff>3908575</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>1089620</xdr:rowOff>
+      <xdr:rowOff>1085810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6114,7 +6809,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4591712</xdr:colOff>
+      <xdr:colOff>4587902</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>1295400</xdr:rowOff>
     </xdr:to>
@@ -6158,7 +6853,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1655826</xdr:colOff>
+      <xdr:colOff>1659636</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>3544870</xdr:rowOff>
     </xdr:to>
@@ -6202,9 +6897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2125155</xdr:colOff>
+      <xdr:colOff>2123250</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>2543294</xdr:rowOff>
+      <xdr:rowOff>2541389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6248,7 +6943,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4230361</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>2499041</xdr:rowOff>
+      <xdr:rowOff>2495231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6863,9 +7558,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7044,7 +7739,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>158</v>
+        <v>555</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -7137,10 +7832,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -7149,10 +7844,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -7173,10 +7868,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -7185,7 +7880,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="3"/>
@@ -7195,7 +7890,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="3"/>
@@ -7205,10 +7900,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -7217,10 +7912,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -7229,10 +7924,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -7241,10 +7936,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -7265,10 +7960,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -7277,10 +7972,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -7289,10 +7984,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -7301,10 +7996,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>273</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -7313,7 +8008,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="3"/>
@@ -7323,10 +8018,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -7335,10 +8030,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -7347,10 +8042,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -7359,10 +8054,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -7372,7 +8067,7 @@
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -7381,7 +8076,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="3"/>
@@ -7391,10 +8086,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -7403,10 +8098,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -7415,10 +8110,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -7427,10 +8122,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -7439,10 +8134,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>298</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -7451,10 +8146,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -7463,10 +8158,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -7475,10 +8170,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -7487,10 +8182,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>334</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -7499,10 +8194,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -7511,10 +8206,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -7523,10 +8218,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -7535,10 +8230,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>484</v>
+        <v>453</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>485</v>
+        <v>454</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -7547,10 +8242,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>499</v>
+        <v>468</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -7987,878 +8682,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="207">
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="82.8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>36</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>37</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>38</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2">
-        <v>39</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E42"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="331.2" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="69">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="187.2" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="45.6" customHeight="1">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="27.6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="69">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="207.6" customHeight="1">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="274.2" customHeight="1">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" ht="55.2">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:E42"/>
@@ -8908,10 +8731,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -8920,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
@@ -9231,14 +9054,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9285,7 +9108,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -9321,7 +9144,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -9345,7 +9168,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -9594,7 +9417,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>125</v>
@@ -9670,8 +9493,8 @@
       <c r="C36" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>248</v>
+      <c r="D36" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -9716,10 +9539,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -9728,10 +9551,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" s="7"/>
     </row>
@@ -9740,10 +9563,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>132</v>
@@ -9754,10 +9577,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -9766,10 +9589,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>337</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>338</v>
       </c>
       <c r="E44" s="7"/>
     </row>
@@ -9778,7 +9601,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -9788,7 +9611,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -9798,7 +9621,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -9808,10 +9631,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -9820,10 +9643,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>502</v>
+        <v>471</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -9832,19 +9655,23 @@
         <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>504</v>
+        <v>473</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>505</v>
+        <v>474</v>
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" ht="27.6">
       <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
+      <c r="C51" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="2:5">
@@ -9879,13 +9706,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9914,10 +9741,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -9926,10 +9753,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -9950,10 +9777,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -9962,10 +9789,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -10262,13 +10089,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -10301,10 +10128,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -10313,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="3"/>
@@ -10323,10 +10150,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -10335,7 +10162,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3"/>
@@ -10345,10 +10172,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -10357,10 +10184,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -10369,7 +10196,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -10644,7 +10471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -10750,10 +10577,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -10762,10 +10589,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -10774,10 +10601,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -10786,10 +10613,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -10798,10 +10625,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -10810,10 +10637,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -10822,10 +10649,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -10837,7 +10664,7 @@
         <v>92</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -11063,13 +10890,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11111,7 +10938,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -11120,13 +10947,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -11135,13 +10962,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>240</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -11150,13 +10977,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="166.2" customHeight="1">
@@ -11164,13 +10991,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="96.6">
@@ -11178,11 +11005,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -11499,7 +11326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F41"/>
@@ -11909,463 +11736,507 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174CD64-FF95-4413-A39C-27C41E29F9C3}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
+  <dimension ref="A2:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="25.2">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="22.8">
+      <c r="B93" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="22.8">
+      <c r="B96" s="35"/>
+    </row>
+    <row r="97" spans="1:2" ht="25.2">
+      <c r="A97" s="34">
+        <v>2</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17.399999999999999">
+      <c r="B109" s="36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="25.2">
+      <c r="A209" s="34">
+        <v>3</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
     <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
     <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="39"/>
+      <c r="A1" s="30"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D1" s="40"/>
+        <v>401</v>
+      </c>
+      <c r="D1" s="31"/>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>433</v>
+      <c r="C3" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>434</v>
+      <c r="C4" s="28" t="s">
+        <v>403</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>435</v>
+      <c r="C5" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>436</v>
+      <c r="C6" s="28" t="s">
+        <v>405</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>6</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>437</v>
+      <c r="C7" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>7</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>478</v>
+      <c r="C8" s="28" t="s">
+        <v>447</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>8</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>438</v>
+      <c r="C9" s="28" t="s">
+        <v>407</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>9</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>439</v>
+      <c r="C10" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>10</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>440</v>
+      <c r="C11" s="28" t="s">
+        <v>409</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>11</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>441</v>
+      <c r="C12" s="28" t="s">
+        <v>410</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>12</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>442</v>
+      <c r="C13" s="28" t="s">
+        <v>411</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>13</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>448</v>
+      <c r="C14" s="28" t="s">
+        <v>417</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>14</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>443</v>
+      <c r="C15" s="28" t="s">
+        <v>412</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>15</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>444</v>
+      <c r="C16" s="28" t="s">
+        <v>413</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>16</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>445</v>
+      <c r="C17" s="26" t="s">
+        <v>414</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>17</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>449</v>
+      <c r="C18" s="26" t="s">
+        <v>418</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>18</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>464</v>
+      <c r="C19" s="26" t="s">
+        <v>433</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>19</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>462</v>
+      <c r="C20" s="26" t="s">
+        <v>431</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>20</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>452</v>
+      <c r="C21" s="26" t="s">
+        <v>421</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25"/>
-      <c r="C22" s="35" t="s">
-        <v>465</v>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26" t="s">
+        <v>434</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>21</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>453</v>
+      <c r="C23" s="26" t="s">
+        <v>422</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>22</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>456</v>
+      <c r="C24" s="26" t="s">
+        <v>425</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>23</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>458</v>
+      <c r="C25" s="26" t="s">
+        <v>427</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>24</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>460</v>
+      <c r="C26" s="26" t="s">
+        <v>429</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>25</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>511</v>
+      <c r="C27" s="26" t="s">
+        <v>480</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>26</v>
       </c>
-      <c r="C28" s="35" t="s">
-        <v>545</v>
+      <c r="C28" s="26" t="s">
+        <v>513</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>27</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>547</v>
+      <c r="C29" s="26" t="s">
+        <v>515</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>28</v>
       </c>
-      <c r="C30" s="35" t="s">
-        <v>549</v>
+      <c r="C30" s="26" t="s">
+        <v>517</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" ht="27.6">
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>29</v>
       </c>
-      <c r="C31" s="35" t="s">
-        <v>551</v>
+      <c r="C31" s="26" t="s">
+        <v>519</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="35" t="s">
-        <v>553</v>
+      <c r="C32" s="26" t="s">
+        <v>521</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>31</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>555</v>
+      <c r="C33" s="26" t="s">
+        <v>523</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>556</v>
+        <v>524</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>32</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>557</v>
+      <c r="C34" s="26" t="s">
+        <v>525</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>33</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>560</v>
+      <c r="C35" s="26" t="s">
+        <v>528</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="25">
+      <c r="B36" s="24">
         <v>34</v>
       </c>
-      <c r="C36" s="35" t="s">
-        <v>561</v>
+      <c r="C36" s="26" t="s">
+        <v>529</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="25">
+      <c r="B37" s="24">
         <v>35</v>
       </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="14"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="25">
+      <c r="B38" s="24">
         <v>36</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="25">
+      <c r="B39" s="24">
         <v>37</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="14"/>
       <c r="E39" s="3"/>
     </row>
@@ -12376,13 +12247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12400,11 +12271,11 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>366</v>
+      <c r="C1" s="25" t="s">
+        <v>339</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="3" t="s">
@@ -12415,8 +12286,8 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>506</v>
+      <c r="C2" s="26" t="s">
+        <v>475</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -12426,11 +12297,11 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>507</v>
+      <c r="C3" s="26" t="s">
+        <v>476</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="3"/>
@@ -12439,7 +12310,7 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="3"/>
@@ -12448,7 +12319,7 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
@@ -12457,7 +12328,7 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="3"/>
@@ -12466,7 +12337,7 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="3"/>
@@ -12475,7 +12346,7 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="3"/>
@@ -12484,7 +12355,7 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="3"/>
@@ -12493,7 +12364,7 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="3"/>
@@ -12502,7 +12373,7 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="3"/>
@@ -12511,7 +12382,7 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="3"/>
@@ -12520,7 +12391,7 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="3"/>
@@ -12529,7 +12400,7 @@
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="3"/>
@@ -12538,7 +12409,7 @@
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="3"/>
@@ -12547,7 +12418,7 @@
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="3"/>
@@ -12556,7 +12427,7 @@
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="3"/>
@@ -12565,7 +12436,7 @@
       <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="3"/>
@@ -12574,7 +12445,7 @@
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="35"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="3"/>
@@ -12583,7 +12454,7 @@
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="3"/>
@@ -12592,7 +12463,7 @@
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="35"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="3"/>
@@ -12601,7 +12472,7 @@
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="3"/>
@@ -12610,7 +12481,7 @@
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="35"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="3"/>
@@ -12622,547 +12493,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202EF092-0595-45CB-92EC-62E3C67F0E5C}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F49"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="25">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="25">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="25">
-        <v>3</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="25">
-        <v>4</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="25">
-        <v>5</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="25">
-        <v>6</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>368</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="25">
-        <v>7</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="25">
-        <v>8</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="25">
-        <v>9</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="25">
-        <v>10</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="25">
-        <v>11</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="25">
-        <v>12</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="25">
-        <v>13</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" ht="27.6">
-      <c r="B15" s="25">
-        <v>14</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="25">
-        <v>15</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="25">
-        <v>16</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="25">
-        <v>17</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="25">
-        <v>18</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="25">
-        <v>19</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="25">
-        <v>20</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="25">
-        <v>21</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="25">
-        <v>22</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="25">
-        <v>23</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="25">
-        <v>25</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2">
-        <v>41</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2">
-        <v>42</v>
-      </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="2">
-        <v>43</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="2">
-        <v>44</v>
-      </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="2">
-        <v>45</v>
-      </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="2">
-        <v>46</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="2">
-        <v>47</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="2">
-        <v>48</v>
-      </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0256962B-F3FC-476F-9574-E04CC44E1162}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13190,10 +12528,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -13232,7 +12570,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -13255,10 +12593,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -13268,10 +12606,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -13281,7 +12619,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
@@ -13292,10 +12630,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -13318,10 +12656,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -13331,10 +12669,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -13344,10 +12682,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -13357,10 +12695,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -13370,10 +12708,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -13383,10 +12721,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -13396,10 +12734,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -13409,7 +12747,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
@@ -13420,10 +12758,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -13433,10 +12771,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -13446,10 +12784,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>310</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>311</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -13459,10 +12797,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -13480,10 +12818,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -13493,10 +12831,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -13506,7 +12844,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
@@ -13517,10 +12855,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>318</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>319</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -13530,10 +12868,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -13543,10 +12881,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>329</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -13556,10 +12894,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>330</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>331</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -13569,7 +12907,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
@@ -13580,10 +12918,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -13593,10 +12931,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -13605,11 +12943,11 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>467</v>
+      <c r="C35" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>436</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -13619,10 +12957,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -13632,10 +12970,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -13645,7 +12983,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
@@ -13656,10 +12994,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -13669,10 +13007,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -13682,10 +13020,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -13695,10 +13033,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -13708,10 +13046,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -13721,7 +13059,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="3"/>
@@ -13732,7 +13070,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="3"/>
@@ -13743,10 +13081,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -13757,7 +13095,7 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -13767,10 +13105,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -13780,10 +13118,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -13793,7 +13131,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
@@ -13804,10 +13142,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -13817,10 +13155,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -13830,10 +13168,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -13843,7 +13181,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="3"/>
@@ -13854,7 +13192,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
@@ -13865,10 +13203,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -13878,10 +13216,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -13891,10 +13229,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -13904,10 +13242,10 @@
         <v>50</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -13917,10 +13255,10 @@
         <v>51</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -13930,10 +13268,10 @@
         <v>52</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -13943,10 +13281,10 @@
         <v>53</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -13956,7 +13294,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="3"/>
@@ -13967,7 +13305,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>482</v>
+        <v>451</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="3"/>
@@ -13978,7 +13316,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>483</v>
+        <v>452</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
@@ -13989,10 +13327,10 @@
         <v>57</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>486</v>
+        <v>455</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>487</v>
+        <v>456</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -14002,10 +13340,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>489</v>
+        <v>458</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -14015,7 +13353,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
@@ -14026,10 +13364,10 @@
         <v>60</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>509</v>
+        <v>478</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -14039,10 +13377,10 @@
         <v>61</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -14052,10 +13390,10 @@
         <v>62</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>522</v>
+        <v>490</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -14065,10 +13403,10 @@
         <v>63</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>544</v>
+        <v>512</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -14078,9 +13416,11 @@
         <v>64</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="D73" s="14"/>
+        <v>541</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>547</v>
+      </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="2:5">
@@ -14259,6 +13599,7 @@
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" xr:uid="{63E60A7E-0649-4BBE-BFBB-6656ACA243CE}"/>
     <hyperlink ref="D49" r:id="rId2" xr:uid="{142CA485-A385-4466-B1F5-3DBDA44F18FB}"/>
+    <hyperlink ref="D73" location="addition_1!A1" display="详见sheet addtion_1" xr:uid="{088AD35D-9EA8-4324-852A-254ACD39CA1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14266,427 +13607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="252" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" ht="409.6" customHeight="1">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="336.6" customHeight="1">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="194.4" customHeight="1">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F41"/>
@@ -14712,7 +13633,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
@@ -14727,10 +13648,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -14740,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -14751,7 +13672,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -14762,7 +13683,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -14773,10 +13694,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -14786,7 +13707,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -14797,10 +13718,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -14810,7 +13731,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7"/>
@@ -14821,7 +13742,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -14832,7 +13753,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -14843,7 +13764,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -14854,7 +13775,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>568</v>
+        <v>536</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -15119,7 +14040,427 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="252" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" ht="409.6" customHeight="1">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="336.6" customHeight="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F41"/>
@@ -15162,10 +14503,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -15175,10 +14516,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -15188,10 +14529,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -15201,10 +14542,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -15214,10 +14555,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>572</v>
+        <v>537</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>540</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -15227,7 +14568,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>570</v>
+        <v>538</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -15238,7 +14579,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -15550,4 +14891,890 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="207">
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.80000000000001">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="82.8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="331.2" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="69">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="187.2" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="45.6" customHeight="1">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" ht="27.6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" ht="69">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="207.6" customHeight="1">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" ht="274.2" customHeight="1">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" ht="55.2">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" ht="199.2" customHeight="1">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="249.6" customHeight="1">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,28 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132AA417-10A7-4C3C-83FE-0C26116A03F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD12CC5-BBCA-4F35-AC07-5482A2AADFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11940" tabRatio="889" firstSheet="3" activeTab="8" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kanzi" sheetId="2" r:id="rId1"/>
-    <sheet name="Git" sheetId="21" r:id="rId2"/>
+    <sheet name="Index" sheetId="29" r:id="rId1"/>
+    <sheet name="Kanzi" sheetId="2" r:id="rId2"/>
     <sheet name="计算相关" sheetId="25" r:id="rId3"/>
     <sheet name="C&amp;C++" sheetId="14" r:id="rId4"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId5"/>
-    <sheet name="PlugIn" sheetId="16" r:id="rId6"/>
-    <sheet name="其他" sheetId="23" r:id="rId7"/>
-    <sheet name="术语" sheetId="26" r:id="rId8"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId9"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId10"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId11"/>
-    <sheet name="Java" sheetId="12" r:id="rId12"/>
-    <sheet name="JNI" sheetId="11" r:id="rId13"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId14"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId15"/>
-    <sheet name="优化" sheetId="8" r:id="rId16"/>
-    <sheet name="addition_1" sheetId="27" r:id="rId17"/>
+    <sheet name="Git" sheetId="21" r:id="rId5"/>
+    <sheet name="LinuxCmd" sheetId="28" r:id="rId6"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId7"/>
+    <sheet name="PlugIn" sheetId="16" r:id="rId8"/>
+    <sheet name="其他" sheetId="23" r:id="rId9"/>
+    <sheet name="术语" sheetId="26" r:id="rId10"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId11"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId12"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId13"/>
+    <sheet name="Java" sheetId="12" r:id="rId14"/>
+    <sheet name="JNI" sheetId="11" r:id="rId15"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId16"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId17"/>
+    <sheet name="优化" sheetId="8" r:id="rId18"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="579">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2758,6 +2760,82 @@
   </si>
   <si>
     <t>待整理详细手顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kanzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C&amp;C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMakeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KanziPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境&amp;编译&amp;运行等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidStudio快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinuxCmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2946,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3060,6 +3138,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7554,22 +7635,646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5BEFB8-0CD9-4695-86D3-C156CA1EAB57}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C4D5F-8CF9-4CD9-B85E-BB52E462CE8B}">
+  <dimension ref="A2:B19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Kanzi!A1" display="Kanzi" xr:uid="{F441679F-A834-4C75-BF44-562FA1CC483C}"/>
+    <hyperlink ref="B3" location="计算相关!A1" display="计算相关" xr:uid="{A3309BF2-4D63-42C8-8032-DEB8C6C73D35}"/>
+    <hyperlink ref="B4" location="'C&amp;C++'!A1" display="C&amp;C++" xr:uid="{C79B812C-9C81-4F62-BD19-4647A583349D}"/>
+    <hyperlink ref="B5" location="Git!A1" display="Git" xr:uid="{EC099008-32DB-435E-AFD0-6626C5561D8E}"/>
+    <hyperlink ref="B7" location="CMakeList!A1" display="CMakeList" xr:uid="{F2F34CAA-4B8D-4C4B-80F6-AB90065FE85E}"/>
+    <hyperlink ref="B6" location="LinuxCmd!A1" display="LinuxCmd" xr:uid="{B8E882D3-43C9-486F-BA84-6EED60EF9C16}"/>
+    <hyperlink ref="B8" location="PlugIn!A1" display="KanziPlugin" xr:uid="{4A83654F-D061-46FC-A64F-83AE0460CC3E}"/>
+    <hyperlink ref="B9" location="其他!A1" display="其他" xr:uid="{4F8EB6AB-F89B-4FAB-B3FA-03F3D2FDD27D}"/>
+    <hyperlink ref="B10" location="其他!A1" display="术语" xr:uid="{62D70DA9-C6FC-4A84-B294-46BA1B6EF1EE}"/>
+    <hyperlink ref="B11" location="Android相关!A1" display="Android" xr:uid="{5D206D20-1194-4DD9-8E70-889E60ACB717}"/>
+    <hyperlink ref="B12" location="LearnOpenGL!A1" display="OpenGL" xr:uid="{1FB5E5AB-F903-4C52-91F0-82116117B076}"/>
+    <hyperlink ref="B13" location="'环境&amp;编译&amp;运行等'!A1" display="环境&amp;编译&amp;运行等" xr:uid="{96F75A75-7E83-4E17-97F1-258DECDD9506}"/>
+    <hyperlink ref="B14" location="Java!A1" display="Java" xr:uid="{A5CFCCEB-923C-48EB-A337-681B4A665AD6}"/>
+    <hyperlink ref="B15" location="JNI!A1" display="JNI" xr:uid="{B7B285F8-2CBB-4CF7-BBC5-DDCFB47A1E76}"/>
+    <hyperlink ref="B16" location="AndroidStudio常用快捷键!A1" display="AndroidStudio快捷键" xr:uid="{BD195E58-5612-444F-86CE-03CF2BB0FF2F}"/>
+    <hyperlink ref="B17" location="Bug案例!A1" display="Bug案例" xr:uid="{6D45981E-26EC-46E7-9BCD-7C5173EC7828}"/>
+    <hyperlink ref="B18" location="优化!A1" display="优化" xr:uid="{C8DF4125-7FC2-448E-94D1-2FD14717EF91}"/>
+    <hyperlink ref="B19" location="addition_1!A1" display="addition_1" xr:uid="{4F2FFFDA-AABB-4F6A-8CDC-D0C64A03284A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="92" style="11" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="207">
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.80000000000001">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" ht="82.8">
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -7577,1101 +8282,413 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" ht="331.2" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" ht="41.4">
+      <c r="C2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="C3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="205.8" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="55.2">
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="69">
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+      <c r="C6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="2:5" ht="187.2" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="69">
+        <v>152</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5">
+        <v>180</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:5" ht="45.6" customHeight="1">
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="27.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="C11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" ht="69">
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="C12" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="207.6" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" ht="112.2" customHeight="1">
+      <c r="C14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" ht="274.2" customHeight="1">
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+      <c r="C15" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" ht="55.2">
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="C16" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" ht="199.2" customHeight="1">
       <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="27.6">
+      <c r="C17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" ht="249.6" customHeight="1">
       <c r="B18" s="2">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>554</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="C19" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="277.2" customHeight="1">
+      <c r="C20" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" ht="27.6">
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="306.60000000000002" customHeight="1">
+      <c r="C26" s="7"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="69">
+      <c r="C29" s="7"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="41.4">
+    <row r="33" spans="2:5">
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="27.6">
+      <c r="C34" s="7"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="27.6">
+      <c r="C35" s="7"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="3"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="3"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="3"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" ht="27.6">
+      <c r="C40" s="7"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="2">
-        <v>42</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="2">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="2">
-        <v>44</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="2">
-        <v>45</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" ht="204" customHeight="1">
-      <c r="B47" s="2">
-        <v>46</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="2">
-        <v>47</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="2">
-        <v>48</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="2">
-        <v>49</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" ht="27.6">
-      <c r="B51" s="2">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="2">
-        <v>51</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" ht="27.6">
-      <c r="B53" s="2">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="2">
-        <v>53</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="2">
-        <v>54</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="2:5" ht="27.6">
-      <c r="B56" s="2">
-        <v>55</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:5" ht="27.6">
-      <c r="B57" s="2">
-        <v>56</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="2">
-        <v>57</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="2">
-        <v>58</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="2">
-        <v>59</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="2">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="2">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="2">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="2">
-        <v>63</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="2">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="2">
-        <v>65</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="2">
-        <v>66</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="2">
-        <v>67</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="2">
-        <v>68</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="2">
-        <v>69</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="2">
-        <v>70</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="2">
-        <v>71</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="2">
-        <v>72</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="2">
-        <v>74</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="2">
-        <v>75</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="2">
-        <v>76</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="2">
-        <v>77</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="2">
-        <v>78</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="2">
-        <v>79</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="2">
-        <v>80</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="2">
-        <v>81</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="2">
-        <v>82</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="2">
-        <v>83</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="2">
-        <v>84</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="2">
-        <v>85</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="2">
-        <v>86</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="2">
-        <v>87</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="2">
-        <v>88</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="2">
-        <v>89</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="2">
-        <v>90</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="2">
-        <v>91</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="2">
-        <v>92</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="2">
-        <v>93</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="2">
-        <v>94</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="2">
-        <v>95</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="2">
-        <v>96</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="2">
-        <v>97</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="2">
-        <v>98</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="2">
-        <v>99</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="2">
-        <v>100</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="2">
-        <v>101</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="2">
-        <v>102</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="2">
-        <v>103</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="2">
-        <v>104</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="2">
-        <v>105</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="2">
-        <v>106</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="2">
-        <v>107</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="2">
-        <v>108</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="2">
-        <v>109</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="3"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8681,7 +8698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:E42"/>
@@ -9054,7 +9071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
@@ -9706,7 +9723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -10089,7 +10106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
@@ -10471,7 +10488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -10890,7 +10907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
@@ -11326,7 +11343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F41"/>
@@ -11736,7 +11753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
   <dimension ref="A2:B209"/>
   <sheetViews>
@@ -11790,460 +11807,1130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5BEFB8-0CD9-4695-86D3-C156CA1EAB57}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="92" style="11" customWidth="1"/>
     <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="30"/>
+    <row r="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="24">
+    <row r="2" spans="2:5">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>549</v>
-      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="24">
+    <row r="3" spans="2:5" ht="41.4">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="24">
+    <row r="4" spans="2:5">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="24">
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="24">
+    <row r="6" spans="2:5" ht="55.2">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="24">
+    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="D7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="24">
+    <row r="8" spans="2:5" ht="69">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>447</v>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="24">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="24">
+    <row r="10" spans="2:5">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="24">
+    <row r="11" spans="2:5" ht="27.6">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="D11" s="15"/>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="24">
+    <row r="12" spans="2:5">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="24">
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>415</v>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="24">
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>416</v>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>555</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="24">
+    <row r="15" spans="2:5" ht="112.2" customHeight="1">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="14"/>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="24">
+    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="14"/>
+      <c r="C16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="24">
+    <row r="18" spans="2:5" ht="27.6">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>419</v>
+      <c r="C18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="24">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>420</v>
+      <c r="C19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="24">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>432</v>
+      <c r="C20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="24">
+    <row r="21" spans="2:5" ht="277.2" customHeight="1">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>424</v>
+      <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>435</v>
+    <row r="22" spans="2:5" ht="27.6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="24">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>423</v>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="24">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E24" s="3"/>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="24">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>428</v>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="24">
-        <v>24</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>430</v>
-      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="8"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="24">
-        <v>25</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>481</v>
-      </c>
+    <row r="27" spans="2:5" ht="306.60000000000002" customHeight="1">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="24">
-        <v>26</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>514</v>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="24">
-        <v>27</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>516</v>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="24">
-        <v>28</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>518</v>
+    <row r="30" spans="2:5" ht="69">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="27.6">
-      <c r="B31" s="24">
-        <v>29</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>520</v>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="24">
-        <v>30</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="24">
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>524</v>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5" ht="41.4">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="24">
-        <v>32</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>526</v>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="24">
-        <v>33</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>527</v>
+    <row r="35" spans="2:5" ht="27.6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="24">
-        <v>34</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>530</v>
+    <row r="36" spans="2:5" ht="27.6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="24">
-        <v>35</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="24">
-        <v>36</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>276</v>
+      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="24">
-        <v>37</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" ht="27.6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" ht="204" customHeight="1">
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" ht="27.6">
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" ht="27.6">
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" ht="27.6">
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" ht="27.6">
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="2">
+        <v>101</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="2">
+        <v>102</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="2">
+        <v>103</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="2">
+        <v>104</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="2">
+        <v>105</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="2">
+        <v>106</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="2">
+        <v>107</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="2">
+        <v>108</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="2">
+        <v>109</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13608,6 +14295,809 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="24">
+        <v>5</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="24">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="24">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="24">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="24">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="24">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="24">
+        <v>13</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="24">
+        <v>14</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="24">
+        <v>15</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="24">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="24">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="24">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="24">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="24"/>
+      <c r="C22" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="24">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="24">
+        <v>22</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="24">
+        <v>23</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24">
+        <v>24</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="24">
+        <v>25</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="24">
+        <v>26</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="24">
+        <v>27</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="24">
+        <v>28</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" ht="27.6">
+      <c r="B31" s="24">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24">
+        <v>30</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="24">
+        <v>31</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="24">
+        <v>32</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="24">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="24">
+        <v>34</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="24">
+        <v>35</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="24">
+        <v>36</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="24">
+        <v>37</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A15724-314A-4210-943D-4A1015072904}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1">
+      <c r="A1" s="30"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="24">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="24">
+        <v>2</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="24">
+        <v>3</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="24">
+        <v>4</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="24">
+        <v>5</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="24">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="24">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="24">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="24">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="24">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="24">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="24">
+        <v>12</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="24">
+        <v>13</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="24">
+        <v>14</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="24">
+        <v>15</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="24">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="24">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="24">
+        <v>18</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="24">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="24">
+        <v>21</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="24">
+        <v>22</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="24">
+        <v>24</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="24">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="24">
+        <v>27</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="24">
+        <v>28</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="24">
+        <v>29</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="24">
+        <v>30</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24">
+        <v>31</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="24">
+        <v>32</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="24">
+        <v>33</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="24">
+        <v>34</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="24">
+        <v>35</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="24">
+        <v>36</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="24">
+        <v>37</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="24">
+        <v>38</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F41"/>
@@ -14040,7 +15530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F41"/>
@@ -14460,7 +15950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F41"/>
@@ -14891,890 +16381,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
-  <dimension ref="A1:F43"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="207">
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" ht="82.8">
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>28</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>36</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>37</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>38</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="2">
-        <v>39</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="2">
-        <v>40</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:E42"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="331.2" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="69">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="187.2" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="45.6" customHeight="1">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="27.6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="69">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="207.6" customHeight="1">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="274.2" customHeight="1">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" ht="55.2">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" ht="199.2" customHeight="1">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" ht="249.6" customHeight="1">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD12CC5-BBCA-4F35-AC07-5482A2AADFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C15DA-DD15-41E6-8EF1-7BED036E7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" activeTab="7" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="583">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2836,6 +2836,24 @@
   </si>
   <si>
     <t>LinuxCmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要用空格代替tap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会出现无法对齐
+可能导致错误
+空格兼容性更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意点关于property</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property发生变化会先被赋予初始值再赋予新值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7638,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C4D5F-8CF9-4CD9-B85E-BB52E462CE8B}">
   <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
@@ -13187,7 +13205,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14110,13 +14128,17 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" ht="41.4">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="C74" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>580</v>
+      </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="2:5">
@@ -15535,9 +15557,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -15640,8 +15662,12 @@
       <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>582</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9C15DA-DD15-41E6-8EF1-7BED036E7322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87238D7E-7681-4942-AF28-860B91DBF8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" activeTab="7" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="581">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1780,14 +1780,6 @@
   </si>
   <si>
     <t>libkanzi.so是什么，是main函数所在cpp编译出来的吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3537,6 +3529,55 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>750571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7678299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2034541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EEDFC4-0F68-436A-886D-C059A281FCE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5779770" y="1093471"/>
+          <a:ext cx="7571619" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3563,8 +3604,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="680085"/>
-          <a:ext cx="6455041" cy="4081080"/>
+          <a:off x="701040" y="678180"/>
+          <a:ext cx="6458851" cy="3987735"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -4238,6 +4279,72 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4352057</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>859155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9913B9D-44B4-4AAC-8386-31D982F98CFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2000250" y="257175"/>
+          <a:ext cx="4275857" cy="773430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5298,7 +5405,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5743,7 +5850,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5792,7 +5899,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6061,7 +6168,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7078,7 +7185,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7259,7 +7366,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7297,55 +7404,6 @@
         <a:xfrm>
           <a:off x="933450" y="6854190"/>
           <a:ext cx="8686362" cy="1030604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>102870</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>750571</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7678299</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2034541</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EEDFC4-0F68-436A-886D-C059A281FCE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5779770" y="1093471"/>
-          <a:ext cx="7571619" cy="1287780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7665,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7673,7 +7731,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7681,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7689,7 +7747,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7697,7 +7755,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7705,7 +7763,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7713,7 +7771,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7721,7 +7779,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7729,7 +7787,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7737,7 +7795,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7745,7 +7803,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7753,7 +7811,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7761,7 +7819,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7769,7 +7827,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7777,7 +7835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7785,7 +7843,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7793,7 +7851,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7801,7 +7859,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -7866,10 +7924,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -7879,10 +7937,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>495</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -7892,7 +7950,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7903,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -7912,10 +7970,10 @@
     <row r="6" spans="2:6" ht="207">
       <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -7925,10 +7983,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
@@ -7936,10 +7994,10 @@
     <row r="8" spans="2:6" ht="82.8">
       <c r="B8" s="2"/>
       <c r="C8" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -7949,10 +8007,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
@@ -7962,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7"/>
@@ -7973,7 +8031,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -7984,7 +8042,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -8457,10 +8515,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -8469,7 +8527,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="7"/>
@@ -8479,10 +8537,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -8491,10 +8549,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -8503,7 +8561,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="7"/>
@@ -8513,10 +8571,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>559</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -8525,10 +8583,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -8778,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
@@ -9646,7 +9704,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -9656,7 +9714,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -9666,10 +9724,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -9678,10 +9736,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E49" s="7"/>
     </row>
@@ -9690,10 +9748,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E50" s="7"/>
     </row>
@@ -9702,10 +9760,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -10219,10 +10277,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -10231,7 +10289,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -11784,12 +11842,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="22.8">
       <c r="B93" s="35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="22.8">
@@ -11800,12 +11858,12 @@
         <v>2</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.399999999999999">
       <c r="B109" s="36" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="25.2">
@@ -11813,7 +11871,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -12010,7 +12068,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -12393,10 +12451,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -12477,10 +12535,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -12489,10 +12547,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -12501,10 +12559,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -12513,10 +12571,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -12956,9 +13014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -12966,7 +13024,7 @@
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
     <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="67" style="19" customWidth="1"/>
     <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
     <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -12976,25 +13034,21 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>340</v>
-      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" ht="78.599999999999994" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="D2" s="14"/>
+        <v>473</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" s="14"/>
       <c r="F2" s="3"/>
     </row>
@@ -13003,10 +13057,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="3"/>
@@ -13195,6 +13249,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13275,7 +13330,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -13364,7 +13419,7 @@
         <v>252</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -13390,7 +13445,7 @@
         <v>305</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -13400,10 +13455,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -13505,7 +13560,7 @@
         <v>311</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -13623,10 +13678,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -13636,10 +13691,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -13649,10 +13704,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -13662,10 +13717,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -13675,10 +13730,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -13688,7 +13743,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
@@ -13699,10 +13754,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -13712,10 +13767,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -13725,10 +13780,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -13738,10 +13793,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -13751,10 +13806,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -13764,7 +13819,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="3"/>
@@ -13775,7 +13830,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="3"/>
@@ -13786,10 +13841,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -13800,7 +13855,7 @@
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -13810,10 +13865,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -13823,10 +13878,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -13836,7 +13891,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
@@ -13847,10 +13902,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -13860,10 +13915,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -13873,10 +13928,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -13886,7 +13941,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="3"/>
@@ -13897,7 +13952,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
@@ -13908,10 +13963,10 @@
         <v>47</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -13921,10 +13976,10 @@
         <v>48</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -13934,10 +13989,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -13947,10 +14002,10 @@
         <v>50</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -13960,10 +14015,10 @@
         <v>51</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -13973,10 +14028,10 @@
         <v>52</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -13986,10 +14041,10 @@
         <v>53</v>
       </c>
       <c r="C62" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>450</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -13999,7 +14054,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="3"/>
@@ -14010,7 +14065,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="3"/>
@@ -14021,7 +14076,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
@@ -14032,10 +14087,10 @@
         <v>57</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -14045,10 +14100,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -14058,7 +14113,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
@@ -14069,10 +14124,10 @@
         <v>60</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -14082,10 +14137,10 @@
         <v>61</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -14095,10 +14150,10 @@
         <v>62</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -14108,10 +14163,10 @@
         <v>63</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -14121,10 +14176,10 @@
         <v>64</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -14134,10 +14189,10 @@
         <v>65</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -14323,7 +14378,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14342,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="2" t="s">
@@ -14354,10 +14409,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -14366,7 +14421,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="3"/>
@@ -14376,7 +14431,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3"/>
@@ -14386,7 +14441,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="3"/>
@@ -14396,7 +14451,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="3"/>
@@ -14406,7 +14461,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="3"/>
@@ -14416,10 +14471,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -14428,7 +14483,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3"/>
@@ -14438,7 +14493,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3"/>
@@ -14448,7 +14503,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="3"/>
@@ -14458,7 +14513,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -14468,10 +14523,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -14480,10 +14535,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -14492,7 +14547,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="3"/>
@@ -14502,7 +14557,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="3"/>
@@ -14512,7 +14567,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="3"/>
@@ -14522,10 +14577,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -14534,10 +14589,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -14546,10 +14601,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -14558,20 +14613,20 @@
         <v>20</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="24"/>
       <c r="C22" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -14580,10 +14635,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -14592,10 +14647,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -14604,10 +14659,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -14616,10 +14671,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -14628,10 +14683,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -14640,10 +14695,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -14652,10 +14707,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -14664,10 +14719,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -14676,10 +14731,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -14688,10 +14743,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -14700,10 +14755,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E33" s="3"/>
     </row>
@@ -14712,10 +14767,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -14724,10 +14779,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -14736,10 +14791,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -14799,7 +14854,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D1" s="31"/>
       <c r="E1" s="2" t="s">
@@ -14811,7 +14866,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="3"/>
@@ -15209,7 +15264,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -15287,7 +15342,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -15557,7 +15612,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
@@ -15600,10 +15655,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -15613,10 +15668,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -15626,10 +15681,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -15639,10 +15694,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -15652,7 +15707,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -15663,10 +15718,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -16019,10 +16074,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -16032,10 +16087,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
@@ -16045,10 +16100,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -16058,10 +16113,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -16071,10 +16126,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -16084,7 +16139,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -16095,7 +16150,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87238D7E-7681-4942-AF28-860B91DBF8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB15D4F-2865-4948-BDA1-2918431B11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" activeTab="9" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="582">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2846,6 +2846,10 @@
   </si>
   <si>
     <t>property发生变化会先被赋予初始值再赋予新值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPSG：4326是经纬度投影。球面墨卡托的官方代码是EPSG:3857，非官方的代码EPSG:900913</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7892,9 +7896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8048,11 +8052,13 @@
       <c r="E12" s="7"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" ht="27.6">
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>581</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="3"/>
@@ -13014,9 +13020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB15D4F-2865-4948-BDA1-2918431B11E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6DFDFE-4B9D-4F4D-B779-135932A3AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" activeTab="9" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="2" activeTab="12" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="586">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2850,6 +2850,22 @@
   </si>
   <si>
     <t>EPSG：4326是经纬度投影。球面墨卡托的官方代码是EPSG:3857，非官方的代码EPSG:900913</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1度=π/180≈0.01745弧度，1弧度=180/π=57.29578度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度与弧度转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7896,9 +7912,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8346,8 +8362,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9158,9 +9174,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10994,8 +11010,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13022,7 +13038,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13075,8 +13091,12 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>584</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="3"/>
     </row>
@@ -14383,8 +14403,8 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14808,7 +14828,9 @@
       <c r="B37" s="24">
         <v>35</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="26" t="s">
+        <v>582</v>
+      </c>
       <c r="D37" s="14"/>
       <c r="E37" s="3"/>
     </row>
@@ -14816,7 +14838,9 @@
       <c r="B38" s="24">
         <v>36</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="26" t="s">
+        <v>583</v>
+      </c>
       <c r="D38" s="14"/>
       <c r="E38" s="3"/>
     </row>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6DFDFE-4B9D-4F4D-B779-135932A3AC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17A498B-7781-45AA-A989-05644EC8E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="889" firstSheet="2" activeTab="12" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="4" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="590">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2609,27 +2609,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git reset --hard HASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回某个节点，不保留修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回某个节点，保留修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset --soft HASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git checkout .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地所有修改没有提交的都返回原来的状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2853,19 +2833,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git clean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git reset --hard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1度=π/180≈0.01745弧度，1弧度=180/π=57.29578度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>度与弧度转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clean -xdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --soft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --hard [HEAD]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD 表示当前版本
+HEAD^ 上一个版本
+HEAD^^ 上上一个版本
+HEAD^^^ 上上上一个版本
+以此类推...
+可以使用 ～数字表示
+HEAD~0 表示当前版本
+HEAD~1 上一个版本
+HEAD^2 上上一个版本
+HEAD^3 上上上一个版本
+以此类推…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于重置暂存区的文件与上一次的提交(commit)保持一致，工作区文件内容保持不变
+当commit之后想撤回commit，但还不想覆盖工作区内容时，使用--mixed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销工作区中所有未提交的修改内容，将暂存区与工作区都回到上一次版本，并删除之前的所有信息提交
+当想完全回滚时，使用--hard来覆盖工作区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用暂存区的文件覆盖工作区，所以执行完git add .之后，再执行该命令是无效的  
+git checkout .和git add .是一对反义词，git add .将工作区内容提交到暂存区也可以理解为覆盖暂存区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git reset --mixed（不带参数默认为--mixed）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨卡托投影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是正轴等角圆柱投影。由荷兰地图学家墨卡托(G.Mercator)于1569年创立。假想一个与地轴方向一致的圆柱切或割于地球，按等角条件，将经纬网投影到圆柱面上，将圆柱面展为平面后，即得本投影。
+web墨卡托的经纬度投影范围：经度[-180,180]，维度[-85.05112877980659,85.05112877980659];
+天地图地址http://map.tianditu.gov.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2982,7 +3013,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2992,6 +3023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,7 +3091,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3171,6 +3208,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3552,6 +3595,236 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5659859</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2263140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C2B209-D116-4D25-A892-9001A68D0D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5173980" y="647700"/>
+          <a:ext cx="5560799" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>392430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3329940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2740632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22E4B07-84D3-4822-9756-47A1B1EB4BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3078480"/>
+          <a:ext cx="3295650" cy="2348202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5236845</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2876115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB568DD-58C0-4856-87BD-FCA2CADCFC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="5495925"/>
+          <a:ext cx="5154930" cy="2838015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4857155</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1961937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7E5B19-5D14-458C-BF52-DA7EAADAF83D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5158740" y="8705850"/>
+          <a:ext cx="4769525" cy="1699047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>925830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2136972</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1956434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF4AFEC-4A6E-4BBB-ACB9-A3E6A6290BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="6854190"/>
+          <a:ext cx="8686362" cy="1030604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>102870</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>750571</xdr:rowOff>
@@ -3596,7 +3869,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5429,6 +5702,72 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4526650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD2DD12-A59A-489B-92DF-CF39AD8EB331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="792480" y="251460"/>
+          <a:ext cx="7551790" cy="2446020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5326380</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5870,7 +6209,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5919,7 +6258,73 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA467E7-3598-411D-A08D-A6714DCA6FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14028420" y="7513320"/>
+          <a:ext cx="6856095" cy="4747260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6188,7 +6593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7205,236 +7610,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5659859</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2263140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C2B209-D116-4D25-A892-9001A68D0D40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5173980" y="647700"/>
-          <a:ext cx="5560799" cy="2133600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>392430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3329940</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2740632</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22E4B07-84D3-4822-9756-47A1B1EB4BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105400" y="3078480"/>
-          <a:ext cx="3295650" cy="2348202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>5236845</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2876115</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB568DD-58C0-4856-87BD-FCA2CADCFC87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5153025" y="5495925"/>
-          <a:ext cx="5154930" cy="2838015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4857155</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1961937</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E7E5B19-5D14-458C-BF52-DA7EAADAF83D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5158740" y="8705850"/>
-          <a:ext cx="4769525" cy="1699047"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>925830</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2136972</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1956434</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF4AFEC-4A6E-4BBB-ACB9-A3E6A6290BFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="933450" y="6854190"/>
-          <a:ext cx="8686362" cy="1030604"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7743,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7751,7 +7926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7759,7 +7934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7767,7 +7942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7775,7 +7950,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7783,7 +7958,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7791,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7799,7 +7974,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7807,7 +7982,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7815,7 +7990,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7823,7 +7998,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7831,7 +8006,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7839,7 +8014,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7847,7 +8022,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7855,7 +8030,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7863,7 +8038,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7871,7 +8046,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7879,7 +8054,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -7910,37 +8085,37 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="8.88671875" style="30"/>
     <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="120.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="2">
+      <c r="B2" s="40">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -7950,10 +8125,10 @@
         <v>490</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="2">
+      <c r="B3" s="40">
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -7962,11 +8137,11 @@
       <c r="D3" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="2">
+      <c r="B4" s="40">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -7974,32 +8149,32 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="2">
+      <c r="B5" s="40">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="2:6" ht="207">
-      <c r="B6" s="2"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
         <v>494</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="2:6" ht="151.80000000000001">
-      <c r="B7" s="2">
+      <c r="B7" s="40">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -8008,351 +8183,356 @@
       <c r="D7" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" ht="82.8">
-      <c r="B8" s="2"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>504</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="2">
+      <c r="B9" s="40">
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="2">
+      <c r="B10" s="40">
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>498</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="2">
+      <c r="B11" s="40">
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>499</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="2">
+      <c r="B12" s="40">
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="2:6" ht="27.6">
-      <c r="B13" s="2">
+      <c r="B13" s="40">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
+        <v>576</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" ht="55.2">
+      <c r="B14" s="40">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="2">
+      <c r="B15" s="40">
         <v>12</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="2">
+      <c r="B16" s="40">
         <v>13</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="2">
+      <c r="B17" s="40">
         <v>14</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="2">
+      <c r="B18" s="40">
         <v>15</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="2">
+      <c r="B19" s="40">
         <v>16</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="2">
+      <c r="B20" s="40">
         <v>17</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="2">
+      <c r="B21" s="40">
         <v>18</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="2">
+      <c r="B22" s="40">
         <v>19</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="2">
+      <c r="B23" s="40">
         <v>20</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="2">
+      <c r="B24" s="40">
         <v>21</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="2">
+      <c r="B25" s="40">
         <v>22</v>
       </c>
       <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="2">
+      <c r="B26" s="40">
         <v>23</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="2">
+      <c r="B27" s="40">
         <v>24</v>
       </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="2">
+      <c r="B28" s="40">
         <v>25</v>
       </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="2">
+      <c r="B29" s="40">
         <v>26</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="2">
+      <c r="B30" s="40">
         <v>27</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="2">
+      <c r="B31" s="40">
         <v>28</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="2">
+      <c r="B32" s="40">
         <v>29</v>
       </c>
       <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="2">
+      <c r="B33" s="40">
         <v>30</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="2">
+      <c r="B34" s="40">
         <v>31</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="2">
+      <c r="B35" s="40">
         <v>32</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="2">
+      <c r="B36" s="40">
         <v>33</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="2">
+      <c r="B37" s="40">
         <v>34</v>
       </c>
       <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="2">
+      <c r="B38" s="40">
         <v>35</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="2">
+      <c r="B39" s="40">
         <v>36</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="2">
+      <c r="B40" s="40">
         <v>37</v>
       </c>
       <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="2">
+      <c r="B41" s="40">
         <v>38</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2">
+      <c r="B42" s="40">
         <v>39</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="2">
+      <c r="B43" s="40">
         <v>40</v>
       </c>
       <c r="C43" s="8"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="3"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8362,8 +8542,8 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8540,7 +8720,7 @@
         <v>506</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -8549,7 +8729,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="7"/>
@@ -8559,10 +8739,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -8571,10 +8751,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -8583,7 +8763,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="7"/>
@@ -8593,10 +8773,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -8605,10 +8785,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -9174,7 +9354,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
@@ -9782,10 +9962,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -11864,12 +12044,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="22.8">
       <c r="B93" s="35" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="22.8">
@@ -11880,12 +12060,12 @@
         <v>2</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.399999999999999">
       <c r="B109" s="36" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="25.2">
@@ -11893,7 +12073,7 @@
         <v>3</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -12090,7 +12270,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -13092,10 +13272,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="3"/>
@@ -14202,10 +14382,10 @@
         <v>64</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -14215,10 +14395,10 @@
         <v>65</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -14400,462 +14580,1475 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A17:E181"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="29" customWidth="1"/>
     <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
     <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
-      <c r="A1" s="30"/>
-      <c r="B1" s="2" t="s">
+    <row r="17" spans="1:5" s="4" customFormat="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="2" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="24">
+    <row r="18" spans="1:5">
+      <c r="B18" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="24">
+      <c r="C18" s="28" t="s">
+        <v>541</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="24">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C19" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="24">
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="24">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="24">
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="24">
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="24">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="24">
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="24">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="24">
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="24">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C24" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="24">
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="24">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="24">
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="24">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="24">
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="24">
         <v>10</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C27" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="24">
+      <c r="D27" s="15"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="24">
         <v>11</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C28" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="24">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="24">
         <v>12</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D29" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="24">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="24">
         <v>13</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C30" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D30" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="24">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="24">
         <v>14</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C31" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="24">
+      <c r="D31" s="14"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="24">
         <v>15</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C32" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="24">
-        <v>16</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="24">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="24">
-        <v>18</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="24">
-        <v>19</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="24">
-        <v>20</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="24"/>
-      <c r="C22" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="24">
-        <v>21</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="24">
-        <v>22</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="24">
-        <v>23</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="24">
-        <v>24</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="24">
-        <v>25</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="24">
-        <v>26</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="24">
-        <v>27</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>513</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="24">
-        <v>28</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" ht="27.6">
-      <c r="B31" s="24">
-        <v>29</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="24">
-        <v>30</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>520</v>
-      </c>
+      <c r="D32" s="14"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="24">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>521</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>522</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="24">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>523</v>
+        <v>416</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>524</v>
+        <v>417</v>
       </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="24">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>525</v>
+        <v>418</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="24">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>527</v>
+        <v>429</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>528</v>
+        <v>430</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="24">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D37" s="14"/>
+        <v>419</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>422</v>
+      </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="24">
-        <v>36</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D38" s="14"/>
+        <v>432</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="24">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="24">
+        <v>22</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="24">
+        <v>23</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="24">
+        <v>24</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="24">
+        <v>25</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="24">
+        <v>26</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="24">
+        <v>27</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="24">
+        <v>28</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" ht="27.6">
+      <c r="B47" s="24">
+        <v>29</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="24">
+        <v>30</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="24">
+        <v>31</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" ht="27.6">
+      <c r="B50" s="24">
+        <v>32</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="24">
+        <v>33</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" ht="41.4">
+      <c r="B52" s="24">
+        <v>34</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" ht="27.6">
+      <c r="B53" s="24">
+        <v>35</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="24">
+        <v>36</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="24">
         <v>37</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="3"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="24">
+        <v>38</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="24">
+        <v>39</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="24">
+        <v>40</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="24">
+        <v>41</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="24">
+        <v>42</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" ht="151.80000000000001">
+      <c r="B61" s="24">
+        <v>43</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="24">
+        <v>44</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="24">
+        <v>45</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="24">
+        <v>46</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="24">
+        <v>47</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="24">
+        <v>48</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="24">
+        <v>49</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="24">
+        <v>50</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="24">
+        <v>51</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="24">
+        <v>52</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="24">
+        <v>53</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="24">
+        <v>54</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="24">
+        <v>55</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="24">
+        <v>56</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="24">
+        <v>57</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="24">
+        <v>58</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="24">
+        <v>59</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="24">
+        <v>60</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="24">
+        <v>61</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="24">
+        <v>62</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="24">
+        <v>63</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="24">
+        <v>64</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="24">
+        <v>65</v>
+      </c>
+      <c r="C83" s="26"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="24">
+        <v>66</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="24">
+        <v>67</v>
+      </c>
+      <c r="C85" s="26"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="24">
+        <v>68</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="24">
+        <v>69</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="24">
+        <v>70</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="24">
+        <v>71</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="24">
+        <v>72</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="24">
+        <v>73</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="24">
+        <v>74</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="24">
+        <v>75</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="24">
+        <v>76</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="24">
+        <v>77</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="24">
+        <v>78</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="24">
+        <v>79</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="24">
+        <v>80</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="24">
+        <v>81</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="24">
+        <v>82</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="24">
+        <v>83</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="24">
+        <v>84</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="24">
+        <v>85</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="24">
+        <v>86</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="24">
+        <v>87</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="24">
+        <v>88</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="24">
+        <v>89</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="24">
+        <v>90</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="24">
+        <v>91</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="24">
+        <v>92</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="24">
+        <v>93</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="24">
+        <v>94</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="24">
+        <v>95</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="24">
+        <v>96</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="24">
+        <v>97</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="24">
+        <v>98</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="24">
+        <v>99</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="24">
+        <v>100</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="24">
+        <v>101</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="24">
+        <v>102</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="24">
+        <v>103</v>
+      </c>
+      <c r="C121" s="26"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="24">
+        <v>104</v>
+      </c>
+      <c r="C122" s="26"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="24">
+        <v>105</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="24">
+        <v>106</v>
+      </c>
+      <c r="C124" s="26"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="24">
+        <v>107</v>
+      </c>
+      <c r="C125" s="26"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="24">
+        <v>108</v>
+      </c>
+      <c r="C126" s="26"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="24">
+        <v>109</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="24">
+        <v>110</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="24">
+        <v>111</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="24">
+        <v>112</v>
+      </c>
+      <c r="C130" s="26"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="24">
+        <v>113</v>
+      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="24">
+        <v>114</v>
+      </c>
+      <c r="C132" s="26"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="24">
+        <v>115</v>
+      </c>
+      <c r="C133" s="26"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="24">
+        <v>116</v>
+      </c>
+      <c r="C134" s="26"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="24">
+        <v>117</v>
+      </c>
+      <c r="C135" s="26"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="24">
+        <v>118</v>
+      </c>
+      <c r="C136" s="26"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="24">
+        <v>119</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="24">
+        <v>120</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="24">
+        <v>121</v>
+      </c>
+      <c r="C139" s="26"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="24">
+        <v>122</v>
+      </c>
+      <c r="C140" s="26"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="24">
+        <v>123</v>
+      </c>
+      <c r="C141" s="26"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="24">
+        <v>124</v>
+      </c>
+      <c r="C142" s="26"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="24">
+        <v>125</v>
+      </c>
+      <c r="C143" s="26"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="24">
+        <v>126</v>
+      </c>
+      <c r="C144" s="26"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="24">
+        <v>127</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="24">
+        <v>128</v>
+      </c>
+      <c r="C146" s="26"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="24">
+        <v>129</v>
+      </c>
+      <c r="C147" s="26"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="24">
+        <v>130</v>
+      </c>
+      <c r="C148" s="26"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="24">
+        <v>131</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="24">
+        <v>132</v>
+      </c>
+      <c r="C150" s="26"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="24">
+        <v>133</v>
+      </c>
+      <c r="C151" s="26"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="24">
+        <v>134</v>
+      </c>
+      <c r="C152" s="26"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="24">
+        <v>135</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="24">
+        <v>136</v>
+      </c>
+      <c r="C154" s="26"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="24">
+        <v>137</v>
+      </c>
+      <c r="C155" s="26"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="24">
+        <v>138</v>
+      </c>
+      <c r="C156" s="26"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="24">
+        <v>139</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="24">
+        <v>140</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="24">
+        <v>141</v>
+      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="24">
+        <v>142</v>
+      </c>
+      <c r="C160" s="26"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="24">
+        <v>143</v>
+      </c>
+      <c r="C161" s="26"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="24">
+        <v>144</v>
+      </c>
+      <c r="C162" s="26"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="24">
+        <v>145</v>
+      </c>
+      <c r="C163" s="26"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="24">
+        <v>146</v>
+      </c>
+      <c r="C164" s="26"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="24">
+        <v>147</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="24">
+        <v>148</v>
+      </c>
+      <c r="C166" s="26"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="24">
+        <v>149</v>
+      </c>
+      <c r="C167" s="26"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="24">
+        <v>150</v>
+      </c>
+      <c r="C168" s="26"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="24">
+        <v>151</v>
+      </c>
+      <c r="C169" s="26"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="24">
+        <v>152</v>
+      </c>
+      <c r="C170" s="26"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="24">
+        <v>153</v>
+      </c>
+      <c r="C171" s="26"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="24">
+        <v>154</v>
+      </c>
+      <c r="C172" s="26"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="24">
+        <v>155</v>
+      </c>
+      <c r="C173" s="26"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="24">
+        <v>156</v>
+      </c>
+      <c r="C174" s="26"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="24">
+        <v>157</v>
+      </c>
+      <c r="C175" s="26"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="24">
+        <v>158</v>
+      </c>
+      <c r="C176" s="26"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="24">
+        <v>159</v>
+      </c>
+      <c r="C177" s="26"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="24">
+        <v>160</v>
+      </c>
+      <c r="C178" s="26"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="24">
+        <v>161</v>
+      </c>
+      <c r="C179" s="26"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="24">
+        <v>162</v>
+      </c>
+      <c r="C180" s="26"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="24">
+        <v>163</v>
+      </c>
+      <c r="C181" s="26"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14896,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="3"/>
@@ -15294,7 +16487,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -15372,7 +16565,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -15714,7 +16907,7 @@
         <v>484</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -15748,10 +16941,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
@@ -16156,10 +17349,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -16169,7 +17362,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -16180,7 +17373,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,33 +5,36 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GiteeRepository\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17A498B-7781-45AA-A989-05644EC8E3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D159A91-3FFD-498A-89E6-EDB917E15DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="4" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="889" firstSheet="3" activeTab="21" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
     <sheet name="Kanzi" sheetId="2" r:id="rId2"/>
     <sheet name="计算相关" sheetId="25" r:id="rId3"/>
     <sheet name="C&amp;C++" sheetId="14" r:id="rId4"/>
-    <sheet name="Git" sheetId="21" r:id="rId5"/>
-    <sheet name="LinuxCmd" sheetId="28" r:id="rId6"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId7"/>
-    <sheet name="PlugIn" sheetId="16" r:id="rId8"/>
-    <sheet name="其他" sheetId="23" r:id="rId9"/>
-    <sheet name="术语" sheetId="26" r:id="rId10"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId11"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId12"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId13"/>
-    <sheet name="Java" sheetId="12" r:id="rId14"/>
-    <sheet name="JNI" sheetId="11" r:id="rId15"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId16"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId17"/>
-    <sheet name="优化" sheetId="8" r:id="rId18"/>
-    <sheet name="addition_1" sheetId="27" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="31" r:id="rId5"/>
+    <sheet name="Git" sheetId="21" r:id="rId6"/>
+    <sheet name="LinuxCmd" sheetId="28" r:id="rId7"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId8"/>
+    <sheet name="PlugIn" sheetId="16" r:id="rId9"/>
+    <sheet name="其他" sheetId="23" r:id="rId10"/>
+    <sheet name="术语" sheetId="26" r:id="rId11"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId12"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId13"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId14"/>
+    <sheet name="Java" sheetId="12" r:id="rId15"/>
+    <sheet name="JNI" sheetId="11" r:id="rId16"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId17"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId18"/>
+    <sheet name="优化" sheetId="8" r:id="rId19"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId20"/>
+    <sheet name="addition_2" sheetId="30" r:id="rId21"/>
+    <sheet name="addition_3" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +44,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="627">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2897,6 +2903,130 @@
     <t>是正轴等角圆柱投影。由荷兰地图学家墨卡托(G.Mercator)于1569年创立。假想一个与地轴方向一致的圆柱切或割于地球，按等角条件，将经纬网投影到圆柱面上，将圆柱面展为平面后，即得本投影。
 web墨卡托的经纬度投影范围：经度[-180,180]，维度[-85.05112877980659,85.05112877980659];
 天地图地址http://map.tianditu.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noexcept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++中的异常处理是在运行时而不是编译时检测的。为了实现运行时检测，编译器创建额外的代码，然而这会妨碍程序优化
+该关键字告诉编译器，函数中绝对不会发生异常,这有利于编译器对程序做更多的优化。
+如果在运行时，noexecpt函数向外抛出了异常（如果函数内部捕捉了异常并完成处理，这种情况不算抛出异常），程序会直接终止，调用std::terminate()函数，该函数内部会调用std::abort()终止程序
+例：
+constexpr initializer_list() noexcept
+      : _M_array(0), _M_len(0) { }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定不生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮定中的节点使用了加@的的节点，删除@后生效，具体原因不明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Person {</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    int num;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person (int num) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cout &lt;&lt; __PRETTY_FUNCTION__ &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this-&gt;num = num;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person (const Person &amp; p) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this-&gt;num = p.num;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        cout &lt;&lt; "num=" &lt;&lt; this-&gt;num &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person (Person &amp;&amp; p) noexcept {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        p.num = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ~Person () {</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>void test01() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Person p1(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vector&lt;Person&gt; v;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cout &lt;&lt; __LINE__ &lt;&lt; endl;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v.push_back(10);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // 上面这些操作，是为了扩充 vector 的容量，从而不受容量已满开辟新空间时移动元素时调用相关构造函数对下面代码的影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cout &lt;&lt; __LINE__ &lt;&lt; endl;  // a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v.push_back(10);  // 会调用一次有参构造+一次移动构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v.emplace_back(20);  // 会调用一次有参构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v.push_back(p1);  // 会调用一次拷贝构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    v.emplace_back(p1);  // 会调用一次拷贝构造</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               // b</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>int main(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    test01();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return 0;</t>
+  </si>
+  <si>
+    <t>push_back会执行移动构造或拷贝操作（传对象会调用拷贝构造，传入有参构造的某个参数会调用构造函数+移动构造函数）
+emplace_back会直接构造
+传对象时效果一样都是执行一次拷贝构造，但是传有参构造某个参数时emplace_back少了一次移动构造，效率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器特点对比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3091,7 +3221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3214,6 +3344,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3897,8 +4030,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="678180"/>
-          <a:ext cx="6458851" cy="3987735"/>
+          <a:off x="738717" y="682625"/>
+          <a:ext cx="6793707" cy="4139500"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -4566,6 +4699,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390381</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>136213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2018D85-F1FC-400D-85EA-F9C207E4E13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="296333"/>
+          <a:ext cx="8298248" cy="6774080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7911,7 +8093,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -8084,6 +8266,439 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="129" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>533</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://blog.csdn.net/jinking01/article/details/79420755?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;utm_relevant_index=2" xr:uid="{FAD166F1-106F-4A48-999E-C3C9F2EFC940}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
   <dimension ref="B1:F43"/>
   <sheetViews>
@@ -8092,15 +8707,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="30"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="30"/>
+    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8162,7 +8777,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="207">
+    <row r="6" spans="2:6" ht="210">
       <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
         <v>494</v>
@@ -8173,7 +8788,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
+    <row r="7" spans="2:6" ht="140">
       <c r="B7" s="40">
         <v>5</v>
       </c>
@@ -8186,7 +8801,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="82.8">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>504</v>
@@ -8243,7 +8858,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="27.6">
+    <row r="13" spans="2:6" ht="28">
       <c r="B13" s="40">
         <v>10</v>
       </c>
@@ -8254,7 +8869,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="55.2">
+    <row r="14" spans="2:6" ht="56">
       <c r="B14" s="40">
         <v>11</v>
       </c>
@@ -8536,7 +9151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E42"/>
@@ -8546,14 +9161,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -8592,7 +9207,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+    <row r="4" spans="2:5" ht="205.85" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -8618,7 +9233,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="69">
+    <row r="6" spans="2:5" ht="70">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -8676,7 +9291,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -8688,7 +9303,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" ht="69">
+    <row r="12" spans="2:5" ht="70">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -8712,7 +9327,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+    <row r="14" spans="2:5" ht="284.45" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -8734,7 +9349,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="55.2">
+    <row r="16" spans="2:5" ht="56">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -8976,7 +9591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:E42"/>
@@ -8985,14 +9600,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -9349,7 +9964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
@@ -9359,14 +9974,14 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9383,7 +9998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="82.8">
+    <row r="2" spans="2:5" ht="84">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -9395,7 +10010,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="14.4">
+    <row r="3" spans="2:5" ht="14.35">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -9407,7 +10022,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="27.6">
+    <row r="4" spans="2:5" ht="28">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9419,7 +10034,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="143.4" customHeight="1">
+    <row r="5" spans="2:5" ht="143.44999999999999" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -9515,7 +10130,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="82.8" customHeight="1">
+    <row r="13" spans="2:5" ht="82.85" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -9535,7 +10150,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="27.6">
+    <row r="15" spans="2:5" ht="28">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -9591,7 +10206,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="138">
+    <row r="20" spans="2:5" ht="140">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -9623,7 +10238,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" ht="317.39999999999998">
+    <row r="23" spans="2:5" ht="322">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -9671,7 +10286,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="27.6">
+    <row r="27" spans="2:5" ht="28">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -9695,7 +10310,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="69">
+    <row r="29" spans="2:5" ht="70">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -9769,7 +10384,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" ht="98.4" customHeight="1">
+    <row r="35" spans="2:5" ht="98.45" customHeight="1">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -9853,7 +10468,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" ht="27.6">
+    <row r="42" spans="2:5" ht="28">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -9945,7 +10560,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" ht="41.4">
+    <row r="50" spans="2:5" ht="42">
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -9957,7 +10572,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -10001,7 +10616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -10011,14 +10626,14 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10031,7 +10646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="96.6">
+    <row r="2" spans="2:5" ht="98">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10043,7 +10658,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10055,7 +10670,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="345">
+    <row r="4" spans="2:5" ht="336">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10067,7 +10682,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="55.2">
+    <row r="5" spans="2:5" ht="56">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10384,7 +10999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
@@ -10394,14 +11009,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10430,7 +11045,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="184.8" customHeight="1">
+    <row r="3" spans="2:5" ht="184.85" customHeight="1">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10452,7 +11067,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="235.8" customHeight="1">
+    <row r="5" spans="2:5" ht="235.85" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10766,7 +11381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -10775,14 +11390,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -11185,7 +11800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
@@ -11194,15 +11809,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="96.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="96.64453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.87890625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -11237,7 +11852,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="69">
+    <row r="4" spans="2:6" ht="70">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -11295,7 +11910,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="96.6">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -11621,7 +12236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F41"/>
@@ -11631,15 +12246,15 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -11659,7 +12274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="227.4" customHeight="1">
+    <row r="2" spans="2:6" ht="227.45" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -12022,59 +12637,6 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
-  <dimension ref="A2:B209"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="2" spans="1:2" ht="25.2">
-      <c r="A2" s="34">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="22.8">
-      <c r="B93" s="35" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="22.8">
-      <c r="B96" s="35"/>
-    </row>
-    <row r="97" spans="1:2" ht="25.2">
-      <c r="A97" s="34">
-        <v>2</v>
-      </c>
-      <c r="B97" s="34" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="17.399999999999999">
-      <c r="B109" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="25.2">
-      <c r="A209" s="34">
-        <v>3</v>
-      </c>
-      <c r="B209" s="34" t="s">
-        <v>539</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12090,18 +12652,18 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
     <col min="4" max="4" width="92" style="11" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -12128,7 +12690,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -12164,7 +12726,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="55.2">
+    <row r="6" spans="2:5" ht="56">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -12176,7 +12738,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+    <row r="7" spans="2:5" ht="199.85" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -12188,7 +12750,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="69">
+    <row r="8" spans="2:5" ht="70">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -12226,7 +12788,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -12286,7 +12848,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="163.85" customHeight="1">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -12310,7 +12872,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -12358,7 +12920,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="27.6">
+    <row r="22" spans="2:5" ht="28">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -12450,7 +13012,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="69">
+    <row r="30" spans="2:5" ht="70">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -12486,7 +13048,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="41.4">
+    <row r="33" spans="2:5" ht="42">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -12510,7 +13072,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="27.6">
+    <row r="35" spans="2:5" ht="28">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -12522,7 +13084,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="27.6">
+    <row r="36" spans="2:5" ht="28">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -12580,7 +13142,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" ht="27.6">
+    <row r="41" spans="2:5" ht="28">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -12696,7 +13258,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -12720,7 +13282,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -12756,7 +13318,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="27.6">
+    <row r="56" spans="2:5" ht="28">
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -12768,7 +13330,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5">
       <c r="B57" s="2">
         <v>56</v>
       </c>
@@ -12784,8 +13346,12 @@
       <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>593</v>
+      </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5">
@@ -13209,6 +13775,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
+  <dimension ref="A2:B209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="25">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="22.7">
+      <c r="B93" s="35" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="22.7">
+      <c r="B96" s="35"/>
+    </row>
+    <row r="97" spans="1:2" ht="25">
+      <c r="A97" s="34">
+        <v>2</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17.7">
+      <c r="B109" s="36" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="25">
+      <c r="A209" s="34">
+        <v>3</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>539</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D2D2E-2851-4F4B-B6EA-427EF9C64043}">
+  <dimension ref="A1:A64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>621</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EEA683-0C91-4C89-978B-E7620302E484}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13221,15 +14140,15 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="15.52734375" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="19" customWidth="1"/>
-    <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="89.87890625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -13465,18 +14384,18 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="77.21875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="77.234375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -13489,7 +14408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="220.8">
+    <row r="2" spans="2:5" ht="224">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -13514,7 +14433,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="55.2">
+    <row r="4" spans="2:5" ht="56">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="0">B3+1</f>
         <v>3</v>
@@ -13540,7 +14459,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="173.4" customHeight="1">
+    <row r="6" spans="2:5" ht="173.45" customHeight="1">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13553,7 +14472,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="41.4">
+    <row r="7" spans="2:5" ht="42">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>6</v>
@@ -13681,7 +14600,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="346.8" customHeight="1">
+    <row r="17" spans="2:5" ht="346.85" customHeight="1">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13694,7 +14613,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13718,7 +14637,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" ht="235.8" customHeight="1">
+    <row r="20" spans="2:5" ht="235.85" customHeight="1">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13731,7 +14650,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="289.8">
+    <row r="21" spans="2:5" ht="294">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13757,7 +14676,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" ht="41.4">
+    <row r="23" spans="2:5" ht="42">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13778,7 +14697,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="82.8">
+    <row r="25" spans="2:5" ht="84">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -13804,7 +14723,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="82.8" customHeight="1">
+    <row r="27" spans="2:5" ht="82.85" customHeight="1">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -13815,7 +14734,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" ht="55.2">
+    <row r="28" spans="2:5" ht="56">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -13828,7 +14747,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" ht="55.2">
+    <row r="29" spans="2:5" ht="56">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -13841,7 +14760,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="96.6">
+    <row r="30" spans="2:5" ht="98">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -13854,7 +14773,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="27.6">
+    <row r="31" spans="2:5" ht="28">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -13867,7 +14786,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="140.4" customHeight="1">
+    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -13878,7 +14797,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="27.6">
+    <row r="33" spans="2:5" ht="28">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -13904,7 +14823,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="185.4" customHeight="1">
+    <row r="35" spans="2:5" ht="185.45" customHeight="1">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -13917,7 +14836,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="55.2">
+    <row r="36" spans="2:5" ht="56">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -13930,7 +14849,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" ht="41.4">
+    <row r="37" spans="2:5" ht="42">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -13943,7 +14862,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="2:5" ht="70">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -13951,7 +14870,9 @@
       <c r="C38" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="20" t="s">
+        <v>625</v>
+      </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5">
@@ -14006,7 +14927,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="41.4">
+    <row r="43" spans="2:5" ht="42">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -14054,7 +14975,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="310.8" customHeight="1">
+    <row r="47" spans="2:5" ht="310.85000000000002" customHeight="1">
       <c r="B47" s="2">
         <f>B46+1</f>
         <v>46</v>
@@ -14102,7 +15023,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="301.8" customHeight="1">
+    <row r="51" spans="2:5" ht="301.85000000000002" customHeight="1">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -14115,7 +15036,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -14128,7 +15049,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="96.6">
+    <row r="53" spans="2:5" ht="98">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -14163,7 +15084,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="55.2">
+    <row r="56" spans="2:5" ht="56">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -14176,7 +15097,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5" ht="28">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -14241,7 +15162,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" ht="27.6">
+    <row r="62" spans="2:5" ht="28">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -14324,7 +15245,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" ht="82.8">
+    <row r="69" spans="2:5" ht="84">
       <c r="B69" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -14350,7 +15271,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" ht="27.6">
+    <row r="71" spans="2:5" ht="28">
       <c r="B71" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -14363,7 +15284,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" ht="55.2">
+    <row r="72" spans="2:5" ht="56">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -14389,7 +15310,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" ht="41.4">
+    <row r="74" spans="2:5" ht="42">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -14402,13 +15323,17 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" ht="112">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="C75" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>591</v>
+      </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5">
@@ -14416,7 +15341,9 @@
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14" t="s">
+        <v>626</v>
+      </c>
       <c r="D76" s="14"/>
       <c r="E76" s="3"/>
     </row>
@@ -14570,6 +15497,7 @@
     <hyperlink ref="D10" r:id="rId1" xr:uid="{63E60A7E-0649-4BBE-BFBB-6656ACA243CE}"/>
     <hyperlink ref="D49" r:id="rId2" xr:uid="{142CA485-A385-4466-B1F5-3DBDA44F18FB}"/>
     <hyperlink ref="D73" location="addition_1!A1" display="详见sheet addtion_1" xr:uid="{088AD35D-9EA8-4324-852A-254ACD39CA1D}"/>
+    <hyperlink ref="D38" location="addition_2!A1" display="addition_2!A1" xr:uid="{FFE68744-0FDD-4897-A732-D6AE99A594E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -14578,23 +15506,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10779B29-3E80-4D82-81D0-813F9CE88946}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A17:E181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="43.21875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="43.234375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:5" s="4" customFormat="1">
@@ -14932,7 +15873,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="27.6">
+    <row r="47" spans="2:5" ht="28">
       <c r="B47" s="24">
         <v>29</v>
       </c>
@@ -14968,7 +15909,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" ht="27.6">
+    <row r="50" spans="2:5" ht="28">
       <c r="B50" s="24">
         <v>32</v>
       </c>
@@ -14990,7 +15931,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="24">
         <v>34</v>
       </c>
@@ -15002,7 +15943,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="24">
         <v>35</v>
       </c>
@@ -15072,7 +16013,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" ht="151.80000000000001">
+    <row r="61" spans="2:5" ht="154">
       <c r="B61" s="24">
         <v>43</v>
       </c>
@@ -16052,7 +16993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A15724-314A-4210-943D-4A1015072904}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -16061,14 +17002,14 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="39.1171875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -16397,7 +17338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F41"/>
@@ -16407,15 +17348,15 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -16433,7 +17374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="41.4">
+    <row r="2" spans="2:6" ht="42">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -16479,7 +17420,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="27.6">
+    <row r="6" spans="2:6" ht="28">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -16503,7 +17444,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="41.4">
+    <row r="8" spans="2:6" ht="42">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -16830,7 +17771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F41"/>
@@ -16840,15 +17781,15 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -16912,7 +17853,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+    <row r="6" spans="2:6" ht="194.45" customHeight="1">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -17252,437 +18193,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="129" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6" ht="27.6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>533</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="https://blog.csdn.net/jinking01/article/details/79420755?spm=1001.2101.3001.6650.1&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-1.pc_relevant_default&amp;utm_relevant_index=2" xr:uid="{FAD166F1-106F-4A48-999E-C3C9F2EFC940}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GiteeRepository\learn-c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D159A91-3FFD-498A-89E6-EDB917E15DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9E109-3352-46C2-893E-15A056F8BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="889" firstSheet="3" activeTab="21" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="6" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -19,24 +19,26 @@
     <sheet name="C&amp;C++" sheetId="14" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="31" r:id="rId5"/>
     <sheet name="Git" sheetId="21" r:id="rId6"/>
-    <sheet name="LinuxCmd" sheetId="28" r:id="rId7"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId8"/>
-    <sheet name="PlugIn" sheetId="16" r:id="rId9"/>
-    <sheet name="其他" sheetId="23" r:id="rId10"/>
-    <sheet name="术语" sheetId="26" r:id="rId11"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId12"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId13"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId14"/>
-    <sheet name="Java" sheetId="12" r:id="rId15"/>
-    <sheet name="JNI" sheetId="11" r:id="rId16"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId17"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId18"/>
-    <sheet name="优化" sheetId="8" r:id="rId19"/>
-    <sheet name="addition_1" sheetId="27" r:id="rId20"/>
-    <sheet name="addition_2" sheetId="30" r:id="rId21"/>
-    <sheet name="addition_3" sheetId="32" r:id="rId22"/>
+    <sheet name="adb" sheetId="33" r:id="rId7"/>
+    <sheet name="LinuxCmd" sheetId="28" r:id="rId8"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId9"/>
+    <sheet name="PlugIn" sheetId="16" r:id="rId10"/>
+    <sheet name="其他" sheetId="23" r:id="rId11"/>
+    <sheet name="术语" sheetId="26" r:id="rId12"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId13"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId14"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId15"/>
+    <sheet name="Java" sheetId="12" r:id="rId16"/>
+    <sheet name="JNI" sheetId="11" r:id="rId17"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId18"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId19"/>
+    <sheet name="优化" sheetId="8" r:id="rId20"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId21"/>
+    <sheet name="addition_2" sheetId="30" r:id="rId22"/>
+    <sheet name="addition_3" sheetId="32" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="630">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2137,10 +2137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git clone [URL]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加所有文件到暂存区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3027,6 +3023,22 @@
   </si>
   <si>
     <t>容器特点对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb logcat &gt; C:\Users\twl\Desktop\log\logcat.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone [URL] [dir name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb logcat &gt; logcat.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储到cmd当前的目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4030,8 +4042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="738717" y="682625"/>
-          <a:ext cx="6793707" cy="4139500"/>
+          <a:off x="701040" y="678180"/>
+          <a:ext cx="6458851" cy="3987735"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -8093,14 +8105,14 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8108,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8116,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8124,7 +8136,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8132,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8140,7 +8152,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8148,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8156,7 +8168,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8164,7 +8176,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8172,7 +8184,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8180,7 +8192,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8188,7 +8200,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8196,7 +8208,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8204,7 +8216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8212,7 +8224,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8220,7 +8232,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8228,7 +8240,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8236,7 +8248,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -8266,24 +8278,448 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="252" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" ht="409.6" customHeight="1">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="336.6" customHeight="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8308,10 +8744,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="3"/>
@@ -8321,23 +8757,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" ht="27.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="3"/>
@@ -8347,10 +8783,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
@@ -8360,10 +8796,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -8373,7 +8809,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -8384,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -8698,7 +9134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
   <dimension ref="B1:F43"/>
   <sheetViews>
@@ -8707,15 +9143,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="30"/>
-    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.41015625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="30"/>
+    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8734,10 +9170,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>490</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="5"/>
@@ -8747,10 +9183,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
@@ -8760,7 +9196,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8771,43 +9207,43 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="210">
+    <row r="6" spans="2:6" ht="207">
       <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="140">
+    <row r="7" spans="2:6" ht="151.80000000000001">
       <c r="B7" s="40">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="84">
+    <row r="8" spans="2:6" ht="82.8">
       <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>505</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="5"/>
@@ -8817,10 +9253,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
@@ -8830,7 +9266,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -8841,7 +9277,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -8852,32 +9288,32 @@
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="28">
+    <row r="13" spans="2:6" ht="27.6">
       <c r="B13" s="40">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="56">
+    <row r="14" spans="2:6" ht="55.2">
       <c r="B14" s="40">
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>589</v>
       </c>
       <c r="E14"/>
       <c r="F14" s="5"/>
@@ -9151,7 +9587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E42"/>
@@ -9161,14 +9597,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9207,7 +9643,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="205.85" customHeight="1">
+    <row r="4" spans="2:5" ht="205.8" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9233,7 +9669,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="70">
+    <row r="6" spans="2:5" ht="69">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -9291,7 +9727,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" ht="28">
+    <row r="11" spans="2:5" ht="27.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -9303,7 +9739,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" ht="70">
+    <row r="12" spans="2:5" ht="69">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -9327,15 +9763,15 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="284.45" customHeight="1">
+    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -9344,20 +9780,20 @@
         <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="56">
+    <row r="16" spans="2:5" ht="55.2">
       <c r="B16" s="2">
         <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>526</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>527</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -9366,10 +9802,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>543</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>544</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -9378,7 +9814,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="7"/>
@@ -9388,10 +9824,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -9400,10 +9836,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>551</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>552</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -9591,7 +10027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:E42"/>
@@ -9600,14 +10036,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -9964,24 +10400,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9998,7 +10434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="84">
+    <row r="2" spans="2:5" ht="82.8">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10010,7 +10446,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="14.35">
+    <row r="3" spans="2:5" ht="14.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10022,7 +10458,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="28">
+    <row r="4" spans="2:5" ht="27.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10034,7 +10470,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="143.44999999999999" customHeight="1">
+    <row r="5" spans="2:5" ht="143.4" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10130,7 +10566,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="82.85" customHeight="1">
+    <row r="13" spans="2:5" ht="82.8" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -10150,7 +10586,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="28">
+    <row r="15" spans="2:5" ht="27.6">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -10206,7 +10642,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="140">
+    <row r="20" spans="2:5" ht="138">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -10238,7 +10674,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" ht="322">
+    <row r="23" spans="2:5" ht="317.39999999999998">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -10286,7 +10722,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="28">
+    <row r="27" spans="2:5" ht="27.6">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -10310,7 +10746,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="70">
+    <row r="29" spans="2:5" ht="69">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -10384,7 +10820,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" ht="98.45" customHeight="1">
+    <row r="35" spans="2:5" ht="98.4" customHeight="1">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -10468,7 +10904,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" ht="28">
+    <row r="42" spans="2:5" ht="27.6">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -10541,10 +10977,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="E48" s="7"/>
     </row>
@@ -10553,34 +10989,34 @@
         <v>48</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" ht="42">
+    <row r="50" spans="2:5" ht="41.4">
       <c r="B50" s="2">
         <v>49</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>472</v>
-      </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="28">
+    <row r="51" spans="2:5" ht="27.6">
       <c r="B51" s="2">
         <v>50</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>545</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>546</v>
       </c>
       <c r="E51" s="7"/>
     </row>
@@ -10616,7 +11052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -10626,14 +11062,14 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10646,7 +11082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="98">
+    <row r="2" spans="2:5" ht="96.6">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10658,7 +11094,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="42">
+    <row r="3" spans="2:5" ht="41.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10670,7 +11106,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="336">
+    <row r="4" spans="2:5" ht="345">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10682,7 +11118,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="56">
+    <row r="5" spans="2:5" ht="55.2">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10999,7 +11435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
@@ -11009,14 +11445,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11045,7 +11481,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="184.85" customHeight="1">
+    <row r="3" spans="2:5" ht="184.8" customHeight="1">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11067,7 +11503,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="235.85" customHeight="1">
+    <row r="5" spans="2:5" ht="235.8" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11381,7 +11817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -11390,14 +11826,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -11800,7 +12236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
@@ -11809,15 +12245,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="96.64453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.87890625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="96.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -11852,7 +12288,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="70">
+    <row r="4" spans="2:6" ht="69">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -11910,7 +12346,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="84">
+    <row r="8" spans="2:6" ht="96.6">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -12227,416 +12663,6 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="227.45" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12656,14 +12682,14 @@
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
     <col min="4" max="4" width="92" style="11" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -12690,7 +12716,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="42">
+    <row r="3" spans="2:5" ht="41.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -12726,7 +12752,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="56">
+    <row r="6" spans="2:5" ht="55.2">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -12738,7 +12764,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="199.85" customHeight="1">
+    <row r="7" spans="2:5" ht="199.8" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -12750,7 +12776,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="70">
+    <row r="8" spans="2:5" ht="69">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -12788,7 +12814,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="28">
+    <row r="11" spans="2:5" ht="27.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -12832,7 +12858,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -12848,7 +12874,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="163.85" customHeight="1">
+    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -12872,7 +12898,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="28">
+    <row r="18" spans="2:5" ht="27.6">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -12920,7 +12946,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="28">
+    <row r="22" spans="2:5" ht="27.6">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -13012,7 +13038,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="70">
+    <row r="30" spans="2:5" ht="69">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -13048,7 +13074,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="42">
+    <row r="33" spans="2:5" ht="41.4">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -13072,7 +13098,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="28">
+    <row r="35" spans="2:5" ht="27.6">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -13084,7 +13110,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="28">
+    <row r="36" spans="2:5" ht="27.6">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -13142,7 +13168,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" ht="28">
+    <row r="41" spans="2:5" ht="27.6">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -13258,7 +13284,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="28">
+    <row r="51" spans="2:5" ht="27.6">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -13282,7 +13308,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="28">
+    <row r="53" spans="2:5" ht="27.6">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -13311,34 +13337,34 @@
         <v>54</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="28">
+    <row r="56" spans="2:5" ht="27.6">
       <c r="B56" s="2">
         <v>55</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>452</v>
-      </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" ht="27.6">
       <c r="B57" s="2">
         <v>56</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -13347,10 +13373,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D58" s="41" t="s">
         <v>592</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>593</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -13779,49 +13805,406 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
-  <dimension ref="A2:B209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="25">
-      <c r="A2" s="34">
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="22.7">
-      <c r="B93" s="35" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="22.7">
-      <c r="B96" s="35"/>
-    </row>
-    <row r="97" spans="1:2" ht="25">
-      <c r="A97" s="34">
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="34" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="17.7">
-      <c r="B109" s="36" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="25">
-      <c r="A209" s="34">
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="227.4" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="B209" s="34" t="s">
-        <v>539</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13832,6 +14215,59 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
+  <dimension ref="A2:B209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="25.2">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="22.8">
+      <c r="B93" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="22.8">
+      <c r="B96" s="35"/>
+    </row>
+    <row r="97" spans="1:2" ht="25.2">
+      <c r="A97" s="34">
+        <v>2</v>
+      </c>
+      <c r="B97" s="34" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="17.399999999999999">
+      <c r="B109" s="36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="25.2">
+      <c r="A209" s="34">
+        <v>3</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D2D2E-2851-4F4B-B6EA-427EF9C64043}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -13839,276 +14275,276 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -14117,13 +14553,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EEA683-0C91-4C89-978B-E7620302E484}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14140,15 +14576,15 @@
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="15.52734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="19" customWidth="1"/>
-    <col min="5" max="5" width="89.87890625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14167,7 +14603,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="14"/>
@@ -14178,10 +14614,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>474</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>475</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="3"/>
@@ -14191,10 +14627,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="3"/>
@@ -14388,14 +14824,14 @@
       <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="77.234375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="77.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -14408,7 +14844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="224">
+    <row r="2" spans="2:5" ht="220.8">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14433,7 +14869,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="56">
+    <row r="4" spans="2:5" ht="55.2">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="0">B3+1</f>
         <v>3</v>
@@ -14459,7 +14895,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="173.45" customHeight="1">
+    <row r="6" spans="2:5" ht="173.4" customHeight="1">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14472,7 +14908,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="42">
+    <row r="7" spans="2:5" ht="41.4">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>6</v>
@@ -14600,7 +15036,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="346.85" customHeight="1">
+    <row r="17" spans="2:5" ht="346.8" customHeight="1">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14613,7 +15049,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="28">
+    <row r="18" spans="2:5" ht="27.6">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14637,7 +15073,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" ht="235.85" customHeight="1">
+    <row r="20" spans="2:5" ht="235.8" customHeight="1">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14650,7 +15086,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="294">
+    <row r="21" spans="2:5" ht="289.8">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14676,7 +15112,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" ht="42">
+    <row r="23" spans="2:5" ht="41.4">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14697,7 +15133,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="84">
+    <row r="25" spans="2:5" ht="82.8">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -14723,7 +15159,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="82.85" customHeight="1">
+    <row r="27" spans="2:5" ht="82.8" customHeight="1">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -14734,7 +15170,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" ht="56">
+    <row r="28" spans="2:5" ht="55.2">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -14747,7 +15183,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" ht="56">
+    <row r="29" spans="2:5" ht="55.2">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -14760,7 +15196,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="98">
+    <row r="30" spans="2:5" ht="96.6">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -14773,7 +15209,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="28">
+    <row r="31" spans="2:5" ht="27.6">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -14786,7 +15222,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
+    <row r="32" spans="2:5" ht="140.4" customHeight="1">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -14797,7 +15233,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="28">
+    <row r="33" spans="2:5" ht="27.6">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -14823,7 +15259,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="185.45" customHeight="1">
+    <row r="35" spans="2:5" ht="185.4" customHeight="1">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -14832,11 +15268,11 @@
         <v>349</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="56">
+    <row r="36" spans="2:5" ht="55.2">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -14849,7 +15285,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" ht="42">
+    <row r="37" spans="2:5" ht="41.4">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -14862,7 +15298,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" ht="70">
+    <row r="38" spans="2:5" ht="69">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -14871,7 +15307,7 @@
         <v>356</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -14927,7 +15363,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="42">
+    <row r="43" spans="2:5" ht="41.4">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -14975,7 +15411,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="310.85000000000002" customHeight="1">
+    <row r="47" spans="2:5" ht="310.8" customHeight="1">
       <c r="B47" s="2">
         <f>B46+1</f>
         <v>46</v>
@@ -15023,7 +15459,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="301.85000000000002" customHeight="1">
+    <row r="51" spans="2:5" ht="301.8" customHeight="1">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15036,7 +15472,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="42">
+    <row r="52" spans="2:5" ht="41.4">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -15049,7 +15485,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="98">
+    <row r="53" spans="2:5" ht="96.6">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15084,7 +15520,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="56">
+    <row r="56" spans="2:5" ht="55.2">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15097,7 +15533,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="28">
+    <row r="57" spans="2:5" ht="27.6">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15116,10 +15552,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -15129,10 +15565,10 @@
         <v>50</v>
       </c>
       <c r="C59" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -15142,10 +15578,10 @@
         <v>51</v>
       </c>
       <c r="C60" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -15155,23 +15591,23 @@
         <v>52</v>
       </c>
       <c r="C61" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="D61" s="14" t="s">
-        <v>444</v>
-      </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" ht="28">
+    <row r="62" spans="2:5" ht="27.6">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -15181,7 +15617,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="3"/>
@@ -15192,7 +15628,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="3"/>
@@ -15203,7 +15639,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="3"/>
@@ -15214,10 +15650,10 @@
         <v>57</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>453</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>454</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -15227,10 +15663,10 @@
         <v>58</v>
       </c>
       <c r="C67" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>456</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -15240,21 +15676,21 @@
         <v>59</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" ht="84">
+    <row r="69" spans="2:5" ht="82.8">
       <c r="B69" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C69" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -15264,36 +15700,36 @@
         <v>61</v>
       </c>
       <c r="C70" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="D70" s="14" t="s">
-        <v>483</v>
-      </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" ht="28">
+    <row r="71" spans="2:5" ht="27.6">
       <c r="B71" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="C71" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>488</v>
-      </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" ht="56">
+    <row r="72" spans="2:5" ht="55.2">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C72" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D72" s="14" t="s">
         <v>509</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>510</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -15303,36 +15739,36 @@
         <v>64</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" ht="42">
+    <row r="74" spans="2:5" ht="41.4">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C74" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D74" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" ht="112">
+    <row r="75" spans="2:5" ht="110.4">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C75" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>591</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -15342,7 +15778,7 @@
         <v>67</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="3"/>
@@ -15511,7 +15947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15524,18 +15960,18 @@
   <dimension ref="A17:E181"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="17" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="43.234375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="43.21875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:5" s="4" customFormat="1">
@@ -15556,10 +15992,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="28" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>541</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>542</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -15618,10 +16054,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E24"/>
     </row>
@@ -15673,7 +16109,7 @@
         <v>409</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -15682,10 +16118,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -15714,7 +16150,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>412</v>
+        <v>627</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="3"/>
@@ -15724,10 +16160,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>416</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>417</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -15736,10 +16172,10 @@
         <v>18</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -15748,10 +16184,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>430</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -15760,20 +16196,20 @@
         <v>20</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="24"/>
       <c r="C38" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>433</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -15782,10 +16218,10 @@
         <v>21</v>
       </c>
       <c r="C39" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>420</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>421</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -15794,10 +16230,10 @@
         <v>22</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>423</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>424</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -15806,10 +16242,10 @@
         <v>23</v>
       </c>
       <c r="C41" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>426</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -15818,10 +16254,10 @@
         <v>24</v>
       </c>
       <c r="C42" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>428</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -15830,10 +16266,10 @@
         <v>25</v>
       </c>
       <c r="C43" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>478</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>479</v>
       </c>
       <c r="E43" s="3"/>
     </row>
@@ -15842,10 +16278,10 @@
         <v>26</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>512</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -15854,10 +16290,10 @@
         <v>27</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>513</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>514</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -15866,22 +16302,22 @@
         <v>28</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>516</v>
-      </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="28">
+    <row r="47" spans="2:5" ht="27.6">
       <c r="B47" s="24">
         <v>29</v>
       </c>
       <c r="C47" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>517</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>518</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -15890,10 +16326,10 @@
         <v>30</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="14" t="s">
         <v>519</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>520</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -15902,22 +16338,22 @@
         <v>31</v>
       </c>
       <c r="C49" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="D49" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>522</v>
-      </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" ht="28">
+    <row r="50" spans="2:5" ht="27.6">
       <c r="B50" s="24">
         <v>32</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -15926,32 +16362,32 @@
         <v>33</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="42">
+    <row r="52" spans="2:5" ht="41.4">
       <c r="B52" s="24">
         <v>34</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="28">
+    <row r="53" spans="2:5" ht="27.6">
       <c r="B53" s="24">
         <v>35</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -15960,7 +16396,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="3"/>
@@ -16013,15 +16449,15 @@
       <c r="D60" s="14"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" ht="154">
+    <row r="61" spans="2:5" ht="151.80000000000001">
       <c r="B61" s="24">
         <v>43</v>
       </c>
       <c r="C61" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>582</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>583</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -16994,6 +17430,1361 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D9A22-E080-451C-BE90-A38F9EE8D6CC}">
+  <dimension ref="A2:E166"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="49.44140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="24">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="24">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="24">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="24">
+        <v>5</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="24">
+        <v>6</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="24">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="8"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="24">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="24">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="24">
+        <v>10</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="24">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="24">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="24">
+        <v>13</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="24">
+        <v>14</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="24">
+        <v>15</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="24">
+        <v>16</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="24">
+        <v>17</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="24">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="24">
+        <v>19</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="24">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="24"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="24">
+        <v>22</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="24">
+        <v>23</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="24">
+        <v>24</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="24">
+        <v>25</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="24">
+        <v>26</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="24">
+        <v>27</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="24">
+        <v>28</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="24">
+        <v>29</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="24">
+        <v>30</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="24">
+        <v>31</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="24">
+        <v>32</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="24">
+        <v>33</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="24">
+        <v>34</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="24">
+        <v>35</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="24">
+        <v>36</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="24">
+        <v>37</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="24">
+        <v>38</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="24">
+        <v>39</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="24">
+        <v>40</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="24">
+        <v>41</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="24">
+        <v>42</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="24">
+        <v>43</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="24">
+        <v>44</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="24">
+        <v>45</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="24">
+        <v>46</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="24">
+        <v>47</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="24">
+        <v>48</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="24">
+        <v>49</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="24">
+        <v>50</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="24">
+        <v>51</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="24">
+        <v>52</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="24">
+        <v>53</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="24">
+        <v>54</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="24">
+        <v>55</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="24">
+        <v>56</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="24">
+        <v>57</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="24">
+        <v>58</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="24">
+        <v>59</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="24">
+        <v>60</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="24">
+        <v>61</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="24">
+        <v>62</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="24">
+        <v>63</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="24">
+        <v>64</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="24">
+        <v>65</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="24">
+        <v>66</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="24">
+        <v>67</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="24">
+        <v>68</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="24">
+        <v>69</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="24">
+        <v>70</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="24">
+        <v>71</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="24">
+        <v>72</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="24">
+        <v>73</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="24">
+        <v>74</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="24">
+        <v>75</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="24">
+        <v>76</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="24">
+        <v>77</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="24">
+        <v>78</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="24">
+        <v>79</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="24">
+        <v>80</v>
+      </c>
+      <c r="C83" s="26"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="24">
+        <v>81</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="24">
+        <v>82</v>
+      </c>
+      <c r="C85" s="26"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="24">
+        <v>83</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="24">
+        <v>84</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="24">
+        <v>85</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="24">
+        <v>86</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="24">
+        <v>87</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="24">
+        <v>88</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="24">
+        <v>89</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="24">
+        <v>90</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="24">
+        <v>91</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="24">
+        <v>92</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="24">
+        <v>93</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="24">
+        <v>94</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="24">
+        <v>95</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="24">
+        <v>96</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="24">
+        <v>97</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="24">
+        <v>98</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="24">
+        <v>99</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="24">
+        <v>100</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="24">
+        <v>101</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="24">
+        <v>102</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="24">
+        <v>103</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="24">
+        <v>104</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="24">
+        <v>105</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="24">
+        <v>106</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="24">
+        <v>107</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="24">
+        <v>108</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="24">
+        <v>109</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="24">
+        <v>110</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="24">
+        <v>111</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="24">
+        <v>112</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="24">
+        <v>113</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="24">
+        <v>114</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="24">
+        <v>115</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="24">
+        <v>116</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="24">
+        <v>117</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="24">
+        <v>118</v>
+      </c>
+      <c r="C121" s="26"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="24">
+        <v>119</v>
+      </c>
+      <c r="C122" s="26"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="24">
+        <v>120</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="24">
+        <v>121</v>
+      </c>
+      <c r="C124" s="26"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="24">
+        <v>122</v>
+      </c>
+      <c r="C125" s="26"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="24">
+        <v>123</v>
+      </c>
+      <c r="C126" s="26"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="24">
+        <v>124</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="24">
+        <v>125</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="24">
+        <v>126</v>
+      </c>
+      <c r="C129" s="26"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="24">
+        <v>127</v>
+      </c>
+      <c r="C130" s="26"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="24">
+        <v>128</v>
+      </c>
+      <c r="C131" s="26"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="24">
+        <v>129</v>
+      </c>
+      <c r="C132" s="26"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="24">
+        <v>130</v>
+      </c>
+      <c r="C133" s="26"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="24">
+        <v>131</v>
+      </c>
+      <c r="C134" s="26"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="24">
+        <v>132</v>
+      </c>
+      <c r="C135" s="26"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="24">
+        <v>133</v>
+      </c>
+      <c r="C136" s="26"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="24">
+        <v>134</v>
+      </c>
+      <c r="C137" s="26"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="24">
+        <v>135</v>
+      </c>
+      <c r="C138" s="26"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="24">
+        <v>136</v>
+      </c>
+      <c r="C139" s="26"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="24">
+        <v>137</v>
+      </c>
+      <c r="C140" s="26"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="24">
+        <v>138</v>
+      </c>
+      <c r="C141" s="26"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="24">
+        <v>139</v>
+      </c>
+      <c r="C142" s="26"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="24">
+        <v>140</v>
+      </c>
+      <c r="C143" s="26"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="24">
+        <v>141</v>
+      </c>
+      <c r="C144" s="26"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="24">
+        <v>142</v>
+      </c>
+      <c r="C145" s="26"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="24">
+        <v>143</v>
+      </c>
+      <c r="C146" s="26"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="24">
+        <v>144</v>
+      </c>
+      <c r="C147" s="26"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="24">
+        <v>145</v>
+      </c>
+      <c r="C148" s="26"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="24">
+        <v>146</v>
+      </c>
+      <c r="C149" s="26"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="24">
+        <v>147</v>
+      </c>
+      <c r="C150" s="26"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="24">
+        <v>148</v>
+      </c>
+      <c r="C151" s="26"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="24">
+        <v>149</v>
+      </c>
+      <c r="C152" s="26"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="24">
+        <v>150</v>
+      </c>
+      <c r="C153" s="26"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="24">
+        <v>151</v>
+      </c>
+      <c r="C154" s="26"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="24">
+        <v>152</v>
+      </c>
+      <c r="C155" s="26"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="24">
+        <v>153</v>
+      </c>
+      <c r="C156" s="26"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="24">
+        <v>154</v>
+      </c>
+      <c r="C157" s="26"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="24">
+        <v>155</v>
+      </c>
+      <c r="C158" s="26"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="24">
+        <v>156</v>
+      </c>
+      <c r="C159" s="26"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="24">
+        <v>157</v>
+      </c>
+      <c r="C160" s="26"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="24">
+        <v>158</v>
+      </c>
+      <c r="C161" s="26"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="24">
+        <v>159</v>
+      </c>
+      <c r="C162" s="26"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="24">
+        <v>160</v>
+      </c>
+      <c r="C163" s="26"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="24">
+        <v>161</v>
+      </c>
+      <c r="C164" s="26"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="24">
+        <v>162</v>
+      </c>
+      <c r="C165" s="26"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="24">
+        <v>163</v>
+      </c>
+      <c r="C166" s="26"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A15724-314A-4210-943D-4A1015072904}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -17002,14 +18793,14 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="39.1171875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -17030,7 +18821,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="3"/>
@@ -17338,7 +19129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F41"/>
@@ -17348,15 +19139,15 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.1171875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -17374,7 +19165,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="42">
+    <row r="2" spans="2:6" ht="41.4">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -17420,7 +19211,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="28">
+    <row r="6" spans="2:6" ht="27.6">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -17428,7 +19219,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
@@ -17444,7 +19235,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="42">
+    <row r="8" spans="2:6" ht="41.4">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -17506,7 +19297,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -17769,428 +19560,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="252" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" ht="409.6" customHeight="1">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="336.6" customHeight="1">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="194.45" customHeight="1">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC9E109-3352-46C2-893E-15A056F8BD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4372009-CACB-44E1-931C-30C03CA0FDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="6" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="635">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3039,6 +3039,26 @@
   </si>
   <si>
     <t>存储到cmd当前的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_if用于什么类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vs2017如何设置C++标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知道多边形边界点（包含顶点），如何找到顶点坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算相邻三点夹角，如果小于180则为顶点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4776,9 +4796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4352057</xdr:colOff>
+      <xdr:colOff>4353962</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>859155</xdr:rowOff>
+      <xdr:rowOff>855345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4842,7 +4862,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5730240</xdr:colOff>
+      <xdr:colOff>5734050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2059955</xdr:rowOff>
     </xdr:to>
@@ -4886,7 +4906,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5730240</xdr:colOff>
+      <xdr:colOff>5734050</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>3773693</xdr:rowOff>
     </xdr:to>
@@ -4930,7 +4950,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3192780</xdr:colOff>
+      <xdr:colOff>3179445</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>4225729</xdr:rowOff>
     </xdr:to>
@@ -5018,9 +5038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6001930</xdr:colOff>
+      <xdr:colOff>5998120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>935256</xdr:rowOff>
+      <xdr:rowOff>931446</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5062,9 +5082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5810923</xdr:colOff>
+      <xdr:colOff>5807113</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2720341</xdr:rowOff>
+      <xdr:rowOff>2724151</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5152,7 +5172,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2973128</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>1698941</xdr:rowOff>
+      <xdr:rowOff>1695131</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5194,9 +5214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2990850</xdr:colOff>
+      <xdr:colOff>2987040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>4288694</xdr:rowOff>
+      <xdr:rowOff>4284884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5238,9 +5258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3373755</xdr:colOff>
+      <xdr:colOff>3369945</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1812594</xdr:rowOff>
+      <xdr:rowOff>1808784</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5282,9 +5302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2039773</xdr:colOff>
+      <xdr:colOff>2035963</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2877761</xdr:rowOff>
+      <xdr:rowOff>2873951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5326,9 +5346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4739765</xdr:colOff>
+      <xdr:colOff>4743575</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>3411855</xdr:rowOff>
+      <xdr:rowOff>3408045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5372,7 +5392,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5447629</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>1504814</xdr:rowOff>
+      <xdr:rowOff>1508624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5414,9 +5434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2644140</xdr:colOff>
+      <xdr:colOff>2647950</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>3561714</xdr:rowOff>
+      <xdr:rowOff>3565524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5458,9 +5478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5234940</xdr:colOff>
+      <xdr:colOff>5238750</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>3791296</xdr:rowOff>
+      <xdr:rowOff>3787486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5502,9 +5522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1272631</xdr:colOff>
+      <xdr:colOff>1276441</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>744855</xdr:rowOff>
+      <xdr:rowOff>741045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5548,7 +5568,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>1463917</xdr:rowOff>
+      <xdr:rowOff>1467727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5592,7 +5612,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1598295</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>2340080</xdr:rowOff>
+      <xdr:rowOff>2343890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5634,9 +5654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2907874</xdr:colOff>
+      <xdr:colOff>2911684</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>3977641</xdr:rowOff>
+      <xdr:rowOff>3981451</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5678,9 +5698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2839583</xdr:colOff>
+      <xdr:colOff>2835773</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>4705350</xdr:rowOff>
+      <xdr:rowOff>4701540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5724,7 +5744,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>6019652</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>2878311</xdr:rowOff>
+      <xdr:rowOff>2874501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5766,9 +5786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:colOff>1272540</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>930302</xdr:rowOff>
+      <xdr:rowOff>934112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5810,9 +5830,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2218616</xdr:colOff>
+      <xdr:colOff>2226236</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>2314575</xdr:rowOff>
+      <xdr:rowOff>2306955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5854,7 +5874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6042892</xdr:colOff>
+      <xdr:colOff>6039082</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>2209799</xdr:rowOff>
     </xdr:to>
@@ -5881,6 +5901,50 @@
         <a:xfrm>
           <a:off x="6233160" y="73118648"/>
           <a:ext cx="5959072" cy="1557351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6073141</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>2037632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2AB546-5B5D-4185-BC4F-0CFD13A51E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6257926" y="78943200"/>
+          <a:ext cx="5958840" cy="1921427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14571,16 +14635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="15.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="19" customWidth="1"/>
     <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
     <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
@@ -14639,8 +14703,12 @@
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="3"/>
     </row>
@@ -14817,11 +14885,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0256962B-F3FC-476F-9574-E04CC44E1162}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15788,16 +15856,22 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>631</v>
+      </c>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" ht="165.6" customHeight="1">
       <c r="B78" s="2">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14" t="s">
+        <v>632</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="3"/>
     </row>
@@ -15830,7 +15904,7 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="2">
-        <f t="shared" ref="B82:B92" si="3">B81+1</f>
+        <f t="shared" ref="B82:B145" si="3">B81+1</f>
         <v>73</v>
       </c>
       <c r="C82" s="14"/>
@@ -15926,6 +16000,1959 @@
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
       <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="2">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="2">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="2">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="2">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="2">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="2">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="2">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="2">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="2">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="2">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="2">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="2">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="2">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="2">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="2">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="2">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="2">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="2">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="2">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="2">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="2">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="2">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="2">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="2">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="2">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="2">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="2">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="2">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="2">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="2">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="2">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="2">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="2">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="2">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="2">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="2">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="2">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="2">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="2">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="2">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="2">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="2">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="2">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="2">
+        <f t="shared" ref="B146:B209" si="4">B145+1</f>
+        <v>137</v>
+      </c>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="2">
+        <f t="shared" si="4"/>
+        <v>138</v>
+      </c>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="2">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="2">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="2">
+        <f t="shared" si="4"/>
+        <v>141</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="2">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="2">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="2">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="2">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="2">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="2">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="2">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="2">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="2">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="2">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="2">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="2">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="2">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="2">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="2">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="2">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="3"/>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="2">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="2">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="3"/>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="2">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="3"/>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="2">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="3"/>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="2">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="3"/>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="2">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="2">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="2">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="2:5">
+      <c r="B175" s="2">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="3"/>
+    </row>
+    <row r="176" spans="2:5">
+      <c r="B176" s="2">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="3"/>
+    </row>
+    <row r="177" spans="2:5">
+      <c r="B177" s="2">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="3"/>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="2">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="3"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="2">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="3"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="2">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="3"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="2">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="3"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="2">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="3"/>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="2">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="3"/>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="2">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="3"/>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="2">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="3"/>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="2">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="3"/>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="2">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="3"/>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="2">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="2">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="3"/>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="2">
+        <f t="shared" si="4"/>
+        <v>181</v>
+      </c>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="3"/>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="2">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="3"/>
+    </row>
+    <row r="192" spans="2:5">
+      <c r="B192" s="2">
+        <f t="shared" si="4"/>
+        <v>183</v>
+      </c>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="3"/>
+    </row>
+    <row r="193" spans="2:5">
+      <c r="B193" s="2">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="3"/>
+    </row>
+    <row r="194" spans="2:5">
+      <c r="B194" s="2">
+        <f t="shared" si="4"/>
+        <v>185</v>
+      </c>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="2:5">
+      <c r="B195" s="2">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="2:5">
+      <c r="B196" s="2">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="2:5">
+      <c r="B197" s="2">
+        <f t="shared" si="4"/>
+        <v>188</v>
+      </c>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="2:5">
+      <c r="B198" s="2">
+        <f t="shared" si="4"/>
+        <v>189</v>
+      </c>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="2:5">
+      <c r="B199" s="2">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="2:5">
+      <c r="B200" s="2">
+        <f t="shared" si="4"/>
+        <v>191</v>
+      </c>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="2:5">
+      <c r="B201" s="2">
+        <f t="shared" si="4"/>
+        <v>192</v>
+      </c>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="2:5">
+      <c r="B202" s="2">
+        <f t="shared" si="4"/>
+        <v>193</v>
+      </c>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="2:5">
+      <c r="B203" s="2">
+        <f t="shared" si="4"/>
+        <v>194</v>
+      </c>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="2:5">
+      <c r="B204" s="2">
+        <f t="shared" si="4"/>
+        <v>195</v>
+      </c>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="2:5">
+      <c r="B205" s="2">
+        <f t="shared" si="4"/>
+        <v>196</v>
+      </c>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="2:5">
+      <c r="B206" s="2">
+        <f t="shared" si="4"/>
+        <v>197</v>
+      </c>
+      <c r="C206" s="14"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="3"/>
+    </row>
+    <row r="207" spans="2:5">
+      <c r="B207" s="2">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="3"/>
+    </row>
+    <row r="208" spans="2:5">
+      <c r="B208" s="2">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="3"/>
+    </row>
+    <row r="209" spans="2:5">
+      <c r="B209" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="3"/>
+    </row>
+    <row r="210" spans="2:5">
+      <c r="B210" s="2">
+        <f t="shared" ref="B210:B273" si="5">B209+1</f>
+        <v>201</v>
+      </c>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="3"/>
+    </row>
+    <row r="211" spans="2:5">
+      <c r="B211" s="2">
+        <f t="shared" si="5"/>
+        <v>202</v>
+      </c>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="2:5">
+      <c r="B212" s="2">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="2:5">
+      <c r="B213" s="2">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="C213" s="14"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="2:5">
+      <c r="B214" s="2">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="3"/>
+    </row>
+    <row r="215" spans="2:5">
+      <c r="B215" s="2">
+        <f t="shared" si="5"/>
+        <v>206</v>
+      </c>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="3"/>
+    </row>
+    <row r="216" spans="2:5">
+      <c r="B216" s="2">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="2:5">
+      <c r="B217" s="2">
+        <f t="shared" si="5"/>
+        <v>208</v>
+      </c>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="2:5">
+      <c r="B218" s="2">
+        <f t="shared" si="5"/>
+        <v>209</v>
+      </c>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="3"/>
+    </row>
+    <row r="219" spans="2:5">
+      <c r="B219" s="2">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="3"/>
+    </row>
+    <row r="220" spans="2:5">
+      <c r="B220" s="2">
+        <f t="shared" si="5"/>
+        <v>211</v>
+      </c>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="2:5">
+      <c r="B221" s="2">
+        <f t="shared" si="5"/>
+        <v>212</v>
+      </c>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="3"/>
+    </row>
+    <row r="222" spans="2:5">
+      <c r="B222" s="2">
+        <f t="shared" si="5"/>
+        <v>213</v>
+      </c>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="3"/>
+    </row>
+    <row r="223" spans="2:5">
+      <c r="B223" s="2">
+        <f t="shared" si="5"/>
+        <v>214</v>
+      </c>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="3"/>
+    </row>
+    <row r="224" spans="2:5">
+      <c r="B224" s="2">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="3"/>
+    </row>
+    <row r="225" spans="2:5">
+      <c r="B225" s="2">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="2:5">
+      <c r="B226" s="2">
+        <f t="shared" si="5"/>
+        <v>217</v>
+      </c>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="3"/>
+    </row>
+    <row r="227" spans="2:5">
+      <c r="B227" s="2">
+        <f t="shared" si="5"/>
+        <v>218</v>
+      </c>
+      <c r="C227" s="14"/>
+      <c r="D227" s="14"/>
+      <c r="E227" s="3"/>
+    </row>
+    <row r="228" spans="2:5">
+      <c r="B228" s="2">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+      <c r="C228" s="14"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="2:5">
+      <c r="B229" s="2">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="2:5">
+      <c r="B230" s="2">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="2:5">
+      <c r="B231" s="2">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="2:5">
+      <c r="B232" s="2">
+        <f t="shared" si="5"/>
+        <v>223</v>
+      </c>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="2:5">
+      <c r="B233" s="2">
+        <f t="shared" si="5"/>
+        <v>224</v>
+      </c>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="3"/>
+    </row>
+    <row r="234" spans="2:5">
+      <c r="B234" s="2">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="3"/>
+    </row>
+    <row r="235" spans="2:5">
+      <c r="B235" s="2">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="3"/>
+    </row>
+    <row r="236" spans="2:5">
+      <c r="B236" s="2">
+        <f t="shared" si="5"/>
+        <v>227</v>
+      </c>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="2:5">
+      <c r="B237" s="2">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="3"/>
+    </row>
+    <row r="238" spans="2:5">
+      <c r="B238" s="2">
+        <f t="shared" si="5"/>
+        <v>229</v>
+      </c>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="3"/>
+    </row>
+    <row r="239" spans="2:5">
+      <c r="B239" s="2">
+        <f t="shared" si="5"/>
+        <v>230</v>
+      </c>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="3"/>
+    </row>
+    <row r="240" spans="2:5">
+      <c r="B240" s="2">
+        <f t="shared" si="5"/>
+        <v>231</v>
+      </c>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="3"/>
+    </row>
+    <row r="241" spans="2:5">
+      <c r="B241" s="2">
+        <f t="shared" si="5"/>
+        <v>232</v>
+      </c>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="3"/>
+    </row>
+    <row r="242" spans="2:5">
+      <c r="B242" s="2">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="2:5">
+      <c r="B243" s="2">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="2:5">
+      <c r="B244" s="2">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="2:5">
+      <c r="B245" s="2">
+        <f t="shared" si="5"/>
+        <v>236</v>
+      </c>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="246" spans="2:5">
+      <c r="B246" s="2">
+        <f t="shared" si="5"/>
+        <v>237</v>
+      </c>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="2">
+        <f t="shared" si="5"/>
+        <v>238</v>
+      </c>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="3"/>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="B248" s="2">
+        <f t="shared" si="5"/>
+        <v>239</v>
+      </c>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="3"/>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="B249" s="2">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="B250" s="2">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="3"/>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="B251" s="2">
+        <f t="shared" si="5"/>
+        <v>242</v>
+      </c>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="3"/>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="B252" s="2">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="3"/>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="B253" s="2">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="3"/>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="B254" s="2">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="3"/>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="B255" s="2">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="3"/>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="B256" s="2">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="3"/>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" s="2">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="C257" s="14"/>
+      <c r="D257" s="14"/>
+      <c r="E257" s="3"/>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" s="2">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="C258" s="14"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="3"/>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="B259" s="2">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="3"/>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="B260" s="2">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="3"/>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="2">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="3"/>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="B262" s="2">
+        <f t="shared" si="5"/>
+        <v>253</v>
+      </c>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="3"/>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="B263" s="2">
+        <f t="shared" si="5"/>
+        <v>254</v>
+      </c>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="B264" s="2">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="3"/>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="B265" s="2">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="3"/>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="2">
+        <f t="shared" si="5"/>
+        <v>257</v>
+      </c>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="3"/>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="B267" s="2">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="3"/>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="B268" s="2">
+        <f t="shared" si="5"/>
+        <v>259</v>
+      </c>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="3"/>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="B269" s="2">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="3"/>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="B270" s="2">
+        <f t="shared" si="5"/>
+        <v>261</v>
+      </c>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="3"/>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="2">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="B272" s="2">
+        <f t="shared" si="5"/>
+        <v>263</v>
+      </c>
+      <c r="C272" s="14"/>
+      <c r="D272" s="14"/>
+      <c r="E272" s="3"/>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="2">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+      <c r="C273" s="14"/>
+      <c r="D273" s="14"/>
+      <c r="E273" s="3"/>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="2">
+        <f t="shared" ref="B274:B309" si="6">B273+1</f>
+        <v>265</v>
+      </c>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="3"/>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="2">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="3"/>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="2">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="3"/>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="2">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="3"/>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" s="2">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="3"/>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" s="2">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="3"/>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" s="2">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="2">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="2">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" s="2">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="3"/>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284" s="2">
+        <f t="shared" si="6"/>
+        <v>275</v>
+      </c>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="3"/>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285" s="2">
+        <f t="shared" si="6"/>
+        <v>276</v>
+      </c>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="3"/>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286" s="2">
+        <f t="shared" si="6"/>
+        <v>277</v>
+      </c>
+      <c r="C286" s="14"/>
+      <c r="D286" s="14"/>
+      <c r="E286" s="3"/>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" s="2">
+        <f t="shared" si="6"/>
+        <v>278</v>
+      </c>
+      <c r="C287" s="14"/>
+      <c r="D287" s="14"/>
+      <c r="E287" s="3"/>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288" s="2">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="C288" s="14"/>
+      <c r="D288" s="14"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="B289" s="2">
+        <f t="shared" si="6"/>
+        <v>280</v>
+      </c>
+      <c r="C289" s="14"/>
+      <c r="D289" s="14"/>
+      <c r="E289" s="3"/>
+    </row>
+    <row r="290" spans="2:5">
+      <c r="B290" s="2">
+        <f t="shared" si="6"/>
+        <v>281</v>
+      </c>
+      <c r="C290" s="14"/>
+      <c r="D290" s="14"/>
+      <c r="E290" s="3"/>
+    </row>
+    <row r="291" spans="2:5">
+      <c r="B291" s="2">
+        <f t="shared" si="6"/>
+        <v>282</v>
+      </c>
+      <c r="C291" s="14"/>
+      <c r="D291" s="14"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="2:5">
+      <c r="B292" s="2">
+        <f t="shared" si="6"/>
+        <v>283</v>
+      </c>
+      <c r="C292" s="14"/>
+      <c r="D292" s="14"/>
+      <c r="E292" s="3"/>
+    </row>
+    <row r="293" spans="2:5">
+      <c r="B293" s="2">
+        <f t="shared" si="6"/>
+        <v>284</v>
+      </c>
+      <c r="C293" s="14"/>
+      <c r="D293" s="14"/>
+      <c r="E293" s="3"/>
+    </row>
+    <row r="294" spans="2:5">
+      <c r="B294" s="2">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="C294" s="14"/>
+      <c r="D294" s="14"/>
+      <c r="E294" s="3"/>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" s="2">
+        <f t="shared" si="6"/>
+        <v>286</v>
+      </c>
+      <c r="C295" s="14"/>
+      <c r="D295" s="14"/>
+      <c r="E295" s="3"/>
+    </row>
+    <row r="296" spans="2:5">
+      <c r="B296" s="2">
+        <f t="shared" si="6"/>
+        <v>287</v>
+      </c>
+      <c r="C296" s="14"/>
+      <c r="D296" s="14"/>
+      <c r="E296" s="3"/>
+    </row>
+    <row r="297" spans="2:5">
+      <c r="B297" s="2">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="C297" s="14"/>
+      <c r="D297" s="14"/>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="2:5">
+      <c r="B298" s="2">
+        <f t="shared" si="6"/>
+        <v>289</v>
+      </c>
+      <c r="C298" s="14"/>
+      <c r="D298" s="14"/>
+      <c r="E298" s="3"/>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="B299" s="2">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="C299" s="14"/>
+      <c r="D299" s="14"/>
+      <c r="E299" s="3"/>
+    </row>
+    <row r="300" spans="2:5">
+      <c r="B300" s="2">
+        <f t="shared" si="6"/>
+        <v>291</v>
+      </c>
+      <c r="C300" s="14"/>
+      <c r="D300" s="14"/>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301" s="2">
+        <f t="shared" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="C301" s="14"/>
+      <c r="D301" s="14"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="2:5">
+      <c r="B302" s="2">
+        <f t="shared" si="6"/>
+        <v>293</v>
+      </c>
+      <c r="C302" s="14"/>
+      <c r="D302" s="14"/>
+      <c r="E302" s="3"/>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" s="2">
+        <f t="shared" si="6"/>
+        <v>294</v>
+      </c>
+      <c r="C303" s="14"/>
+      <c r="D303" s="14"/>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" s="2">
+        <f t="shared" si="6"/>
+        <v>295</v>
+      </c>
+      <c r="C304" s="14"/>
+      <c r="D304" s="14"/>
+      <c r="E304" s="3"/>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="B305" s="2">
+        <f t="shared" si="6"/>
+        <v>296</v>
+      </c>
+      <c r="C305" s="14"/>
+      <c r="D305" s="14"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="B306" s="2">
+        <f t="shared" si="6"/>
+        <v>297</v>
+      </c>
+      <c r="C306" s="14"/>
+      <c r="D306" s="14"/>
+      <c r="E306" s="3"/>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="B307" s="2">
+        <f t="shared" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="C307" s="14"/>
+      <c r="D307" s="14"/>
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" s="2">
+        <f t="shared" si="6"/>
+        <v>299</v>
+      </c>
+      <c r="C308" s="14"/>
+      <c r="D308" s="14"/>
+      <c r="E308" s="3"/>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" s="2">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="C309" s="14"/>
+      <c r="D309" s="14"/>
+      <c r="E309" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17433,7 +19460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D9A22-E080-451C-BE90-A38F9EE8D6CC}">
   <dimension ref="A2:E166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GiteeRepository\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4372009-CACB-44E1-931C-30C03CA0FDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC13FFA2-D21E-4877-A8E2-3EFC9F28D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="889" activeTab="2" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -38,7 +38,6 @@
     <sheet name="addition_3" sheetId="32" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="640">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3059,6 +3060,28 @@
   </si>
   <si>
     <t>计算相邻三点夹角，如果小于180则为顶点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete与delete[]区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete ptr  代表用来释放内存，且只用来释放 ptr 指向的内存。delete[] rg   用来释放rg指向的内存，！！还逐一调用数组中每个对象的destructor！！
+内存都可以正确释放，但是只有delete[]会依次调用析构函数，所以当delete基本数据类型时没有区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当处理需要配对的获取/释放函数调用的资源时，都应该将资源封装在一个对象中，实现自动资源释放。例如，我们无需直接调用一对非成员函数OpenPort/ClosePort，而是可以考虑定义常性且内部初始化的RAII概念的“端口”操作类
+通过使用上述RAII类型，可以避免程序员忘记关闭端口而引起的泄漏，还可以确保异常发生时栈展开过程中自动释放端口资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valgrind</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4062,8 +4085,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="678180"/>
-          <a:ext cx="6458851" cy="3987735"/>
+          <a:off x="738717" y="682625"/>
+          <a:ext cx="6793707" cy="4139500"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -8169,7 +8192,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -8351,15 +8374,15 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8423,7 +8446,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+    <row r="6" spans="2:6" ht="194.45" customHeight="1">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -8775,15 +8798,15 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8829,7 +8852,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="27.6">
+    <row r="4" spans="2:6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9207,15 +9230,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="30"/>
-    <col min="3" max="3" width="70.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="30"/>
+    <col min="3" max="3" width="70.234375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -9277,7 +9300,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="207">
+    <row r="6" spans="2:6" ht="210">
       <c r="B6" s="40"/>
       <c r="C6" s="8" t="s">
         <v>493</v>
@@ -9288,7 +9311,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
+    <row r="7" spans="2:6" ht="140">
       <c r="B7" s="40">
         <v>5</v>
       </c>
@@ -9301,7 +9324,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="82.8">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="40"/>
       <c r="C8" s="8" t="s">
         <v>503</v>
@@ -9358,7 +9381,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="27.6">
+    <row r="13" spans="2:6" ht="28">
       <c r="B13" s="40">
         <v>10</v>
       </c>
@@ -9369,7 +9392,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="55.2">
+    <row r="14" spans="2:6" ht="56">
       <c r="B14" s="40">
         <v>11</v>
       </c>
@@ -9661,14 +9684,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9707,7 +9730,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+    <row r="4" spans="2:5" ht="205.85" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9733,7 +9756,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="69">
+    <row r="6" spans="2:5" ht="70">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -9791,7 +9814,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -9803,7 +9826,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" ht="69">
+    <row r="12" spans="2:5" ht="70">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -9827,7 +9850,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+    <row r="14" spans="2:5" ht="284.45" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -9849,7 +9872,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="55.2">
+    <row r="16" spans="2:5" ht="56">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -10100,14 +10123,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -10474,14 +10497,14 @@
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10498,7 +10521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="82.8">
+    <row r="2" spans="2:5" ht="84">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10510,7 +10533,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="14.4">
+    <row r="3" spans="2:5" ht="14.35">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10522,7 +10545,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="27.6">
+    <row r="4" spans="2:5" ht="28">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10534,7 +10557,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="143.4" customHeight="1">
+    <row r="5" spans="2:5" ht="143.44999999999999" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10630,7 +10653,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="82.8" customHeight="1">
+    <row r="13" spans="2:5" ht="82.85" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -10650,7 +10673,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="27.6">
+    <row r="15" spans="2:5" ht="28">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -10706,7 +10729,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="138">
+    <row r="20" spans="2:5" ht="140">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -10738,7 +10761,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" ht="317.39999999999998">
+    <row r="23" spans="2:5" ht="322">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -10786,7 +10809,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="27.6">
+    <row r="27" spans="2:5" ht="28">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -10810,7 +10833,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="69">
+    <row r="29" spans="2:5" ht="70">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -10884,7 +10907,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" ht="98.4" customHeight="1">
+    <row r="35" spans="2:5" ht="98.45" customHeight="1">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -10968,7 +10991,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" ht="27.6">
+    <row r="42" spans="2:5" ht="28">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -11060,7 +11083,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" ht="41.4">
+    <row r="50" spans="2:5" ht="42">
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -11072,7 +11095,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -11126,14 +11149,14 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11146,7 +11169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="96.6">
+    <row r="2" spans="2:5" ht="98">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -11158,7 +11181,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11170,7 +11193,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="345">
+    <row r="4" spans="2:5" ht="336">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -11182,7 +11205,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="55.2">
+    <row r="5" spans="2:5" ht="56">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11509,14 +11532,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11545,7 +11568,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="184.8" customHeight="1">
+    <row r="3" spans="2:5" ht="184.85" customHeight="1">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11567,7 +11590,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="235.8" customHeight="1">
+    <row r="5" spans="2:5" ht="235.85" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11890,14 +11913,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -12309,15 +12332,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="96.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="96.64453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.87890625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -12352,7 +12375,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="69">
+    <row r="4" spans="2:6" ht="70">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -12410,7 +12433,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="96.6">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -12746,14 +12769,14 @@
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="11" customWidth="1"/>
     <col min="4" max="4" width="92" style="11" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -12780,7 +12803,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -12816,7 +12839,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="55.2">
+    <row r="6" spans="2:5" ht="56">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -12828,7 +12851,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+    <row r="7" spans="2:5" ht="199.85" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -12840,7 +12863,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="69">
+    <row r="8" spans="2:5" ht="70">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -12878,7 +12901,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -12938,7 +12961,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="163.85" customHeight="1">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -12962,7 +12985,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -13010,7 +13033,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="27.6">
+    <row r="22" spans="2:5" ht="28">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -13102,7 +13125,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="69">
+    <row r="30" spans="2:5" ht="70">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -13138,7 +13161,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="41.4">
+    <row r="33" spans="2:5" ht="42">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -13162,7 +13185,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="27.6">
+    <row r="35" spans="2:5" ht="28">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -13174,7 +13197,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="27.6">
+    <row r="36" spans="2:5" ht="28">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -13232,7 +13255,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" ht="27.6">
+    <row r="41" spans="2:5" ht="28">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -13348,7 +13371,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -13372,7 +13395,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -13408,7 +13431,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="27.6">
+    <row r="56" spans="2:5" ht="28">
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -13420,7 +13443,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5">
       <c r="B57" s="2">
         <v>56</v>
       </c>
@@ -13878,15 +13901,15 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -13906,7 +13929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="227.4" customHeight="1">
+    <row r="2" spans="2:6" ht="227.45" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14284,9 +14307,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="25.2">
+    <row r="2" spans="1:2" ht="25">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -14294,15 +14317,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="22.8">
+    <row r="93" spans="2:2" ht="22.7">
       <c r="B93" s="35" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="22.8">
+    <row r="96" spans="2:2" ht="22.7">
       <c r="B96" s="35"/>
     </row>
-    <row r="97" spans="1:2" ht="25.2">
+    <row r="97" spans="1:2" ht="25">
       <c r="A97" s="34">
         <v>2</v>
       </c>
@@ -14310,12 +14333,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.399999999999999">
+    <row r="109" spans="1:2" ht="17.7">
       <c r="B109" s="36" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="25.2">
+    <row r="209" spans="1:2" ht="25">
       <c r="A209" s="34">
         <v>3</v>
       </c>
@@ -14339,7 +14362,7 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -14623,7 +14646,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14635,20 +14658,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="72.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="72.87890625" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="19" customWidth="1"/>
-    <col min="5" max="5" width="89.88671875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="89.87890625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14887,19 +14910,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="77.21875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="77.234375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -14912,7 +14935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="220.8">
+    <row r="2" spans="2:5" ht="224">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14937,7 +14960,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="55.2">
+    <row r="4" spans="2:5" ht="56">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="0">B3+1</f>
         <v>3</v>
@@ -14963,7 +14986,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="173.4" customHeight="1">
+    <row r="6" spans="2:5" ht="173.45" customHeight="1">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14976,7 +14999,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="41.4">
+    <row r="7" spans="2:5" ht="42">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>6</v>
@@ -15104,7 +15127,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="346.8" customHeight="1">
+    <row r="17" spans="2:5" ht="346.85" customHeight="1">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15117,7 +15140,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15141,7 +15164,7 @@
       <c r="D19" s="14"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" ht="235.8" customHeight="1">
+    <row r="20" spans="2:5" ht="235.85" customHeight="1">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15154,7 +15177,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="289.8">
+    <row r="21" spans="2:5" ht="294">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15180,7 +15203,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" ht="41.4">
+    <row r="23" spans="2:5" ht="42">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15201,7 +15224,7 @@
       <c r="D24" s="14"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="82.8">
+    <row r="25" spans="2:5" ht="84">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15227,7 +15250,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="82.8" customHeight="1">
+    <row r="27" spans="2:5" ht="82.85" customHeight="1">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15238,7 +15261,7 @@
       <c r="D27" s="14"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" ht="55.2">
+    <row r="28" spans="2:5" ht="56">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15251,7 +15274,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" ht="55.2">
+    <row r="29" spans="2:5" ht="56">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15264,7 +15287,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="96.6">
+    <row r="30" spans="2:5" ht="98">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -15277,7 +15300,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="27.6">
+    <row r="31" spans="2:5" ht="28">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15290,7 +15313,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="140.4" customHeight="1">
+    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15301,7 +15324,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="27.6">
+    <row r="33" spans="2:5" ht="28">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15327,7 +15350,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="185.4" customHeight="1">
+    <row r="35" spans="2:5" ht="185.45" customHeight="1">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15340,7 +15363,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="55.2">
+    <row r="36" spans="2:5" ht="56">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15353,7 +15376,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" ht="41.4">
+    <row r="37" spans="2:5" ht="42">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15366,7 +15389,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" ht="69">
+    <row r="38" spans="2:5" ht="70">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15431,7 +15454,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="41.4">
+    <row r="43" spans="2:5" ht="42">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15479,7 +15502,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="310.8" customHeight="1">
+    <row r="47" spans="2:5" ht="310.85000000000002" customHeight="1">
       <c r="B47" s="2">
         <f>B46+1</f>
         <v>46</v>
@@ -15527,7 +15550,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="301.8" customHeight="1">
+    <row r="51" spans="2:5" ht="301.85000000000002" customHeight="1">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15540,7 +15563,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -15553,7 +15576,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="96.6">
+    <row r="53" spans="2:5" ht="98">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15588,7 +15611,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="55.2">
+    <row r="56" spans="2:5" ht="56">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15601,7 +15624,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5" ht="28">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15666,7 +15689,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" ht="27.6">
+    <row r="62" spans="2:5" ht="28">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -15749,7 +15772,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" ht="82.8">
+    <row r="69" spans="2:5" ht="84">
       <c r="B69" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -15775,7 +15798,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" ht="27.6">
+    <row r="71" spans="2:5" ht="28">
       <c r="B71" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -15788,7 +15811,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" ht="55.2">
+    <row r="72" spans="2:5" ht="56">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -15814,7 +15837,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" ht="41.4">
+    <row r="74" spans="2:5" ht="42">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -15827,7 +15850,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" ht="110.4">
+    <row r="75" spans="2:5" ht="112">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -15875,22 +15898,30 @@
       <c r="D78" s="14"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" ht="42">
       <c r="B79" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>636</v>
+      </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" ht="70">
       <c r="B80" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>638</v>
+      </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="2:5">
@@ -15898,7 +15929,9 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14" t="s">
+        <v>639</v>
+      </c>
       <c r="D81" s="14"/>
       <c r="E81" s="3"/>
     </row>
@@ -17974,7 +18007,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17991,14 +18024,14 @@
       <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="43.21875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="43.234375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:5" s="4" customFormat="1">
@@ -18336,7 +18369,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="27.6">
+    <row r="47" spans="2:5" ht="28">
       <c r="B47" s="24">
         <v>29</v>
       </c>
@@ -18372,7 +18405,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" ht="27.6">
+    <row r="50" spans="2:5" ht="28">
       <c r="B50" s="24">
         <v>32</v>
       </c>
@@ -18394,7 +18427,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="24">
         <v>34</v>
       </c>
@@ -18406,7 +18439,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="24">
         <v>35</v>
       </c>
@@ -18476,7 +18509,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" ht="151.80000000000001">
+    <row r="61" spans="2:5" ht="154">
       <c r="B61" s="24">
         <v>43</v>
       </c>
@@ -19465,14 +19498,14 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="49.44140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="49.41015625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -20820,14 +20853,14 @@
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="39.1171875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
@@ -21166,15 +21199,15 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -21192,7 +21225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="41.4">
+    <row r="2" spans="2:6" ht="42">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -21238,7 +21271,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="27.6">
+    <row r="6" spans="2:6" ht="28">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -21262,7 +21295,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="41.4">
+    <row r="8" spans="2:6" ht="42">
       <c r="B8" s="2">
         <v>7</v>
       </c>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF246ED-6EA4-44A9-BFD2-CAD27A18B95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13ABD6-89DC-45D7-907F-5083560BC33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="12" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="addition_3" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="650">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3117,6 +3118,31 @@
   </si>
   <si>
     <t>包围球碰撞检测方法是用球体包围整个几何体, 无论是几何体还是相交测试都很简单; 但是它的紧密性太差。因为除了在3 个坐标轴上分布得比较均匀的几何体外, 几乎都会留下较大的空隙, 需要花费大量的预处理时间, 以构造一个好的层次结构逼近对象。当物体变形之后,包围球树需要重新计算。因此,它是使用得比较少的一种包围盒。当对象发生旋转运动时, 包围球不需作任何更新, 这是包围球的较优秀特性; 当几何对象进行频繁的旋转运动时, 采用包围球可能得到较好结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空的析构函数有什么用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placement new是什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一般来说，使用new申请空间时，是从系统的“堆”（heap）中分配空间。申请所得的空间的位置是根据当时的内存的实际使用情况决定的。但是，在某些特殊情况下，可能需要在已分配的特定内存创建对象，这就是所谓的“定位放置new”（placement new）操作。  
+定位放置new操作的语法形式不同于普通的new操作。例如，一般都用如下语句A* p=new A;申请空间，而定位放置new操作则使用如下语句A* p=new (ptr)A;申请空间，其中ptr就是程序员指定的内存首地址。
+new 的三种形式:
+void* operator new (std::size_t size) throw (std::bad_alloc);  
+void* operator new (std::size_t size, const std::nothrow_t&amp; nothrow_constant) throw();  
+void* operator new (std::size_t size, void* ptr) throw();  
+A* a = new A; //调用第一种 ，分配失败抛bad_alloc异常
+A* a = new(std::nothrow) A; //调用第二种，分配失败返回空指针
+new (p)A(); //调用第三种，不分配内存，在p所指内存处直接构造
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9730,7 +9756,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -14533,9 +14559,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15563,17 +15589,25 @@
         <f t="shared" ref="B82:B145" si="3">B81+1</f>
         <v>73</v>
       </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
+      <c r="C82" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>647</v>
+      </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" ht="193.2">
       <c r="B83" s="2">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
+      <c r="C83" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>649</v>
+      </c>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="2:5">

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13ABD6-89DC-45D7-907F-5083560BC33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DCFD0-F1EE-4CD2-A666-97756F0CCA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" firstSheet="3" activeTab="17" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <sheet name="addition_3" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="666">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3125,10 +3124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>似乎是的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>placement new是什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3143,6 +3138,86 @@
 A* a = new(std::nothrow) A; //调用第二种，分配失败返回空指针
 new (p)A(); //调用第三种，不分配内存，在p所指内存处直接构造
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>似乎是没用的
+显示调用析构并不意味着对象销毁，在对象销毁时还会再次调用析构，可以理解为一个FinishAction，类似onDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGI STL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGI的标准模板
+SGI的全称 -- 硅图[计算机系统] 公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_ptr和shared_ptr区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_ptr不带计数，shared_ptr和unique_ptr时c++11的
+auto_ptr所做的事情，就是动态分配对象以及当对象不再需要时自动执行清理
+1、auto_ptr不能共享所有权。
+2、auto_ptr不能指向数组
+3、auto_ptr不能作为容器的成员。
+4、不能通过赋值操作来初始化auto_ptr
+std::auto_ptr&lt;int&gt; p(new int(42));     //OK
+std::auto_ptr&lt;int&gt; p = new int(42);    //ERROR
+这是因为auto_ptr 的构造函数被定义为了explicit
+5、不要把auto_ptr放入容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wek_ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C++11 标准新引入了 shared_ptr、unique_ptr 以及 weak_ptr </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA传递function编译错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因是静态成员没有显示初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git for-each-ref --format='%(committerdate) %09 %(authorname) %09 %(refname)' | sort -k5n -k2M -k3n -k4n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有分支的创建信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__declspec ( extended-decl-modifier )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_43679037/article/details/121912686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSVC，就是微软（MS）的VC运行库。
+　　VC运行库，是Visual C++的运行库。很多程序在编制的时候，使用了微软的运行库，大大减少了软件的编码量，却提高了兼容性。但运行的时候，需要这些运行库。这些运行库简称就是MSVC。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AndroidDataSource getDomain为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓xml路径与设置路径不一致，找不到xml，xml需要放在bin目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4146,8 +4221,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="678180"/>
-          <a:ext cx="6458851" cy="3987735"/>
+          <a:off x="704850" y="680085"/>
+          <a:ext cx="6455041" cy="4081080"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -11977,8 +12052,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12098,9 +12173,13 @@
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>664</v>
+      </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>665</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6">
@@ -14007,8 +14086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D2D2E-2851-4F4B-B6EA-427EF9C64043}">
   <dimension ref="A1:A64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14559,9 +14638,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15584,7 +15663,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" ht="41.4">
       <c r="B82" s="2">
         <f t="shared" ref="B82:B145" si="3">B81+1</f>
         <v>73</v>
@@ -15593,7 +15672,7 @@
         <v>646</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E82" s="3"/>
     </row>
@@ -15603,29 +15682,37 @@
         <v>74</v>
       </c>
       <c r="C83" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D83" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>649</v>
-      </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" ht="27.6">
       <c r="B84" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="C84" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>651</v>
+      </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" ht="138">
       <c r="B85" s="2">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="C85" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>653</v>
+      </c>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="2:5">
@@ -15633,8 +15720,12 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
+      <c r="C86" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>655</v>
+      </c>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="2:5">
@@ -15642,17 +15733,25 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="C87" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>657</v>
+      </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" ht="27.6">
       <c r="B88" s="2">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
+      <c r="C88" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>659</v>
+      </c>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="2:5">
@@ -15660,17 +15759,25 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
+      <c r="C89" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>661</v>
+      </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" ht="41.4">
       <c r="B90" s="2">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
+      <c r="C90" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>662</v>
+      </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5">
@@ -17651,10 +17758,11 @@
     <hyperlink ref="D49" r:id="rId2" xr:uid="{142CA485-A385-4466-B1F5-3DBDA44F18FB}"/>
     <hyperlink ref="D73" location="addition_1!A1" display="详见sheet addtion_1" xr:uid="{088AD35D-9EA8-4324-852A-254ACD39CA1D}"/>
     <hyperlink ref="D38" location="addition_2!A1" display="addition_2!A1" xr:uid="{FFE68744-0FDD-4897-A732-D6AE99A594E7}"/>
+    <hyperlink ref="D89" r:id="rId3" xr:uid="{ECCDD245-842C-4283-B93C-78FD33796489}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949DCFD0-F1EE-4CD2-A666-97756F0CCA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEDA4D-0879-4A37-BDB9-344809E971B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" firstSheet="3" activeTab="17" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" firstSheet="8" activeTab="14" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -27,14 +27,15 @@
     <sheet name="Android相关" sheetId="6" r:id="rId12"/>
     <sheet name="LearnOpenGL" sheetId="4" r:id="rId13"/>
     <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId14"/>
-    <sheet name="Java" sheetId="12" r:id="rId15"/>
-    <sheet name="JNI" sheetId="11" r:id="rId16"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId17"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId18"/>
-    <sheet name="优化" sheetId="8" r:id="rId19"/>
-    <sheet name="addition_1" sheetId="27" r:id="rId20"/>
-    <sheet name="addition_2" sheetId="30" r:id="rId21"/>
-    <sheet name="addition_3" sheetId="32" r:id="rId22"/>
+    <sheet name="安卓工程组建" sheetId="34" r:id="rId15"/>
+    <sheet name="Java" sheetId="12" r:id="rId16"/>
+    <sheet name="JNI" sheetId="11" r:id="rId17"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId18"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId19"/>
+    <sheet name="优化" sheetId="8" r:id="rId20"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId21"/>
+    <sheet name="addition_2" sheetId="30" r:id="rId22"/>
+    <sheet name="addition_3" sheetId="32" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="690">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3218,6 +3219,95 @@
   </si>
   <si>
     <t>安卓xml路径与设置路径不一致，找不到xml，xml需要放在bin目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTTI机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTTI(Run Time Type Identification)即通过运行时类型识别，程序能够使用基类的指针或引用来检查着这些指针或引用所指的对象的实际派生类型
+为什么会出现RTTI这一机制，这和C++语言本身有关系。和很多其他语言一样，C++是一种静态类型语言。其数据类型是在编译期就确定的，不能在运行时更改。然而由于面向对象程序设计中多态性的要求，C++中的指针或引用(Reference)本身的类型，可能与它实际代表(指向或引用)的类型并不一致。有时我们需要将一个多态指针转换为其实际指向对象的类型，就需要知道运行时的类型信息，这就产生了运行时类型识别的要求。和Java相比，C++要想获得运行时类型信息，只能通过RTTI机制，并且C++最终生成的代码是直接与机器相关的。
+我对Java的运行时类型识别不是很熟悉，所以查了一下相关资料：Java中任何一个类都可以通过反射机制来获取类的基本信息（接口、父类、方法、属性、Annotation等），而且Java中还提供了一个关键字，可以在运行时判断一个类是不是另一个类的子类或者是该类的对象，Java可以生成字节码文件，再由JVM（Java虚拟机）加载运行，字节码文件中可以含有类的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地球上任一纬度圈的半径=地球平均半径*cos纬度值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何计算任意纬度的周长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左值引用和右值引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rangeFor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(auto&amp; o : container)叫什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么返回局部变量的引用没出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量不是立即销毁，所以结果是未知的，可能还能读到原来的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/u012198575/article/details/83142419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windows cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　DIR [目录名或文件名] [/S][/W][/P][/A] 列出目录 参数: /s 查找子目录/w 只显示文件名 /p 分页/a 显示隐藏文件 DIR format.exe /s查找该盘的format.exe文件并报告位置</t>
+  </si>
+  <si>
+    <t>　　MD (MKDIR) [目录名] 创建目录 MKDIR HELLOWORLD 创建HELLOWORLD目录</t>
+  </si>
+  <si>
+    <t>　　CD (CHDIR) [目录名] PS:可以使用相对目录或绝对目录 进入目录 CD AA 进入当前文件夹下的AA目录,cd .. 进入上一个文件夹cd \返回根目录;cd c:\windows 进入c:\windows文件夹</t>
+  </si>
+  <si>
+    <t>　　RD ( RMDIR) [目录名] 删除目录 RD HELLOWORLD 删除HELLOWORLD目录</t>
+  </si>
+  <si>
+    <t>3.文件操作</t>
+  </si>
+  <si>
+    <t>　　删除目录及其文件： rmdir [目录名或文件名] [/S][/W][/P][/A] 。例 rmdir c:\qqdownload/s 删除C盘的qqdownload目录。</t>
+  </si>
+  <si>
+    <t>　　del [目录名或文件名] [/f][/s][/q] 删除 参数:/f 删除只读文件/s 删除该目录及其下的所有内容 /q 删除前不确认</t>
+  </si>
+  <si>
+    <t>　　del c:\del /s /q 自动删除c盘的del目录。</t>
+  </si>
+  <si>
+    <t>　　copy [源文件或目录] [目标目录] 复制文件 copy d:\pwin98\*.* c:\presetup 将d盘的pwin98的所有文件复制到c盘的presetup下。</t>
+  </si>
+  <si>
+    <t>显示当前路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haomo项目打包APK后无法打开数据文件，adb shell确认文件已经拷贝至设备中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径错误，kanzi studio的bin路径在设备上跑是不对的，需要补全copyasset的目标路径，这个路径需要通过安卓传递至kanzi，正常情况下需要通过AndroidDatasource进行传递</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3919,6 +4009,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>548640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5268575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1396259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02488212-B1AD-470C-89C0-147D7D901B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5760720" y="899160"/>
+          <a:ext cx="5238095" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -4095,7 +4234,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4144,7 +4283,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4193,7 +4332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4895,7 +5034,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10217,8 +10356,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -10864,6 +11003,367 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C8AEE-9103-48D1-BE1B-8B3FA6E32A4B}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="71.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="120.6" customHeight="1">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2">
+        <v>37</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2">
+        <v>38</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2">
+        <v>40</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -11246,7 +11746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
@@ -11628,7 +12128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -12047,13 +12547,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12478,416 +12978,6 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
-  <sheetPr codeName="Sheet14"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="227.4" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14030,6 +14120,416 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="227.4" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
   <dimension ref="A2:B209"/>
   <sheetViews>
@@ -14082,7 +14582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D2D2E-2851-4F4B-B6EA-427EF9C64043}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -14368,7 +14868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EEA683-0C91-4C89-978B-E7620302E484}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14388,7 +14888,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -14467,8 +14967,12 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>668</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="3"/>
     </row>
@@ -14639,8 +15143,8 @@
   <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15780,13 +16284,17 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" ht="179.4">
       <c r="B91" s="2">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>667</v>
+      </c>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="2:5">
@@ -15794,8 +16302,12 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
+      <c r="C92" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>675</v>
+      </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="2:5">
@@ -15803,8 +16315,12 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
+      <c r="C93" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>671</v>
+      </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="2:5">
@@ -15812,8 +16328,12 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
+      <c r="C94" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>674</v>
+      </c>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="2:5">
@@ -17759,10 +18279,11 @@
     <hyperlink ref="D73" location="addition_1!A1" display="详见sheet addtion_1" xr:uid="{088AD35D-9EA8-4324-852A-254ACD39CA1D}"/>
     <hyperlink ref="D38" location="addition_2!A1" display="addition_2!A1" xr:uid="{FFE68744-0FDD-4897-A732-D6AE99A594E7}"/>
     <hyperlink ref="D89" r:id="rId3" xr:uid="{ECCDD245-842C-4283-B93C-78FD33796489}"/>
+    <hyperlink ref="D92" r:id="rId4" xr:uid="{981E4106-33B0-4A32-B088-089613F62360}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -19247,7 +19768,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -20598,341 +21119,403 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A15724-314A-4210-943D-4A1015072904}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="39.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="29"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>399</v>
+        <v>677</v>
       </c>
       <c r="D1" s="30"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" ht="27.6">
       <c r="B2" s="23">
         <v>1</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="D2" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="B3" s="23">
         <v>2</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.6">
       <c r="B4" s="23">
         <v>3</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="B5" s="23">
         <v>4</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="B6" s="23">
         <v>5</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.6">
       <c r="B7" s="23">
         <v>6</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.6">
       <c r="B8" s="23">
         <v>7</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="B9" s="23">
         <v>8</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="27.6">
       <c r="B10" s="23">
         <v>9</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="B11" s="23">
         <v>10</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="14"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="B12" s="23">
         <v>11</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="23">
         <v>12</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="13"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="B14" s="23">
         <v>13</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="20"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="20"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="B15" s="23">
         <v>14</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="B16" s="23">
         <v>15</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="23">
         <v>16</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="13"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="23">
         <v>17</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="23">
         <v>18</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="E19" s="13"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="23">
         <v>19</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="13"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="23">
         <v>20</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="E21" s="13"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="23">
         <v>21</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="E22" s="13"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="23">
         <v>22</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="23">
         <v>23</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="E24" s="13"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="23">
         <v>24</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="E25" s="13"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="23">
         <v>25</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="E26" s="13"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="23">
         <v>26</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="E27" s="13"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="23">
         <v>27</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="E28" s="13"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="23">
         <v>28</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="E29" s="13"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="23">
         <v>29</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="E30" s="13"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="23">
         <v>30</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="E31" s="13"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="23">
         <v>31</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="E32" s="13"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="23">
         <v>32</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="E33" s="13"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="23">
         <v>33</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="E34" s="13"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="23">
         <v>34</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="E35" s="13"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="23">
         <v>35</v>
       </c>
       <c r="C36" s="25"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="E36" s="13"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="23">
         <v>36</v>
       </c>
       <c r="C37" s="25"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="E37" s="13"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="23">
         <v>37</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="E38" s="13"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="23">
         <v>38</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -20948,7 +21531,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GiteeRepository\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FEDA4D-0879-4A37-BDB9-344809E971B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D414C-DF91-44AC-92F6-830B3BD856BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" firstSheet="8" activeTab="14" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="699">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3151,11 +3153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SGI的标准模板
-SGI的全称 -- 硅图[计算机系统] 公司。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>auto_ptr和shared_ptr区别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3308,6 +3305,52 @@
   </si>
   <si>
     <t>路径错误，kanzi studio的bin路径在设备上跑是不对的，需要补全copyasset的目标路径，这个路径需要通过安卓传递至kanzi，正常情况下需要通过AndroidDatasource进行传递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector的自动扩容性能消耗如何避免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时使用reserve扩容到预估大小
+应用场景，比如需要push_back进去很多元素，那么在创建容器之后应当手动扩容
+std::vector&lt;int&gt; list;
+list.reserve(1000);
+for(int I = 0; I &lt;1000; i++)
+    list.push_back(i);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分开后当修改函数实现部分即cpp时并不影响函数的声明部分，其他引用此头文件的文件不需要重新编译，可以提高编译效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要将声明与实现分开到.h和.cpp中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈内存和堆内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种不同的组织内存的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位系统一个指针是4个字节，64位系统是8个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGI实现的标准模板
+SGI的全称 -- 硅图[计算机系统] 公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型必须用左值初始化？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const引用可以用右值初始化，因为const代表不可修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4360,8 +4403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="680085"/>
-          <a:ext cx="6455041" cy="4081080"/>
+          <a:off x="738717" y="682625"/>
+          <a:ext cx="6793707" cy="4139500"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -8467,7 +8510,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -8649,15 +8692,15 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8703,7 +8746,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="27.6">
+    <row r="4" spans="2:6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9081,15 +9124,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="29"/>
-    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="29"/>
+    <col min="3" max="3" width="70.234375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -9151,7 +9194,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="207">
+    <row r="6" spans="2:6" ht="210">
       <c r="B6" s="39"/>
       <c r="C6" s="8" t="s">
         <v>493</v>
@@ -9162,7 +9205,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="151.80000000000001">
+    <row r="7" spans="2:6" ht="140">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -9175,7 +9218,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="82.8">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="39"/>
       <c r="C8" s="8" t="s">
         <v>503</v>
@@ -9232,7 +9275,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="27.6">
+    <row r="13" spans="2:6" ht="28">
       <c r="B13" s="39">
         <v>10</v>
       </c>
@@ -9243,7 +9286,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="55.2">
+    <row r="14" spans="2:6" ht="56">
       <c r="B14" s="39">
         <v>11</v>
       </c>
@@ -9535,14 +9578,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9581,7 +9624,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="205.8" customHeight="1">
+    <row r="4" spans="2:5" ht="205.85" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9607,7 +9650,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="69">
+    <row r="6" spans="2:5" ht="70">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -9665,7 +9708,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -9677,7 +9720,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" ht="69">
+    <row r="12" spans="2:5" ht="70">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -9701,7 +9744,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
+    <row r="14" spans="2:5" ht="284.45" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -9723,7 +9766,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="55.2">
+    <row r="16" spans="2:5" ht="56">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -9974,14 +10017,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="29"/>
-    <col min="3" max="3" width="83.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="29"/>
+    <col min="3" max="3" width="83.76171875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -10044,7 +10087,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="96.6">
+    <row r="7" spans="2:5" ht="84">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -10356,18 +10399,18 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="70.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10384,7 +10427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="82.8">
+    <row r="2" spans="2:5" ht="84">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10396,7 +10439,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="14.4">
+    <row r="3" spans="2:5" ht="14.35">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10408,7 +10451,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="27.6">
+    <row r="4" spans="2:5" ht="28">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10420,7 +10463,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="143.4" customHeight="1">
+    <row r="5" spans="2:5" ht="143.44999999999999" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10516,7 +10559,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="82.8" customHeight="1">
+    <row r="13" spans="2:5" ht="82.85" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -10536,7 +10579,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="27.6">
+    <row r="15" spans="2:5" ht="28">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -10592,7 +10635,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="138">
+    <row r="20" spans="2:5" ht="140">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -10624,7 +10667,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" ht="317.39999999999998">
+    <row r="23" spans="2:5" ht="322">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -10672,7 +10715,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="27.6">
+    <row r="27" spans="2:5" ht="28">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -10696,7 +10739,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="69">
+    <row r="29" spans="2:5" ht="70">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -10770,7 +10813,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" ht="98.4" customHeight="1">
+    <row r="35" spans="2:5" ht="98.45" customHeight="1">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -10854,7 +10897,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" ht="27.6">
+    <row r="42" spans="2:5" ht="28">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -10946,7 +10989,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" ht="41.4">
+    <row r="50" spans="2:5" ht="42">
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -10958,7 +11001,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -11006,18 +11049,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C8AEE-9103-48D1-BE1B-8B3FA6E32A4B}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="71.109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="90.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="71.1171875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="90.234375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -11039,10 +11082,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>688</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>689</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -11373,14 +11416,14 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11393,7 +11436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="96.6">
+    <row r="2" spans="2:5" ht="98">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -11405,7 +11448,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11417,7 +11460,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="345">
+    <row r="4" spans="2:5" ht="336">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -11429,7 +11472,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="55.2">
+    <row r="5" spans="2:5" ht="56">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11756,14 +11799,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11792,7 +11835,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="184.8" customHeight="1">
+    <row r="3" spans="2:5" ht="184.85" customHeight="1">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11814,7 +11857,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="235.8" customHeight="1">
+    <row r="5" spans="2:5" ht="235.85" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -12137,14 +12180,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -12556,15 +12599,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="96.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="96.64453125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.87890625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -12599,7 +12642,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="69">
+    <row r="4" spans="2:6" ht="70">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -12657,7 +12700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="96.6">
+    <row r="8" spans="2:6" ht="84">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -12674,11 +12717,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -12997,14 +13040,14 @@
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="83.76171875" style="10" customWidth="1"/>
     <col min="4" max="4" width="92" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -13031,7 +13074,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="41.4">
+    <row r="3" spans="2:5" ht="42">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -13067,7 +13110,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="55.2">
+    <row r="6" spans="2:5" ht="56">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -13079,7 +13122,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+    <row r="7" spans="2:5" ht="199.85" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -13091,7 +13134,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="69">
+    <row r="8" spans="2:5" ht="70">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -13129,7 +13172,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="27.6">
+    <row r="11" spans="2:5" ht="28">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -13189,7 +13232,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="163.85" customHeight="1">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -13213,7 +13256,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -13261,7 +13304,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="27.6">
+    <row r="22" spans="2:5" ht="28">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -13353,7 +13396,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="69">
+    <row r="30" spans="2:5" ht="70">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -13389,7 +13432,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="41.4">
+    <row r="33" spans="2:5" ht="42">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -13413,7 +13456,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="27.6">
+    <row r="35" spans="2:5" ht="28">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -13425,7 +13468,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="27.6">
+    <row r="36" spans="2:5" ht="28">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -13483,7 +13526,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" ht="27.6">
+    <row r="41" spans="2:5" ht="28">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -13599,7 +13642,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="27.6">
+    <row r="51" spans="2:5" ht="28">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -13623,7 +13666,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -13659,7 +13702,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="27.6">
+    <row r="56" spans="2:5" ht="28">
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -13671,7 +13714,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5">
       <c r="B57" s="2">
         <v>56</v>
       </c>
@@ -14129,15 +14172,15 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14157,7 +14200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="227.4" customHeight="1">
+    <row r="2" spans="2:6" ht="227.45" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14535,9 +14578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="25.2">
+    <row r="2" spans="1:2" ht="25">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -14545,15 +14588,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="22.8">
+    <row r="93" spans="2:2" ht="22.7">
       <c r="B93" s="34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="22.8">
+    <row r="96" spans="2:2" ht="22.7">
       <c r="B96" s="34"/>
     </row>
-    <row r="97" spans="1:2" ht="25.2">
+    <row r="97" spans="1:2" ht="25">
       <c r="A97" s="33">
         <v>2</v>
       </c>
@@ -14561,12 +14604,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.399999999999999">
+    <row r="109" spans="1:2" ht="17.7">
       <c r="B109" s="35" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="25.2">
+    <row r="209" spans="1:2" ht="25">
       <c r="A209" s="33">
         <v>3</v>
       </c>
@@ -14590,7 +14633,7 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -14874,7 +14917,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14891,15 +14934,15 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="72.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="72.87890625" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="18" customWidth="1"/>
-    <col min="5" max="5" width="89.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="89.87890625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14968,10 +15011,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="3"/>
@@ -15142,19 +15185,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="77.21875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="77.234375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -15167,7 +15210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="220.8">
+    <row r="2" spans="2:5" ht="224">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15192,7 +15235,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="55.2">
+    <row r="4" spans="2:5" ht="56">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="0">B3+1</f>
         <v>3</v>
@@ -15218,7 +15261,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="173.4" customHeight="1">
+    <row r="6" spans="2:5" ht="173.45" customHeight="1">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15231,7 +15274,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="41.4">
+    <row r="7" spans="2:5" ht="42">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>6</v>
@@ -15359,7 +15402,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="346.8" customHeight="1">
+    <row r="17" spans="2:5" ht="346.85" customHeight="1">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15372,7 +15415,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="27.6">
+    <row r="18" spans="2:5" ht="28">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15396,7 +15439,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" ht="235.8" customHeight="1">
+    <row r="20" spans="2:5" ht="235.85" customHeight="1">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15409,7 +15452,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="289.8">
+    <row r="21" spans="2:5" ht="294">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15435,7 +15478,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" ht="41.4">
+    <row r="23" spans="2:5" ht="42">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15456,7 +15499,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="82.8">
+    <row r="25" spans="2:5" ht="84">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15482,7 +15525,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="82.8" customHeight="1">
+    <row r="27" spans="2:5" ht="82.85" customHeight="1">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15493,7 +15536,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" ht="55.2">
+    <row r="28" spans="2:5" ht="56">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15506,7 +15549,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" ht="55.2">
+    <row r="29" spans="2:5" ht="56">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15519,7 +15562,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="96.6">
+    <row r="30" spans="2:5" ht="98">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -15532,7 +15575,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="27.6">
+    <row r="31" spans="2:5" ht="28">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15545,7 +15588,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="140.4" customHeight="1">
+    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15556,7 +15599,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="27.6">
+    <row r="33" spans="2:5" ht="28">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15582,7 +15625,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="185.4" customHeight="1">
+    <row r="35" spans="2:5" ht="185.45" customHeight="1">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15595,7 +15638,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="55.2">
+    <row r="36" spans="2:5" ht="56">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15608,7 +15651,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" ht="41.4">
+    <row r="37" spans="2:5" ht="42">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15621,7 +15664,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" ht="69">
+    <row r="38" spans="2:5" ht="70">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15686,7 +15729,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="41.4">
+    <row r="43" spans="2:5" ht="42">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15734,7 +15777,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="310.8" customHeight="1">
+    <row r="47" spans="2:5" ht="310.85000000000002" customHeight="1">
       <c r="B47" s="2">
         <f>B46+1</f>
         <v>46</v>
@@ -15782,7 +15825,7 @@
       <c r="D50" s="13"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="301.8" customHeight="1">
+    <row r="51" spans="2:5" ht="301.85000000000002" customHeight="1">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15795,7 +15838,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -15808,7 +15851,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="96.6">
+    <row r="53" spans="2:5" ht="98">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15843,7 +15886,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="55.2">
+    <row r="56" spans="2:5" ht="56">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15856,7 +15899,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="27.6">
+    <row r="57" spans="2:5" ht="28">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15921,7 +15964,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" ht="27.6">
+    <row r="62" spans="2:5" ht="28">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -16004,7 +16047,7 @@
       <c r="D68" s="13"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" ht="82.8">
+    <row r="69" spans="2:5" ht="84">
       <c r="B69" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -16030,7 +16073,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" ht="27.6">
+    <row r="71" spans="2:5" ht="28">
       <c r="B71" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -16043,7 +16086,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" ht="55.2">
+    <row r="72" spans="2:5" ht="56">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -16069,7 +16112,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" ht="41.4">
+    <row r="74" spans="2:5" ht="42">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -16082,7 +16125,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" ht="110.4">
+    <row r="75" spans="2:5" ht="112">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -16130,7 +16173,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5" ht="55.2">
+    <row r="79" spans="2:5" ht="56">
       <c r="B79" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -16143,7 +16186,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5" ht="69">
+    <row r="80" spans="2:5" ht="70">
       <c r="B80" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -16167,7 +16210,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5" ht="41.4">
+    <row r="82" spans="2:5" ht="42">
       <c r="B82" s="2">
         <f t="shared" ref="B82:B145" si="3">B81+1</f>
         <v>73</v>
@@ -16180,7 +16223,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5" ht="193.2">
+    <row r="83" spans="2:5" ht="182">
       <c r="B83" s="2">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -16193,7 +16236,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5" ht="27.6">
+    <row r="84" spans="2:5" ht="28">
       <c r="B84" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -16202,20 +16245,20 @@
         <v>650</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>651</v>
+        <v>696</v>
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5" ht="138">
+    <row r="85" spans="2:5" ht="140">
       <c r="B85" s="2">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="C85" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>652</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>653</v>
       </c>
       <c r="E85" s="3"/>
     </row>
@@ -16225,10 +16268,10 @@
         <v>77</v>
       </c>
       <c r="C86" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="D86" s="13" t="s">
         <v>654</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>655</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -16238,23 +16281,23 @@
         <v>78</v>
       </c>
       <c r="C87" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="D87" s="13" t="s">
-        <v>657</v>
-      </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5" ht="27.6">
+    <row r="88" spans="2:5" ht="28">
       <c r="B88" s="2">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="C88" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>658</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>659</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -16264,36 +16307,36 @@
         <v>80</v>
       </c>
       <c r="C89" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D89" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="D89" s="19" t="s">
-        <v>661</v>
-      </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5" ht="41.4">
+    <row r="90" spans="2:5" ht="42">
       <c r="B90" s="2">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5" ht="179.4">
+    <row r="91" spans="2:5" ht="182">
       <c r="B91" s="2">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="C91" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="D91" s="13" t="s">
         <v>666</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>667</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -16303,10 +16346,10 @@
         <v>83</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -16316,10 +16359,10 @@
         <v>84</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -16329,29 +16372,37 @@
         <v>85</v>
       </c>
       <c r="C94" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D94" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="D94" s="13" t="s">
-        <v>674</v>
-      </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" ht="84">
       <c r="B95" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
+      <c r="C95" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>690</v>
+      </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" ht="28">
       <c r="B96" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="C96" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>691</v>
+      </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:5">
@@ -16359,8 +16410,12 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
+      <c r="C97" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>694</v>
+      </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="2:5">
@@ -16368,7 +16423,9 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13" t="s">
+        <v>695</v>
+      </c>
       <c r="D98" s="13"/>
       <c r="E98" s="3"/>
     </row>
@@ -16377,8 +16434,12 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
+      <c r="C99" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>698</v>
+      </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="2:5">
@@ -18297,14 +18358,14 @@
       <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="43.21875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="43.234375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:5" s="4" customFormat="1">
@@ -18642,7 +18703,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="27.6">
+    <row r="47" spans="2:5" ht="28">
       <c r="B47" s="23">
         <v>29</v>
       </c>
@@ -18678,7 +18739,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" ht="27.6">
+    <row r="50" spans="2:5" ht="28">
       <c r="B50" s="23">
         <v>32</v>
       </c>
@@ -18700,7 +18761,7 @@
       <c r="D51" s="13"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="41.4">
+    <row r="52" spans="2:5" ht="42">
       <c r="B52" s="23">
         <v>34</v>
       </c>
@@ -18712,7 +18773,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="27.6">
+    <row r="53" spans="2:5" ht="28">
       <c r="B53" s="23">
         <v>35</v>
       </c>
@@ -18782,7 +18843,7 @@
       <c r="D60" s="13"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" ht="151.80000000000001">
+    <row r="61" spans="2:5" ht="154">
       <c r="B61" s="23">
         <v>43</v>
       </c>
@@ -19771,14 +19832,14 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="49.44140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="49.41015625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -21126,15 +21187,15 @@
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="14.44140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="80.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="14.41015625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.52734375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="80.3515625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
@@ -21143,17 +21204,17 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6">
+    <row r="2" spans="1:6" ht="28">
       <c r="B2" s="23">
         <v>1</v>
       </c>
@@ -21161,10 +21222,10 @@
         <v>552</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F2" s="3"/>
     </row>
@@ -21175,18 +21236,18 @@
       <c r="C3" s="27"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6">
+    <row r="4" spans="1:6" ht="28">
       <c r="B4" s="23">
         <v>3</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -21197,7 +21258,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -21208,29 +21269,29 @@
       <c r="C6" s="27"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="27.6">
+    <row r="7" spans="1:6" ht="28">
       <c r="B7" s="23">
         <v>6</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="27.6">
+    <row r="8" spans="1:6" ht="28">
       <c r="B8" s="23">
         <v>7</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -21241,18 +21302,18 @@
       <c r="C9" s="27"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="27.6">
+    <row r="10" spans="1:6" ht="28">
       <c r="B10" s="23">
         <v>9</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -21534,15 +21595,15 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.1171875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -21560,7 +21621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="41.4">
+    <row r="2" spans="2:6" ht="42">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -21606,7 +21667,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="27.6">
+    <row r="6" spans="2:6" ht="28">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -21630,7 +21691,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="41.4">
+    <row r="8" spans="2:6" ht="42">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -21967,15 +22028,15 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.87890625" style="4"/>
+    <col min="3" max="3" width="70.234375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="120.41015625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.87890625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -22039,7 +22100,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+    <row r="6" spans="2:6" ht="194.45" customHeight="1">
       <c r="B6" s="2">
         <v>5</v>
       </c>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\GiteeRepository\learn-c\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D414C-DF91-44AC-92F6-830B3BD856BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24612DA8-3EC5-4CEA-9841-3A2A3E331B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -4403,8 +4403,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="738717" y="682625"/>
-          <a:ext cx="6793707" cy="4139500"/>
+          <a:off x="704850" y="680085"/>
+          <a:ext cx="6455041" cy="4081080"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -8510,7 +8510,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -8692,15 +8692,15 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -8746,7 +8746,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" ht="27.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9124,15 +9124,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="29"/>
-    <col min="3" max="3" width="70.234375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="120.41015625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="29"/>
+    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -9194,7 +9194,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="210">
+    <row r="6" spans="2:6" ht="207">
       <c r="B6" s="39"/>
       <c r="C6" s="8" t="s">
         <v>493</v>
@@ -9205,7 +9205,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="140">
+    <row r="7" spans="2:6" ht="151.80000000000001">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -9218,7 +9218,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="84">
+    <row r="8" spans="2:6" ht="82.8">
       <c r="B8" s="39"/>
       <c r="C8" s="8" t="s">
         <v>503</v>
@@ -9275,7 +9275,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="28">
+    <row r="13" spans="2:6" ht="27.6">
       <c r="B13" s="39">
         <v>10</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="56">
+    <row r="14" spans="2:6" ht="55.2">
       <c r="B14" s="39">
         <v>11</v>
       </c>
@@ -9578,14 +9578,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="205.85" customHeight="1">
+    <row r="4" spans="2:5" ht="205.8" customHeight="1">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="2:5" ht="70">
+    <row r="6" spans="2:5" ht="69">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:5" ht="28">
+    <row r="11" spans="2:5" ht="27.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" ht="70">
+    <row r="12" spans="2:5" ht="69">
       <c r="B12" s="2">
         <v>11</v>
       </c>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" ht="284.45" customHeight="1">
+    <row r="14" spans="2:5" ht="284.39999999999998" customHeight="1">
       <c r="B14" s="2">
         <v>13</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="D15" s="13"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" ht="56">
+    <row r="16" spans="2:5" ht="55.2">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -10017,14 +10017,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="29"/>
-    <col min="3" max="3" width="83.76171875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="6"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="29"/>
+    <col min="3" max="3" width="83.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" ht="84">
+    <row r="7" spans="2:5" ht="96.6">
       <c r="B7" s="39">
         <v>5</v>
       </c>
@@ -10403,14 +10403,14 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="70.1171875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="70.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10427,7 +10427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="84">
+    <row r="2" spans="2:5" ht="82.8">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="14.35">
+    <row r="3" spans="2:5" ht="14.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:5" ht="28">
+    <row r="4" spans="2:5" ht="27.6">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="2:5" ht="143.44999999999999" customHeight="1">
+    <row r="5" spans="2:5" ht="143.4" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="82.85" customHeight="1">
+    <row r="13" spans="2:5" ht="82.8" customHeight="1">
       <c r="B13" s="2">
         <v>12</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" ht="28">
+    <row r="15" spans="2:5" ht="27.6">
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -10635,7 +10635,7 @@
       </c>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="2:5" ht="140">
+    <row r="20" spans="2:5" ht="138">
       <c r="B20" s="2">
         <v>19</v>
       </c>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="2:5" ht="322">
+    <row r="23" spans="2:5" ht="317.39999999999998">
       <c r="B23" s="2">
         <v>22</v>
       </c>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="2:5" ht="28">
+    <row r="27" spans="2:5" ht="27.6">
       <c r="B27" s="2">
         <v>26</v>
       </c>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="2:5" ht="70">
+    <row r="29" spans="2:5" ht="69">
       <c r="B29" s="2">
         <v>28</v>
       </c>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="2:5" ht="98.45" customHeight="1">
+    <row r="35" spans="2:5" ht="98.4" customHeight="1">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="2:5" ht="28">
+    <row r="42" spans="2:5" ht="27.6">
       <c r="B42" s="2">
         <v>41</v>
       </c>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="2:5" ht="42">
+    <row r="50" spans="2:5" ht="41.4">
       <c r="B50" s="2">
         <v>49</v>
       </c>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="28">
+    <row r="51" spans="2:5" ht="27.6">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -11053,14 +11053,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="71.1171875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="90.234375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="71.109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="90.21875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -11416,14 +11416,14 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11436,7 +11436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="98">
+    <row r="2" spans="2:5" ht="96.6">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -11448,7 +11448,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="42">
+    <row r="3" spans="2:5" ht="41.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="336">
+    <row r="4" spans="2:5" ht="345">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="56">
+    <row r="5" spans="2:5" ht="55.2">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -11799,14 +11799,14 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="184.85" customHeight="1">
+    <row r="3" spans="2:5" ht="184.8" customHeight="1">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" ht="235.85" customHeight="1">
+    <row r="5" spans="2:5" ht="235.8" customHeight="1">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -12180,14 +12180,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="61.41015625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="84.3515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="61.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -12599,15 +12599,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="96.64453125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="38.87890625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="96.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6" ht="70">
+    <row r="4" spans="2:6" ht="69">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="84">
+    <row r="8" spans="2:6" ht="96.6">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -13040,14 +13040,14 @@
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="83.76171875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
     <col min="4" max="4" width="92" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -13074,7 +13074,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" ht="42">
+    <row r="3" spans="2:5" ht="41.4">
       <c r="B3" s="2">
         <v>2</v>
       </c>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="56">
+    <row r="6" spans="2:5" ht="55.2">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -13122,7 +13122,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="199.85" customHeight="1">
+    <row r="7" spans="2:5" ht="199.8" customHeight="1">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -13134,7 +13134,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" ht="70">
+    <row r="8" spans="2:5" ht="69">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" ht="28">
+    <row r="11" spans="2:5" ht="27.6">
       <c r="B11" s="2">
         <v>10</v>
       </c>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" ht="163.85" customHeight="1">
+    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="28">
+    <row r="18" spans="2:5" ht="27.6">
       <c r="B18" s="2">
         <v>17</v>
       </c>
@@ -13304,7 +13304,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="28">
+    <row r="22" spans="2:5" ht="27.6">
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -13396,7 +13396,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="70">
+    <row r="30" spans="2:5" ht="69">
       <c r="B30" s="2">
         <v>29</v>
       </c>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="2:5" ht="42">
+    <row r="33" spans="2:5" ht="41.4">
       <c r="B33" s="2">
         <v>32</v>
       </c>
@@ -13456,7 +13456,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="28">
+    <row r="35" spans="2:5" ht="27.6">
       <c r="B35" s="2">
         <v>34</v>
       </c>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="28">
+    <row r="36" spans="2:5" ht="27.6">
       <c r="B36" s="2">
         <v>35</v>
       </c>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" ht="28">
+    <row r="41" spans="2:5" ht="27.6">
       <c r="B41" s="2">
         <v>40</v>
       </c>
@@ -13642,7 +13642,7 @@
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="28">
+    <row r="51" spans="2:5" ht="27.6">
       <c r="B51" s="2">
         <v>50</v>
       </c>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="28">
+    <row r="53" spans="2:5" ht="27.6">
       <c r="B53" s="2">
         <v>52</v>
       </c>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="28">
+    <row r="56" spans="2:5" ht="27.6">
       <c r="B56" s="2">
         <v>55</v>
       </c>
@@ -13714,7 +13714,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" ht="27.6">
       <c r="B57" s="2">
         <v>56</v>
       </c>
@@ -14172,15 +14172,15 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="113.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="113.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -14200,7 +14200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="227.45" customHeight="1">
+    <row r="2" spans="2:6" ht="227.4" customHeight="1">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14578,9 +14578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="25">
+    <row r="2" spans="1:2" ht="25.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -14588,15 +14588,15 @@
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="22.7">
+    <row r="93" spans="2:2" ht="22.8">
       <c r="B93" s="34" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="22.7">
+    <row r="96" spans="2:2" ht="22.8">
       <c r="B96" s="34"/>
     </row>
-    <row r="97" spans="1:2" ht="25">
+    <row r="97" spans="1:2" ht="25.2">
       <c r="A97" s="33">
         <v>2</v>
       </c>
@@ -14604,12 +14604,12 @@
         <v>536</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="17.7">
+    <row r="109" spans="1:2" ht="17.399999999999999">
       <c r="B109" s="35" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="25">
+    <row r="209" spans="1:2" ht="25.2">
       <c r="A209" s="33">
         <v>3</v>
       </c>
@@ -14633,7 +14633,7 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -14917,7 +14917,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14934,15 +14934,15 @@
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="72.87890625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="72.88671875" style="4" customWidth="1"/>
     <col min="4" max="4" width="67" style="18" customWidth="1"/>
-    <col min="5" max="5" width="89.87890625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="5" max="5" width="89.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -15186,18 +15186,18 @@
   <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="77.234375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="77.21875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -15210,7 +15210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="224">
+    <row r="2" spans="2:5" ht="220.8">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" ht="56">
+    <row r="4" spans="2:5" ht="55.2">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B63" si="0">B3+1</f>
         <v>3</v>
@@ -15261,7 +15261,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" ht="173.45" customHeight="1">
+    <row r="6" spans="2:5" ht="173.4" customHeight="1">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" ht="42">
+    <row r="7" spans="2:5" ht="41.4">
       <c r="B7" s="2">
         <f>B6+1</f>
         <v>6</v>
@@ -15402,7 +15402,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" ht="346.85" customHeight="1">
+    <row r="17" spans="2:5" ht="346.8" customHeight="1">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15415,7 +15415,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" ht="28">
+    <row r="18" spans="2:5" ht="27.6">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15439,7 +15439,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5" ht="235.85" customHeight="1">
+    <row r="20" spans="2:5" ht="235.8" customHeight="1">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="294">
+    <row r="21" spans="2:5" ht="289.8">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" ht="42">
+    <row r="23" spans="2:5" ht="41.4">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -15499,7 +15499,7 @@
       <c r="D24" s="13"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="84">
+    <row r="25" spans="2:5" ht="82.8">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:5" ht="82.85" customHeight="1">
+    <row r="27" spans="2:5" ht="82.8" customHeight="1">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -15536,7 +15536,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:5" ht="56">
+    <row r="28" spans="2:5" ht="55.2">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:5" ht="56">
+    <row r="29" spans="2:5" ht="55.2">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="98">
+    <row r="30" spans="2:5" ht="96.6">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="2:5" ht="28">
+    <row r="31" spans="2:5" ht="27.6">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:5" ht="140.44999999999999" customHeight="1">
+    <row r="32" spans="2:5" ht="140.4" customHeight="1">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -15599,7 +15599,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:5" ht="28">
+    <row r="33" spans="2:5" ht="27.6">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -15625,7 +15625,7 @@
       </c>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="2:5" ht="185.45" customHeight="1">
+    <row r="35" spans="2:5" ht="185.4" customHeight="1">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" ht="56">
+    <row r="36" spans="2:5" ht="55.2">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" ht="42">
+    <row r="37" spans="2:5" ht="41.4">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -15664,7 +15664,7 @@
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" ht="70">
+    <row r="38" spans="2:5" ht="69">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -15729,7 +15729,7 @@
       </c>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" ht="42">
+    <row r="43" spans="2:5" ht="41.4">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -15777,7 +15777,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="310.85000000000002" customHeight="1">
+    <row r="47" spans="2:5" ht="310.8" customHeight="1">
       <c r="B47" s="2">
         <f>B46+1</f>
         <v>46</v>
@@ -15825,7 +15825,7 @@
       <c r="D50" s="13"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="2:5" ht="301.85000000000002" customHeight="1">
+    <row r="51" spans="2:5" ht="301.8" customHeight="1">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15838,7 +15838,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="42">
+    <row r="52" spans="2:5" ht="41.4">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="98">
+    <row r="53" spans="2:5" ht="96.6">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15886,7 +15886,7 @@
       <c r="D55" s="13"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="2:5" ht="56">
+    <row r="56" spans="2:5" ht="55.2">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -15899,7 +15899,7 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="2:5" ht="28">
+    <row r="57" spans="2:5" ht="27.6">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -15964,7 +15964,7 @@
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="2:5" ht="28">
+    <row r="62" spans="2:5" ht="27.6">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -16047,7 +16047,7 @@
       <c r="D68" s="13"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="2:5" ht="84">
+    <row r="69" spans="2:5" ht="82.8">
       <c r="B69" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="2:5" ht="28">
+    <row r="71" spans="2:5" ht="27.6">
       <c r="B71" s="2">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="2:5" ht="56">
+    <row r="72" spans="2:5" ht="55.2">
       <c r="B72" s="2">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -16112,7 +16112,7 @@
       </c>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="2:5" ht="42">
+    <row r="74" spans="2:5" ht="41.4">
       <c r="B74" s="2">
         <f t="shared" si="2"/>
         <v>65</v>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="2:5" ht="112">
+    <row r="75" spans="2:5" ht="110.4">
       <c r="B75" s="2">
         <f t="shared" si="2"/>
         <v>66</v>
@@ -16173,7 +16173,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="2:5" ht="56">
+    <row r="79" spans="2:5" ht="55.2">
       <c r="B79" s="2">
         <f t="shared" si="2"/>
         <v>70</v>
@@ -16186,7 +16186,7 @@
       </c>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="2:5" ht="70">
+    <row r="80" spans="2:5" ht="69">
       <c r="B80" s="2">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -16210,7 +16210,7 @@
       <c r="D81" s="13"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="2:5" ht="42">
+    <row r="82" spans="2:5" ht="41.4">
       <c r="B82" s="2">
         <f t="shared" ref="B82:B145" si="3">B81+1</f>
         <v>73</v>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="2:5" ht="182">
+    <row r="83" spans="2:5" ht="193.2">
       <c r="B83" s="2">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -16236,7 +16236,7 @@
       </c>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="2:5" ht="28">
+    <row r="84" spans="2:5" ht="27.6">
       <c r="B84" s="2">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -16249,7 +16249,7 @@
       </c>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="2:5" ht="140">
+    <row r="85" spans="2:5" ht="138">
       <c r="B85" s="2">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -16288,7 +16288,7 @@
       </c>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="2:5" ht="28">
+    <row r="88" spans="2:5" ht="27.6">
       <c r="B88" s="2">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -16314,7 +16314,7 @@
       </c>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="2:5" ht="42">
+    <row r="90" spans="2:5" ht="41.4">
       <c r="B90" s="2">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -16327,7 +16327,7 @@
       </c>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="2:5" ht="182">
+    <row r="91" spans="2:5" ht="179.4">
       <c r="B91" s="2">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="2:5" ht="84">
+    <row r="95" spans="2:5" ht="82.8">
       <c r="B95" s="2">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -16392,7 +16392,7 @@
       </c>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="2:5" ht="28">
+    <row r="96" spans="2:5" ht="27.6">
       <c r="B96" s="2">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -18358,14 +18358,14 @@
       <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="43.234375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="43.21875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="17" spans="1:5" s="4" customFormat="1">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" ht="28">
+    <row r="47" spans="2:5" ht="27.6">
       <c r="B47" s="23">
         <v>29</v>
       </c>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" ht="28">
+    <row r="50" spans="2:5" ht="27.6">
       <c r="B50" s="23">
         <v>32</v>
       </c>
@@ -18761,7 +18761,7 @@
       <c r="D51" s="13"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="2:5" ht="42">
+    <row r="52" spans="2:5" ht="41.4">
       <c r="B52" s="23">
         <v>34</v>
       </c>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="2:5" ht="28">
+    <row r="53" spans="2:5" ht="27.6">
       <c r="B53" s="23">
         <v>35</v>
       </c>
@@ -18843,7 +18843,7 @@
       <c r="D60" s="13"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" ht="154">
+    <row r="61" spans="2:5" ht="151.80000000000001">
       <c r="B61" s="23">
         <v>43</v>
       </c>
@@ -19832,14 +19832,14 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="49.41015625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.87890625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.87890625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="49.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" s="4" customFormat="1">
@@ -21184,18 +21184,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="14.41015625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.52734375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="80.3515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="14.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="80.33203125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
@@ -21214,7 +21214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28">
+    <row r="2" spans="1:6" ht="27.6">
       <c r="B2" s="23">
         <v>1</v>
       </c>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="28">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="B4" s="23">
         <v>3</v>
       </c>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6" ht="27.6">
       <c r="B7" s="23">
         <v>6</v>
       </c>
@@ -21284,7 +21284,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:6" ht="27.6">
       <c r="B8" s="23">
         <v>7</v>
       </c>
@@ -21306,7 +21306,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="28">
+    <row r="10" spans="1:6" ht="27.6">
       <c r="B10" s="23">
         <v>9</v>
       </c>
@@ -21595,15 +21595,15 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.1171875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -21621,7 +21621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="42">
+    <row r="2" spans="2:6" ht="41.4">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -21667,7 +21667,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="28">
+    <row r="6" spans="2:6" ht="27.6">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -21691,7 +21691,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" ht="42">
+    <row r="8" spans="2:6" ht="41.4">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -22028,15 +22028,15 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.52734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" style="4"/>
-    <col min="3" max="3" width="70.234375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="120.41015625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.1171875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.87890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.87890625" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
@@ -22100,7 +22100,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" ht="194.45" customHeight="1">
+    <row r="6" spans="2:6" ht="194.4" customHeight="1">
       <c r="B6" s="2">
         <v>5</v>
       </c>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24612DA8-3EC5-4CEA-9841-3A2A3E331B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DA02B-B109-4277-BBF7-233C9A2B210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -45,9 +45,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="708">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3351,6 +3349,55 @@
   </si>
   <si>
     <t>const引用可以用右值初始化，因为const代表不可修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A failure occurred while executing com.android.build.gradle.tasks.PackageAnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加如下配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数重载是在编译期完成吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态多态(重载函数:编译时完成),动态多态(通过父类指针或引用调用虚函数:运行时由程序自已完成)
+还有
+模板特化、偏特化也是一种编译期多态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓工程组建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addition_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型转换操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class A{}
+class B{
+// 重写类型转换操作符
+  operatorA()
+{
+    return A();
+}
+}
+void main()
+{
+    A a = B();
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8206,6 +8253,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>361531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4732021</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1917555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E8C2E2-996D-4845-8B8C-D1D15396DBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637021" y="53213851"/>
+          <a:ext cx="4693920" cy="1556024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8506,154 +8597,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C4D5F-8CF9-4CD9-B85E-BB52E462CE8B}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:2">
       <c r="B2" s="37" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:2">
       <c r="B3" s="37" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:2">
       <c r="B4" s="37" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
+    <row r="5" spans="2:2">
       <c r="B5" s="37" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
+    <row r="6" spans="2:2">
       <c r="B6" s="37" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
+    <row r="7" spans="2:2">
       <c r="B7" s="37" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:2">
       <c r="B8" s="37" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
-      </c>
+    <row r="9" spans="2:2">
       <c r="B9" s="37" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="2:2">
       <c r="B10" s="37" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
-      </c>
+    <row r="11" spans="2:2">
       <c r="B11" s="37" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
-      </c>
+    <row r="12" spans="2:2">
       <c r="B12" s="37" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
-      </c>
+    <row r="13" spans="2:2">
       <c r="B13" s="37" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:2">
       <c r="B14" s="37" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
+    <row r="15" spans="2:2">
       <c r="B15" s="37" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
+    <row r="16" spans="2:2">
       <c r="B16" s="37" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:2">
       <c r="B17" s="37" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:2">
       <c r="B18" s="37" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:2">
       <c r="B19" s="37" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="37" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="37" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="37" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -8677,6 +8731,9 @@
     <hyperlink ref="B17" location="Bug案例!A1" display="Bug案例" xr:uid="{6D45981E-26EC-46E7-9BCD-7C5173EC7828}"/>
     <hyperlink ref="B18" location="优化!A1" display="优化" xr:uid="{C8DF4125-7FC2-448E-94D1-2FD14717EF91}"/>
     <hyperlink ref="B19" location="addition_1!A1" display="addition_1" xr:uid="{4F2FFFDA-AABB-4F6A-8CDC-D0C64A03284A}"/>
+    <hyperlink ref="B20" location="addition_2!A1" display="addition_2" xr:uid="{E36D5DC3-68F2-455C-BCC6-DD90BB342D63}"/>
+    <hyperlink ref="B21" location="addition_3!A1" display="addition_3" xr:uid="{C6AA1A4D-C4AE-4752-BD60-B0E51EDBEBA1}"/>
+    <hyperlink ref="B22" location="安卓工程组建!A1" display="安卓工程组建" xr:uid="{47150F81-149D-415F-AD88-89D100CF258F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10399,8 +10456,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -11013,12 +11070,16 @@
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" ht="201.6" customHeight="1">
       <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
+      <c r="C52" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>700</v>
+      </c>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="2:5">
@@ -11049,9 +11110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C8AEE-9103-48D1-BE1B-8B3FA6E32A4B}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
@@ -11795,7 +11854,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15186,8 +15245,8 @@
   <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -16442,22 +16501,30 @@
       </c>
       <c r="E99" s="3"/>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" ht="41.4">
       <c r="B100" s="2">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
+      <c r="C100" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>702</v>
+      </c>
       <c r="E100" s="3"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" ht="193.2">
       <c r="B101" s="2">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
+      <c r="C101" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>707</v>
+      </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:5">

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173DA02B-B109-4277-BBF7-233C9A2B210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E6698-E043-404B-A854-EB78ECA0DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
@@ -4450,8 +4450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="704850" y="680085"/>
-          <a:ext cx="6455041" cy="4081080"/>
+          <a:off x="701040" y="678180"/>
+          <a:ext cx="6458851" cy="3987735"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>

--- a/TroubleList.xlsx
+++ b/TroubleList.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace--VisualStudio\Gitee\learn-c\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340E6698-E043-404B-A854-EB78ECA0DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96140AFC-116E-4765-B2BD-BA8482C8FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="889" activeTab="3" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="889" activeTab="5" xr2:uid="{051954DF-AA68-431A-AC91-3671A6E0C87E}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="29" r:id="rId1"/>
-    <sheet name="Kanzi" sheetId="2" r:id="rId2"/>
-    <sheet name="计算相关" sheetId="25" r:id="rId3"/>
-    <sheet name="C&amp;C++" sheetId="14" r:id="rId4"/>
-    <sheet name="Git" sheetId="21" r:id="rId5"/>
-    <sheet name="adb" sheetId="33" r:id="rId6"/>
-    <sheet name="LinuxCmd" sheetId="28" r:id="rId7"/>
-    <sheet name="CMakeList" sheetId="13" r:id="rId8"/>
-    <sheet name="PlugIn" sheetId="16" r:id="rId9"/>
-    <sheet name="其他" sheetId="23" r:id="rId10"/>
-    <sheet name="术语" sheetId="26" r:id="rId11"/>
-    <sheet name="Android相关" sheetId="6" r:id="rId12"/>
-    <sheet name="LearnOpenGL" sheetId="4" r:id="rId13"/>
-    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId14"/>
-    <sheet name="安卓工程组建" sheetId="34" r:id="rId15"/>
-    <sheet name="Java" sheetId="12" r:id="rId16"/>
-    <sheet name="JNI" sheetId="11" r:id="rId17"/>
-    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId18"/>
-    <sheet name="Bug案例" sheetId="7" r:id="rId19"/>
-    <sheet name="优化" sheetId="8" r:id="rId20"/>
-    <sheet name="addition_1" sheetId="27" r:id="rId21"/>
-    <sheet name="addition_2" sheetId="30" r:id="rId22"/>
-    <sheet name="addition_3" sheetId="32" r:id="rId23"/>
+    <sheet name="待调查课题" sheetId="35" r:id="rId2"/>
+    <sheet name="Kanzi" sheetId="2" r:id="rId3"/>
+    <sheet name="计算相关" sheetId="25" r:id="rId4"/>
+    <sheet name="C&amp;C++" sheetId="14" r:id="rId5"/>
+    <sheet name="Git" sheetId="21" r:id="rId6"/>
+    <sheet name="adb" sheetId="33" r:id="rId7"/>
+    <sheet name="Linux&amp;WindowsCmd" sheetId="28" r:id="rId8"/>
+    <sheet name="CMakeList" sheetId="13" r:id="rId9"/>
+    <sheet name="PlugIn" sheetId="16" r:id="rId10"/>
+    <sheet name="其他" sheetId="23" r:id="rId11"/>
+    <sheet name="术语" sheetId="26" r:id="rId12"/>
+    <sheet name="Android相关" sheetId="6" r:id="rId13"/>
+    <sheet name="LearnOpenGL" sheetId="4" r:id="rId14"/>
+    <sheet name="环境&amp;编译&amp;运行等" sheetId="1" r:id="rId15"/>
+    <sheet name="安卓工程组建" sheetId="34" r:id="rId16"/>
+    <sheet name="Java" sheetId="12" r:id="rId17"/>
+    <sheet name="JNI" sheetId="11" r:id="rId18"/>
+    <sheet name="AndroidStudio常用快捷键" sheetId="9" r:id="rId19"/>
+    <sheet name="Bug案例" sheetId="7" r:id="rId20"/>
+    <sheet name="优化" sheetId="8" r:id="rId21"/>
+    <sheet name="addition_1" sheetId="27" r:id="rId22"/>
+    <sheet name="addition_2" sheetId="30" r:id="rId23"/>
+    <sheet name="addition_3" sheetId="32" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="728">
   <si>
     <t>模型节点或骨骼节点复制异常，使用拖动而非复制，复制导致材质异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3398,6 +3399,92 @@
 {
     A a = B();
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶点Tangent的方向与该点纹理坐标轴U的方向是平行的，另外Binormal（副法线）的方向与纹理坐标轴V的方向是平行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当时将另外一个工程的bin目录拷贝到毫末的一个编译工程里面，插件的名称路径是不一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom Affects Scrolling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“标量（scalar），亦称“无向量”。有些物理量，只具有数值大小，而没有方向，部分有正负之分。物理学中，标量（或作纯量）指在坐标变换下保持不变的物理量。用通俗的说法，标量是只有大小，没有方向的量。”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adb logcat -c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sajson，C++ 11的轻量级，极高性能的JSON解析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpengDrive格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/360377363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释的大坑，编码格式不对的话注释也会导致编译错误！！！或者运行错误！！！
+踩坑时的报错内容：缺少函数标题(是否是老式的形式表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀疏向量算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/hequnwang/p/14296882.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/fangcun010/glTF-Tutorials/blob/master/gltfTutorial/gltfTutorial_003_MinimalGltfFile.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haomo优化点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">删除bin目录无用的文件
+去掉重复拷贝asstes
+去掉重复的数据读取
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将远程库退回某个版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git log查找指定版本的版本号
+git reset --hard 版本号
+git push -f强制回退远程仓库到当前版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3592,7 +3679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3718,6 +3805,82 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4450,8 +4613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="701040" y="678180"/>
-          <a:ext cx="6458851" cy="3987735"/>
+          <a:off x="704850" y="680085"/>
+          <a:ext cx="6455041" cy="4081080"/>
           <a:chOff x="701040" y="708660"/>
           <a:chExt cx="6458851" cy="4086795"/>
         </a:xfrm>
@@ -6407,6 +6570,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3436191</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1003841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2102844F-45FE-47A7-8B0D-E4DDC8E091AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="13571220"/>
+          <a:ext cx="3428571" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6916,7 +7123,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8297,6 +8504,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5608320</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>490208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2318CEFB-969B-4B98-9D0D-089BC7AE9160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="55580280"/>
+          <a:ext cx="5433060" cy="322568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8600,7 +8851,7 @@
   <dimension ref="B2:B22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8740,13 +8991,437 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="252" customHeight="1">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" ht="409.6" customHeight="1">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" ht="336.6" customHeight="1">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="194.4" customHeight="1">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F8519-C444-4B5F-8867-3D27B316E0BC}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9172,13 +9847,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E6FBDD-97DB-4CFE-8499-1DE0B1333CB8}">
   <dimension ref="B1:F43"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9356,12 +10031,16 @@
       <c r="E14"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" ht="27.6">
       <c r="B15" s="39">
         <v>12</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>712</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="5"/>
     </row>
@@ -9625,7 +10304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD7164D-8622-4386-9D41-050AD1ED211F}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E42"/>
@@ -10065,7 +10744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC96E8BD-0CD6-4AB8-8B88-80E9722DF710}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:E42"/>
@@ -10450,14 +11129,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE868FC-22FA-4C10-B6B4-C32AE9FFC13F}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -11082,12 +11761,14 @@
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" ht="121.8" customHeight="1">
       <c r="B53" s="2">
         <v>52</v>
       </c>
       <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>710</v>
+      </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="2:5">
@@ -11097,6 +11778,54 @@
       <c r="C54" s="8"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11106,7 +11835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{161C8AEE-9103-48D1-BE1B-8B3FA6E32A4B}">
   <dimension ref="A2:E42"/>
   <sheetViews>
@@ -11465,7 +12194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001FB88E-DDE0-45A1-B437-1882AFC9C4C1}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E42"/>
@@ -11848,7 +12577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F3EAD-F435-442E-B35D-8D9A7B9FB098}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E41"/>
@@ -12230,7 +12959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AA37D6-8326-4B89-B963-7B7465F453EF}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A2:E43"/>
@@ -12649,7 +13378,1375 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD13F27E-1BDF-4DCC-85E7-C704E30234CD}">
+  <dimension ref="A2:E166"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="49.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" s="4" customFormat="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>716</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>717</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="23">
+        <v>3</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="27.6">
+      <c r="B6" s="23">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>722</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="23">
+        <v>5</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="23">
+        <v>6</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="8"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="23">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="23">
+        <v>9</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="23">
+        <v>10</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="23">
+        <v>11</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="23">
+        <v>12</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="23">
+        <v>13</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="23">
+        <v>14</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="23">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="23">
+        <v>16</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="23">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="23">
+        <v>18</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="23">
+        <v>19</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="23">
+        <v>20</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="23">
+        <v>21</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="23">
+        <v>22</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="23">
+        <v>23</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="23">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="23">
+        <v>25</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="23">
+        <v>26</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="23">
+        <v>27</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="23">
+        <v>28</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="23">
+        <v>29</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="23">
+        <v>30</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="23">
+        <v>31</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="23">
+        <v>32</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="23">
+        <v>33</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="23">
+        <v>34</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="23">
+        <v>35</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="23">
+        <v>36</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="23">
+        <v>37</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="23">
+        <v>38</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="23">
+        <v>39</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="23">
+        <v>40</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="23">
+        <v>41</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="23">
+        <v>42</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="23">
+        <v>43</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="23">
+        <v>44</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="23">
+        <v>45</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="23">
+        <v>46</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="23">
+        <v>47</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="23">
+        <v>48</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="23">
+        <v>49</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="23">
+        <v>50</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="23">
+        <v>51</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="23">
+        <v>52</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="23">
+        <v>53</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="23">
+        <v>54</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="23">
+        <v>55</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="23">
+        <v>56</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="23">
+        <v>57</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="23">
+        <v>58</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="23">
+        <v>59</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="23">
+        <v>60</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="23">
+        <v>61</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="23">
+        <v>62</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="23">
+        <v>63</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="23">
+        <v>64</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="23">
+        <v>65</v>
+      </c>
+      <c r="C68" s="25"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="23">
+        <v>66</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="23">
+        <v>67</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="23">
+        <v>68</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="23">
+        <v>69</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="23">
+        <v>70</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="23">
+        <v>71</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="23">
+        <v>72</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="23">
+        <v>73</v>
+      </c>
+      <c r="C76" s="25"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="23">
+        <v>74</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="23">
+        <v>75</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="23">
+        <v>76</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="23">
+        <v>77</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="23">
+        <v>78</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="23">
+        <v>79</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="23">
+        <v>80</v>
+      </c>
+      <c r="C83" s="25"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="23">
+        <v>81</v>
+      </c>
+      <c r="C84" s="25"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="23">
+        <v>82</v>
+      </c>
+      <c r="C85" s="25"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="23">
+        <v>83</v>
+      </c>
+      <c r="C86" s="25"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="23">
+        <v>84</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="23">
+        <v>85</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="23">
+        <v>86</v>
+      </c>
+      <c r="C89" s="25"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="23">
+        <v>87</v>
+      </c>
+      <c r="C90" s="25"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="23">
+        <v>88</v>
+      </c>
+      <c r="C91" s="25"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="23">
+        <v>89</v>
+      </c>
+      <c r="C92" s="25"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="23">
+        <v>90</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="23">
+        <v>91</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="23">
+        <v>92</v>
+      </c>
+      <c r="C95" s="25"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="23">
+        <v>93</v>
+      </c>
+      <c r="C96" s="25"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="23">
+        <v>94</v>
+      </c>
+      <c r="C97" s="25"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="23">
+        <v>95</v>
+      </c>
+      <c r="C98" s="25"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="23">
+        <v>96</v>
+      </c>
+      <c r="C99" s="25"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="23">
+        <v>97</v>
+      </c>
+      <c r="C100" s="25"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="23">
+        <v>98</v>
+      </c>
+      <c r="C101" s="25"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="23">
+        <v>99</v>
+      </c>
+      <c r="C102" s="25"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="23">
+        <v>100</v>
+      </c>
+      <c r="C103" s="25"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="23">
+        <v>101</v>
+      </c>
+      <c r="C104" s="25"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="23">
+        <v>102</v>
+      </c>
+      <c r="C105" s="25"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="23">
+        <v>103</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="23">
+        <v>104</v>
+      </c>
+      <c r="C107" s="25"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="23">
+        <v>105</v>
+      </c>
+      <c r="C108" s="25"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="23">
+        <v>106</v>
+      </c>
+      <c r="C109" s="25"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="23">
+        <v>107</v>
+      </c>
+      <c r="C110" s="25"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="23">
+        <v>108</v>
+      </c>
+      <c r="C111" s="25"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="23">
+        <v>109</v>
+      </c>
+      <c r="C112" s="25"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="23">
+        <v>110</v>
+      </c>
+      <c r="C113" s="25"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="23">
+        <v>111</v>
+      </c>
+      <c r="C114" s="25"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="23">
+        <v>112</v>
+      </c>
+      <c r="C115" s="25"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="23">
+        <v>113</v>
+      </c>
+      <c r="C116" s="25"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="23">
+        <v>114</v>
+      </c>
+      <c r="C117" s="25"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="23">
+        <v>115</v>
+      </c>
+      <c r="C118" s="25"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="23">
+        <v>116</v>
+      </c>
+      <c r="C119" s="25"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="23">
+        <v>117</v>
+      </c>
+      <c r="C120" s="25"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="23">
+        <v>118</v>
+      </c>
+      <c r="C121" s="25"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="23">
+        <v>119</v>
+      </c>
+      <c r="C122" s="25"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="23">
+        <v>120</v>
+      </c>
+      <c r="C123" s="25"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="23">
+        <v>121</v>
+      </c>
+      <c r="C124" s="25"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="23">
+        <v>122</v>
+      </c>
+      <c r="C125" s="25"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="23">
+        <v>123</v>
+      </c>
+      <c r="C126" s="25"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="23">
+        <v>124</v>
+      </c>
+      <c r="C127" s="25"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="23">
+        <v>125</v>
+      </c>
+      <c r="C128" s="25"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="23">
+        <v>126</v>
+      </c>
+      <c r="C129" s="25"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="23">
+        <v>127</v>
+      </c>
+      <c r="C130" s="25"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="23">
+        <v>128</v>
+      </c>
+      <c r="C131" s="25"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="23">
+        <v>129</v>
+      </c>
+      <c r="C132" s="25"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="23">
+        <v>130</v>
+      </c>
+      <c r="C133" s="25"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="23">
+        <v>131</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="23">
+        <v>132</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="23">
+        <v>133</v>
+      </c>
+      <c r="C136" s="25"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="23">
+        <v>134</v>
+      </c>
+      <c r="C137" s="25"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="23">
+        <v>135</v>
+      </c>
+      <c r="C138" s="25"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="23">
+        <v>136</v>
+      </c>
+      <c r="C139" s="25"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="23">
+        <v>137</v>
+      </c>
+      <c r="C140" s="25"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="23">
+        <v>138</v>
+      </c>
+      <c r="C141" s="25"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="23">
+        <v>139</v>
+      </c>
+      <c r="C142" s="25"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="23">
+        <v>140</v>
+      </c>
+      <c r="C143" s="25"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="23">
+        <v>141</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="23">
+        <v>142</v>
+      </c>
+      <c r="C145" s="25"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="23">
+        <v>143</v>
+      </c>
+      <c r="C146" s="25"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="23">
+        <v>144</v>
+      </c>
+      <c r="C147" s="25"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="23">
+        <v>145</v>
+      </c>
+      <c r="C148" s="25"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="23">
+        <v>146</v>
+      </c>
+      <c r="C149" s="25"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" s="23">
+        <v>147</v>
+      </c>
+      <c r="C150" s="25"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" s="23">
+        <v>148</v>
+      </c>
+      <c r="C151" s="25"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="B152" s="23">
+        <v>149</v>
+      </c>
+      <c r="C152" s="25"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="23">
+        <v>150</v>
+      </c>
+      <c r="C153" s="25"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="23">
+        <v>151</v>
+      </c>
+      <c r="C154" s="25"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="23">
+        <v>152</v>
+      </c>
+      <c r="C155" s="25"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="3"/>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="B156" s="23">
+        <v>153</v>
+      </c>
+      <c r="C156" s="25"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="23">
+        <v>154</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="23">
+        <v>155</v>
+      </c>
+      <c r="C158" s="25"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="B159" s="23">
+        <v>156</v>
+      </c>
+      <c r="C159" s="25"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="23">
+        <v>157</v>
+      </c>
+      <c r="C160" s="25"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="3"/>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="B161" s="23">
+        <v>158</v>
+      </c>
+      <c r="C161" s="25"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="B162" s="23">
+        <v>159</v>
+      </c>
+      <c r="C162" s="25"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="23">
+        <v>160</v>
+      </c>
+      <c r="C163" s="25"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="23">
+        <v>161</v>
+      </c>
+      <c r="C164" s="25"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="23">
+        <v>162</v>
+      </c>
+      <c r="C165" s="25"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="3"/>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="23">
+        <v>163</v>
+      </c>
+      <c r="C166" s="25"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{7527C9E4-2CCE-41ED-9A09-F41D5183406E}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{503C4CE5-A3BE-444A-9ECB-2E052D40ACAB}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{86459D7D-B768-4613-A537-793DF9AEE85B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775D3939-A9D0-4D8C-8744-7D5EC12F56FD}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:F42"/>
@@ -13089,1146 +15186,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5BEFB8-0CD9-4695-86D3-C156CA1EAB57}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E110"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="92" style="10" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" ht="41.4">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" ht="55.2">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" ht="199.8" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="2:5" ht="69">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" ht="27.6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" ht="112.2" customHeight="1">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" ht="27.6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="277.2" customHeight="1">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" ht="27.6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" ht="306.60000000000002" customHeight="1">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" ht="69">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5" ht="41.4">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="2:5" ht="27.6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:5" ht="27.6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="2:5" ht="27.6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="2">
-        <v>41</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="2">
-        <v>42</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="2">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="2">
-        <v>44</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="2">
-        <v>45</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" ht="204" customHeight="1">
-      <c r="B47" s="2">
-        <v>46</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="2">
-        <v>47</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="2">
-        <v>48</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="2">
-        <v>49</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" ht="27.6">
-      <c r="B51" s="2">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="2">
-        <v>51</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" ht="27.6">
-      <c r="B53" s="2">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="2">
-        <v>53</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="2">
-        <v>54</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="2:5" ht="27.6">
-      <c r="B56" s="2">
-        <v>55</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:5" ht="27.6">
-      <c r="B57" s="2">
-        <v>56</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="2">
-        <v>57</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D58" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="2">
-        <v>58</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="2">
-        <v>59</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="2">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="2">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="2">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="2">
-        <v>63</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="2">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="2">
-        <v>65</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="2">
-        <v>66</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="2">
-        <v>67</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="2">
-        <v>68</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="2">
-        <v>69</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="2">
-        <v>70</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="2">
-        <v>71</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="2">
-        <v>72</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="2">
-        <v>73</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="2">
-        <v>74</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="2">
-        <v>75</v>
-      </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="2">
-        <v>76</v>
-      </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="2">
-        <v>77</v>
-      </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="2">
-        <v>78</v>
-      </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="2">
-        <v>79</v>
-      </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="2">
-        <v>80</v>
-      </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="2">
-        <v>81</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="2">
-        <v>82</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="2">
-        <v>83</v>
-      </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="2">
-        <v>84</v>
-      </c>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="2">
-        <v>85</v>
-      </c>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="2">
-        <v>86</v>
-      </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="2">
-        <v>87</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="2">
-        <v>88</v>
-      </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="2">
-        <v>89</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="2">
-        <v>90</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="2">
-        <v>91</v>
-      </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="2">
-        <v>92</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="2">
-        <v>93</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="2">
-        <v>94</v>
-      </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="2">
-        <v>95</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="2">
-        <v>96</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="2">
-        <v>97</v>
-      </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="2">
-        <v>98</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="2">
-        <v>99</v>
-      </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="2">
-        <v>100</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="2">
-        <v>101</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="2">
-        <v>102</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="2">
-        <v>103</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="2">
-        <v>104</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="2">
-        <v>105</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="2">
-        <v>106</v>
-      </c>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="2">
-        <v>107</v>
-      </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="2">
-        <v>108</v>
-      </c>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="2">
-        <v>109</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB241BCE-225C-4952-ACC2-B94C27EC5351}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -14272,12 +15237,16 @@
       <c r="E2" s="12"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" ht="55.2">
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>725</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
     </row>
@@ -14631,7 +15600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888C181-2B72-4E33-993A-1E4E749D6F6F}">
   <dimension ref="A2:B209"/>
   <sheetViews>
@@ -14684,7 +15653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D2D2E-2851-4F4B-B6EA-427EF9C64043}">
   <dimension ref="A1:A64"/>
   <sheetViews>
@@ -14970,7 +15939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EEA683-0C91-4C89-978B-E7620302E484}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14985,12 +15954,1146 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD5BEFB8-0CD9-4695-86D3-C156CA1EAB57}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E110"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="83.77734375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="92" style="10" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" ht="41.4">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:5" ht="55.2">
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5" ht="199.8" customHeight="1">
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" ht="69">
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5" ht="27.6">
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" ht="112.2" customHeight="1">
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" ht="163.80000000000001" customHeight="1">
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" ht="27.6">
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" ht="277.2" customHeight="1">
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="2:5" ht="27.6">
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" ht="306.60000000000002" customHeight="1">
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="69">
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5" ht="41.4">
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" ht="27.6">
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" ht="27.6">
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="2">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" ht="27.6">
+      <c r="B41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="2">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="2:5" ht="204" customHeight="1">
+      <c r="B47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" ht="27.6">
+      <c r="B51" s="2">
+        <v>50</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="2">
+        <v>51</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" ht="27.6">
+      <c r="B53" s="2">
+        <v>52</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="2">
+        <v>53</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="2">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" ht="27.6">
+      <c r="B56" s="2">
+        <v>55</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" ht="27.6">
+      <c r="B57" s="2">
+        <v>56</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="2">
+        <v>57</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="2">
+        <v>58</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="2">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="2">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="2">
+        <v>61</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="2">
+        <v>62</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="2">
+        <v>63</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="2">
+        <v>64</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="2">
+        <v>65</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="2">
+        <v>67</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="2">
+        <v>68</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="2">
+        <v>69</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="2">
+        <v>70</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="2">
+        <v>71</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="2">
+        <v>72</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="2">
+        <v>73</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="2">
+        <v>74</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="2">
+        <v>75</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="2">
+        <v>76</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="2">
+        <v>77</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="2">
+        <v>78</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="2">
+        <v>79</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="2">
+        <v>80</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="2">
+        <v>81</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="2">
+        <v>82</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="2">
+        <v>83</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="2">
+        <v>84</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="2">
+        <v>85</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="2">
+        <v>86</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="2">
+        <v>87</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="2">
+        <v>88</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="2">
+        <v>89</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="2">
+        <v>90</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="2">
+        <v>91</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="2">
+        <v>92</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="2">
+        <v>93</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="2">
+        <v>94</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="2">
+        <v>95</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="2">
+        <v>96</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="2">
+        <v>97</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="2">
+        <v>98</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="2">
+        <v>99</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="2">
+        <v>100</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="2">
+        <v>101</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="2">
+        <v>102</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="2">
+        <v>103</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="2">
+        <v>104</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="2">
+        <v>105</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="2">
+        <v>106</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="2">
+        <v>107</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="2">
+        <v>108</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="2">
+        <v>109</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FC2611-1E5D-41D4-B6CB-BD8186A45C06}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15078,12 +17181,16 @@
       <c r="E6" s="13"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" ht="27.6">
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>709</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="3"/>
     </row>
@@ -15239,13 +17346,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0256962B-F3FC-476F-9574-E04CC44E1162}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -16527,12 +18634,14 @@
       </c>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" ht="27.6">
       <c r="B102" s="2">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="C102" s="13"/>
+      <c r="C102" s="13" t="s">
+        <v>719</v>
+      </c>
       <c r="D102" s="13"/>
       <c r="E102" s="3"/>
     </row>
@@ -18415,1472 +20524,1475 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A888DA-1DA5-49DD-94C3-850CBD3025D7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A17:E181"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="17" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="43.21875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="89.88671875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="60.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.5546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="44"/>
+    <col min="3" max="3" width="43.21875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="89.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:5" s="4" customFormat="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:5" s="44" customFormat="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="23">
+      <c r="B18" s="50">
         <v>1</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="23">
+      <c r="B19" s="50">
         <v>2</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="23">
+      <c r="B20" s="50">
         <v>3</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="23">
+      <c r="B21" s="50">
         <v>4</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="23">
+      <c r="B22" s="50">
         <v>5</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="23">
+      <c r="B23" s="50">
         <v>6</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="51" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="53"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="B24" s="23">
+      <c r="B24" s="50">
         <v>7</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="51" t="s">
         <v>444</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="23">
+      <c r="B25" s="50">
         <v>8</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="51" t="s">
         <v>405</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="53"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="23">
+      <c r="B26" s="50">
         <v>9</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="23">
+      <c r="B27" s="50">
         <v>10</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="3"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="53"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="23">
+      <c r="B28" s="50">
         <v>11</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="23">
+      <c r="B29" s="50">
         <v>12</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="53"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="23">
+      <c r="B30" s="50">
         <v>13</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="23">
+      <c r="B31" s="50">
         <v>14</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="51" t="s">
         <v>410</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="3"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="23">
+      <c r="B32" s="50">
         <v>15</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="3"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="53"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="23">
+      <c r="B33" s="50">
         <v>16</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="59" t="s">
         <v>627</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="3"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="23">
+      <c r="B34" s="50">
         <v>17</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="52" t="s">
         <v>416</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="53"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="23">
+      <c r="B35" s="50">
         <v>18</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="23">
+      <c r="B36" s="50">
         <v>19</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="23">
+      <c r="B37" s="50">
         <v>20</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="59" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="53"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="23"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="59" t="s">
         <v>431</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="53"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="23">
+      <c r="B39" s="50">
         <v>21</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="59" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="53"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="23">
+      <c r="B40" s="50">
         <v>22</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="53"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="23">
+      <c r="B41" s="50">
         <v>23</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="53"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="23">
+      <c r="B42" s="50">
         <v>24</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="23">
+      <c r="B43" s="50">
         <v>25</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="59" t="s">
         <v>477</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="53"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="23">
+      <c r="B44" s="50">
         <v>26</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="59" t="s">
         <v>510</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="52" t="s">
         <v>511</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="53"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="23">
+      <c r="B45" s="50">
         <v>27</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="52" t="s">
         <v>513</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="53"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="23">
+      <c r="B46" s="50">
         <v>28</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="52" t="s">
         <v>515</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="53"/>
     </row>
     <row r="47" spans="2:5" ht="27.6">
-      <c r="B47" s="23">
+      <c r="B47" s="50">
         <v>29</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="52" t="s">
         <v>517</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="53"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="23">
+      <c r="B48" s="50">
         <v>30</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="59" t="s">
         <v>518</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="52" t="s">
         <v>519</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="53"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="23">
+      <c r="B49" s="50">
         <v>31</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="52" t="s">
         <v>521</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="53"/>
     </row>
     <row r="50" spans="2:5" ht="27.6">
-      <c r="B50" s="23">
+      <c r="B50" s="50">
         <v>32</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="23">
+      <c r="B51" s="50">
         <v>33</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
     </row>
     <row r="52" spans="2:5" ht="41.4">
-      <c r="B52" s="23">
+      <c r="B52" s="50">
         <v>34</v>
       </c>
-      <c r="C52" s="38" t="s">
+      <c r="C52" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="52" t="s">
         <v>584</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="53"/>
     </row>
     <row r="53" spans="2:5" ht="27.6">
-      <c r="B53" s="23">
+      <c r="B53" s="50">
         <v>35</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="60" t="s">
         <v>586</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="52" t="s">
         <v>583</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="53"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="23">
+      <c r="B54" s="50">
         <v>36</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="3"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="23">
+      <c r="B55" s="50">
         <v>37</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="3"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="53"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="23">
+      <c r="B56" s="50">
         <v>38</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="3"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="53"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="23">
+      <c r="B57" s="50">
         <v>39</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="3"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="23">
+      <c r="B58" s="50">
         <v>40</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="3"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="53"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="23">
+      <c r="B59" s="50">
         <v>41</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="53"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="23">
+      <c r="B60" s="50">
         <v>42</v>
       </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="3"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
     </row>
     <row r="61" spans="2:5" ht="151.80000000000001">
-      <c r="B61" s="23">
+      <c r="B61" s="50">
         <v>43</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="59" t="s">
         <v>581</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="23">
+      <c r="E61" s="53"/>
+    </row>
+    <row r="62" spans="2:5" ht="119.4" customHeight="1">
+      <c r="B62" s="50">
         <v>44</v>
       </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="3"/>
+      <c r="C62" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>727</v>
+      </c>
+      <c r="E62" s="53"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="23">
+      <c r="B63" s="50">
         <v>45</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="3"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="23">
+      <c r="B64" s="50">
         <v>46</v>
       </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="3"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="23">
+      <c r="B65" s="50">
         <v>47</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="3"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="23">
+      <c r="B66" s="50">
         <v>48</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="3"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="53"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="23">
+      <c r="B67" s="50">
         <v>49</v>
       </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="3"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="23">
+      <c r="B68" s="50">
         <v>50</v>
       </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="3"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="53"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="23">
+      <c r="B69" s="50">
         <v>51</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="3"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="23">
+      <c r="B70" s="50">
         <v>52</v>
       </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="3"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="53"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="23">
+      <c r="B71" s="50">
         <v>53</v>
       </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="3"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="23">
+      <c r="B72" s="50">
         <v>54</v>
       </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="3"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="23">
+      <c r="B73" s="50">
         <v>55</v>
       </c>
-      <c r="C73" s="25"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="3"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="53"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="23">
+      <c r="B74" s="50">
         <v>56</v>
       </c>
-      <c r="C74" s="25"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="3"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="53"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="23">
+      <c r="B75" s="50">
         <v>57</v>
       </c>
-      <c r="C75" s="25"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="3"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="23">
+      <c r="B76" s="50">
         <v>58</v>
       </c>
-      <c r="C76" s="25"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="3"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="23">
+      <c r="B77" s="50">
         <v>59</v>
       </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="3"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="23">
+      <c r="B78" s="50">
         <v>60</v>
       </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="3"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="23">
+      <c r="B79" s="50">
         <v>61</v>
       </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="3"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="23">
+      <c r="B80" s="50">
         <v>62</v>
       </c>
-      <c r="C80" s="25"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="3"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="53"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="23">
+      <c r="B81" s="50">
         <v>63</v>
       </c>
-      <c r="C81" s="25"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="3"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="23">
+      <c r="B82" s="50">
         <v>64</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="3"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="23">
+      <c r="B83" s="50">
         <v>65</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="3"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="23">
+      <c r="B84" s="50">
         <v>66</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="3"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="53"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="23">
+      <c r="B85" s="50">
         <v>67</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="3"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="23">
+      <c r="B86" s="50">
         <v>68</v>
       </c>
-      <c r="C86" s="25"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="3"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="53"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="23">
+      <c r="B87" s="50">
         <v>69</v>
       </c>
-      <c r="C87" s="25"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="3"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="53"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="23">
+      <c r="B88" s="50">
         <v>70</v>
       </c>
-      <c r="C88" s="25"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="3"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="53"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="23">
+      <c r="B89" s="50">
         <v>71</v>
       </c>
-      <c r="C89" s="25"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="3"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="53"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="23">
+      <c r="B90" s="50">
         <v>72</v>
       </c>
-      <c r="C90" s="25"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="3"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="53"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="23">
+      <c r="B91" s="50">
         <v>73</v>
       </c>
-      <c r="C91" s="25"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="3"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="53"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="23">
+      <c r="B92" s="50">
         <v>74</v>
       </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="3"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="53"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="23">
+      <c r="B93" s="50">
         <v>75</v>
       </c>
-      <c r="C93" s="25"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="3"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="53"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="23">
+      <c r="B94" s="50">
         <v>76</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="3"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="53"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="23">
+      <c r="B95" s="50">
         <v>77</v>
       </c>
-      <c r="C95" s="25"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="3"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="53"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="23">
+      <c r="B96" s="50">
         <v>78</v>
       </c>
-      <c r="C96" s="25"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="3"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="53"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="23">
+      <c r="B97" s="50">
         <v>79</v>
       </c>
-      <c r="C97" s="25"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="3"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="23">
+      <c r="B98" s="50">
         <v>80</v>
       </c>
-      <c r="C98" s="25"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="3"/>
+      <c r="C98" s="59"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="53"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="23">
+      <c r="B99" s="50">
         <v>81</v>
       </c>
-      <c r="C99" s="25"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="3"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="53"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="23">
+      <c r="B100" s="50">
         <v>82</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="3"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="53"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="23">
+      <c r="B101" s="50">
         <v>83</v>
       </c>
-      <c r="C101" s="25"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="3"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="53"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="23">
+      <c r="B102" s="50">
         <v>84</v>
       </c>
-      <c r="C102" s="25"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="3"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="53"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="23">
+      <c r="B103" s="50">
         <v>85</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="3"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="23">
+      <c r="B104" s="50">
         <v>86</v>
       </c>
-      <c r="C104" s="25"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="3"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="53"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="23">
+      <c r="B105" s="50">
         <v>87</v>
       </c>
-      <c r="C105" s="25"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="3"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="23">
+      <c r="B106" s="50">
         <v>88</v>
       </c>
-      <c r="C106" s="25"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="3"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="53"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="23">
+      <c r="B107" s="50">
         <v>89</v>
       </c>
-      <c r="C107" s="25"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="3"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="53"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="23">
+      <c r="B108" s="50">
         <v>90</v>
       </c>
-      <c r="C108" s="25"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="3"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="53"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="23">
+      <c r="B109" s="50">
         <v>91</v>
       </c>
-      <c r="C109" s="25"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="3"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="53"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="23">
+      <c r="B110" s="50">
         <v>92</v>
       </c>
-      <c r="C110" s="25"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="3"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="53"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="23">
+      <c r="B111" s="50">
         <v>93</v>
       </c>
-      <c r="C111" s="25"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="3"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="53"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="23">
+      <c r="B112" s="50">
         <v>94</v>
       </c>
-      <c r="C112" s="25"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="3"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="53"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="23">
+      <c r="B113" s="50">
         <v>95</v>
       </c>
-      <c r="C113" s="25"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="3"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="53"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="23">
+      <c r="B114" s="50">
         <v>96</v>
       </c>
-      <c r="C114" s="25"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="3"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="53"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="23">
+      <c r="B115" s="50">
         <v>97</v>
       </c>
-      <c r="C115" s="25"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="3"/>
+      <c r="C115" s="59"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="53"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="B116" s="23">
+      <c r="B116" s="50">
         <v>98</v>
       </c>
-      <c r="C116" s="25"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="3"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="53"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="23">
+      <c r="B117" s="50">
         <v>99</v>
       </c>
-      <c r="C117" s="25"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="3"/>
+      <c r="C117" s="59"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="53"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="B118" s="23">
+      <c r="B118" s="50">
         <v>100</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="3"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="53"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="23">
+      <c r="B119" s="50">
         <v>101</v>
       </c>
-      <c r="C119" s="25"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="3"/>
+      <c r="C119" s="59"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="53"/>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="23">
+      <c r="B120" s="50">
         <v>102</v>
       </c>
-      <c r="C120" s="25"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="3"/>
+      <c r="C120" s="59"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="53"/>
     </row>
     <row r="121" spans="2:5">
-      <c r="B121" s="23">
+      <c r="B121" s="50">
         <v>103</v>
       </c>
-      <c r="C121" s="25"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="3"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="53"/>
     </row>
     <row r="122" spans="2:5">
-      <c r="B122" s="23">
+      <c r="B122" s="50">
         <v>104</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="3"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="53"/>
     </row>
     <row r="123" spans="2:5">
-      <c r="B123" s="23">
+      <c r="B123" s="50">
         <v>105</v>
       </c>
-      <c r="C123" s="25"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="3"/>
+      <c r="C123" s="59"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="53"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="B124" s="23">
+      <c r="B124" s="50">
         <v>106</v>
       </c>
-      <c r="C124" s="25"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="3"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="53"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="23">
+      <c r="B125" s="50">
         <v>107</v>
       </c>
-      <c r="C125" s="25"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="3"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="53"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="B126" s="23">
+      <c r="B126" s="50">
         <v>108</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="3"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="53"/>
     </row>
     <row r="127" spans="2:5">
-      <c r="B127" s="23">
+      <c r="B127" s="50">
         <v>109</v>
       </c>
-      <c r="C127" s="25"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="3"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="53"/>
     </row>
     <row r="128" spans="2:5">
-      <c r="B128" s="23">
+      <c r="B128" s="50">
         <v>110</v>
       </c>
-      <c r="C128" s="25"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="3"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="53"/>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="23">
+      <c r="B129" s="50">
         <v>111</v>
       </c>
-      <c r="C129" s="25"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="3"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="53"/>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="23">
+      <c r="B130" s="50">
         <v>112</v>
       </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="3"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="53"/>
     </row>
     <row r="131" spans="2:5">
-      <c r="B131" s="23">
+      <c r="B131" s="50">
         <v>113</v>
       </c>
-      <c r="C131" s="25"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="3"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="53"/>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="23">
+      <c r="B132" s="50">
         <v>114</v>
       </c>
-      <c r="C132" s="25"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="3"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="53"/>
     </row>
     <row r="133" spans="2:5">
-      <c r="B133" s="23">
+      <c r="B133" s="50">
         <v>115</v>
       </c>
-      <c r="C133" s="25"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="3"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="53"/>
     </row>
     <row r="134" spans="2:5">
-      <c r="B134" s="23">
+      <c r="B134" s="50">
         <v>116</v>
       </c>
-      <c r="C134" s="25"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="3"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="53"/>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="23">
+      <c r="B135" s="50">
         <v>117</v>
       </c>
-      <c r="C135" s="25"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="3"/>
+      <c r="C135" s="59"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53"/>
     </row>
     <row r="136" spans="2:5">
-      <c r="B136" s="23">
+      <c r="B136" s="50">
         <v>118</v>
       </c>
-      <c r="C136" s="25"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="3"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="53"/>
     </row>
     <row r="137" spans="2:5">
-      <c r="B137" s="23">
+      <c r="B137" s="50">
         <v>119</v>
       </c>
-      <c r="C137" s="25"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="3"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53"/>
     </row>
     <row r="138" spans="2:5">
-      <c r="B138" s="23">
+      <c r="B138" s="50">
         <v>120</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="3"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="53"/>
     </row>
     <row r="139" spans="2:5">
-      <c r="B139" s="23">
+      <c r="B139" s="50">
         <v>121</v>
       </c>
-      <c r="C139" s="25"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="3"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="53"/>
     </row>
     <row r="140" spans="2:5">
-      <c r="B140" s="23">
+      <c r="B140" s="50">
         <v>122</v>
       </c>
-      <c r="C140" s="25"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="3"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="53"/>
     </row>
     <row r="141" spans="2:5">
-      <c r="B141" s="23">
+      <c r="B141" s="50">
         <v>123</v>
       </c>
-      <c r="C141" s="25"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="3"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="53"/>
     </row>
     <row r="142" spans="2:5">
-      <c r="B142" s="23">
+      <c r="B142" s="50">
         <v>124</v>
       </c>
-      <c r="C142" s="25"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="3"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53"/>
     </row>
     <row r="143" spans="2:5">
-      <c r="B143" s="23">
+      <c r="B143" s="50">
         <v>125</v>
       </c>
-      <c r="C143" s="25"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="3"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="53"/>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="23">
+      <c r="B144" s="50">
         <v>126</v>
       </c>
-      <c r="C144" s="25"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="3"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="53"/>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="23">
+      <c r="B145" s="50">
         <v>127</v>
       </c>
-      <c r="C145" s="25"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="3"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="53"/>
     </row>
     <row r="146" spans="2:5">
-      <c r="B146" s="23">
+      <c r="B146" s="50">
         <v>128</v>
       </c>
-      <c r="C146" s="25"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="3"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="53"/>
     </row>
     <row r="147" spans="2:5">
-      <c r="B147" s="23">
+      <c r="B147" s="50">
         <v>129</v>
       </c>
-      <c r="C147" s="25"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="3"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="53"/>
     </row>
     <row r="148" spans="2:5">
-      <c r="B148" s="23">
+      <c r="B148" s="50">
         <v>130</v>
       </c>
-      <c r="C148" s="25"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="3"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="53"/>
     </row>
     <row r="149" spans="2:5">
-      <c r="B149" s="23">
+      <c r="B149" s="50">
         <v>131</v>
       </c>
-      <c r="C149" s="25"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="3"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="53"/>
     </row>
     <row r="150" spans="2:5">
-      <c r="B150" s="23">
+      <c r="B150" s="50">
         <v>132</v>
       </c>
-      <c r="C150" s="25"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="3"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="53"/>
     </row>
     <row r="151" spans="2:5">
-      <c r="B151" s="23">
+      <c r="B151" s="50">
         <v>133</v>
       </c>
-      <c r="C151" s="25"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="3"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="53"/>
     </row>
     <row r="152" spans="2:5">
-      <c r="B152" s="23">
+      <c r="B152" s="50">
         <v>134</v>
       </c>
-      <c r="C152" s="25"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="3"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="53"/>
     </row>
     <row r="153" spans="2:5">
-      <c r="B153" s="23">
+      <c r="B153" s="50">
         <v>135</v>
       </c>
-      <c r="C153" s="25"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="3"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="53"/>
     </row>
     <row r="154" spans="2:5">
-      <c r="B154" s="23">
+      <c r="B154" s="50">
         <v>136</v>
       </c>
-      <c r="C154" s="25"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="3"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="53"/>
     </row>
     <row r="155" spans="2:5">
-      <c r="B155" s="23">
+      <c r="B155" s="50">
         <v>137</v>
       </c>
-      <c r="C155" s="25"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="3"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="53"/>
     </row>
     <row r="156" spans="2:5">
-      <c r="B156" s="23">
+      <c r="B156" s="50">
         <v>138</v>
       </c>
-      <c r="C156" s="25"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="3"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="53"/>
     </row>
     <row r="157" spans="2:5">
-      <c r="B157" s="23">
+      <c r="B157" s="50">
         <v>139</v>
       </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="3"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="53"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="23">
+      <c r="B158" s="50">
         <v>140</v>
       </c>
-      <c r="C158" s="25"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="3"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="53"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="23">
+      <c r="B159" s="50">
         <v>141</v>
       </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="3"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="53"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="23">
+      <c r="B160" s="50">
         <v>142</v>
       </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="3"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="53"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="23">
+      <c r="B161" s="50">
         <v>143</v>
       </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="3"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="23">
+      <c r="B162" s="50">
         <v>144</v>
       </c>
-      <c r="C162" s="25"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="3"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="53"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="23">
+      <c r="B163" s="50">
         <v>145</v>
       </c>
-      <c r="C163" s="25"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="3"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="53"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="23">
+      <c r="B164" s="50">
         <v>146</v>
       </c>
-      <c r="C164" s="25"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="3"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="53"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="23">
+      <c r="B165" s="50">
         <v>147</v>
       </c>
-      <c r="C165" s="25"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="3"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="53"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="23">
+      <c r="B166" s="50">
         <v>148</v>
       </c>
-      <c r="C166" s="25"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="3"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="53"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="23">
+      <c r="B167" s="50">
         <v>149</v>
       </c>
-      <c r="C167" s="25"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="3"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="53"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="23">
+      <c r="B168" s="50">
         <v>150</v>
       </c>
-      <c r="C168" s="25"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="3"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="53"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="23">
+      <c r="B169" s="50">
         <v>151</v>
       </c>
-      <c r="C169" s="25"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="3"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="53"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="23">
+      <c r="B170" s="50">
         <v>152</v>
       </c>
-      <c r="C170" s="25"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="3"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="53"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="23">
+      <c r="B171" s="50">
         <v>153</v>
       </c>
-      <c r="C171" s="25"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="3"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="53"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="23">
+      <c r="B172" s="50">
         <v>154</v>
       </c>
-      <c r="C172" s="25"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="3"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="53"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="23">
+      <c r="B173" s="50">
         <v>155</v>
       </c>
-      <c r="C173" s="25"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="3"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="53"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="23">
+      <c r="B174" s="50">
         <v>156</v>
       </c>
-      <c r="C174" s="25"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="3"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="53"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="23">
+      <c r="B175" s="50">
         <v>157</v>
       </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="3"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="53"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="23">
+      <c r="B176" s="50">
         <v>158</v>
       </c>
-      <c r="C176" s="25"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="3"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="53"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="23">
+      <c r="B177" s="50">
         <v>159</v>
       </c>
-      <c r="C177" s="25"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="3"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="53"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="23">
+      <c r="B178" s="50">
         <v>160</v>
       </c>
-      <c r="C178" s="25"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="3"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="53"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="23">
+      <c r="B179" s="50">
         <v>161</v>
       </c>
-      <c r="C179" s="25"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="3"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="53"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="23">
+      <c r="B180" s="50">
         <v>162</v>
       </c>
-      <c r="C180" s="25"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="3"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="53"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="23">
+      <c r="B181" s="50">
         <v>163</v>
       </c>
-      <c r="C181" s="25"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="3"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19890,13 +22002,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065D9A22-E080-451C-BE90-A38F9EE8D6CC}">
   <dimension ref="A2:E166"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -19948,8 +22060,12 @@
       <c r="B5" s="23">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>715</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
@@ -21245,13 +23361,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A15724-314A-4210-943D-4A1015072904}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -21652,7 +23768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0CA79D-08DB-4502-BCB3-02C290243CCC}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F41"/>
@@ -22083,428 +24199,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97945AC-0B8C-44A9-9B4E-8A3C9DE6210E}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="3.5546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="70.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="120.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="60.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="252" customHeight="1">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="2:6" ht="409.6" customHeight="1">
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" ht="336.6" customHeight="1">
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="2:6" ht="194.4" customHeight="1">
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" ht="151.19999999999999" customHeight="1">
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="2">
-        <v>35</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="2">
-        <v>36</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="2">
-        <v>37</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="2">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="2">
-        <v>40</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>